--- a/ExcelReading/inputResources/ConstraintsToJSON.xlsx
+++ b/ExcelReading/inputResources/ConstraintsToJSON.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SESA452171\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\excelTojson\ExcelToJSON\ExcelReading\inputResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED40B84-118C-40A8-B8C0-07282660935F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2FF1ECB-A8AD-4D67-A9A2-7B143C0151A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{1F0430CC-FF32-404D-8E6F-02861FD37FCA}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="228">
   <si>
     <t>TYPE</t>
   </si>
@@ -740,7 +740,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,13 +820,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -884,7 +877,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1069,12 +1062,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1197,7 +1210,6 @@
     <xf numFmtId="165" fontId="7" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1207,7 +1219,30 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4035,21 +4070,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54C99C0-56AC-4268-A6D1-0A84E8101377}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="2" width="21.77734375" customWidth="1"/>
     <col min="5" max="5" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>192</v>
       </c>
@@ -4066,7 +4100,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>194</v>
       </c>
@@ -4084,7 +4118,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>196</v>
       </c>
@@ -4102,7 +4136,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>198</v>
       </c>
@@ -4120,7 +4154,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>200</v>
       </c>
@@ -4138,7 +4172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>202</v>
       </c>
@@ -4156,7 +4190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>203</v>
       </c>
@@ -4174,7 +4208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>205</v>
       </c>
@@ -4192,7 +4226,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>207</v>
       </c>
@@ -4210,7 +4244,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>209</v>
       </c>
@@ -4228,7 +4262,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>211</v>
       </c>
@@ -4244,7 +4278,7 @@
       </c>
       <c r="E11" s="35"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>214</v>
       </c>
@@ -4260,8 +4294,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>217</v>
       </c>
@@ -4291,7 +4325,7 @@
         <v>4532</v>
       </c>
       <c r="J14" s="41">
-        <v>0</v>
+        <v>4532</v>
       </c>
       <c r="K14" s="41">
         <v>4532</v>
@@ -4299,14 +4333,15 @@
       <c r="L14" s="41">
         <v>4532</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="43">
         <v>4532</v>
       </c>
-      <c r="N14" s="43">
-        <v>4532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N14" s="61"/>
+      <c r="O14" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>217</v>
       </c>
@@ -4336,7 +4371,7 @@
         <v>3980</v>
       </c>
       <c r="J15" s="45">
-        <v>0</v>
+        <v>3980</v>
       </c>
       <c r="K15" s="45">
         <v>3980</v>
@@ -4344,14 +4379,15 @@
       <c r="L15" s="45">
         <v>3980</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="47">
         <v>3980</v>
       </c>
-      <c r="N15" s="47">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N15" s="63"/>
+      <c r="O15" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>217</v>
       </c>
@@ -4362,7 +4398,7 @@
         <v>219</v>
       </c>
       <c r="D16" s="44" t="str">
-        <f>CONCATENATE(,A16," ",B16," ",C16)</f>
+        <f t="shared" si="1"/>
         <v>ISO20' LAYOUT_02 N</v>
       </c>
       <c r="E16" s="45">
@@ -4370,7 +4406,7 @@
         <v>3832</v>
       </c>
       <c r="F16" s="45">
-        <f t="shared" ref="F16:N16" si="2">+F14-700</f>
+        <f t="shared" ref="F16:M16" si="2">+F14-700</f>
         <v>3832</v>
       </c>
       <c r="G16" s="45">
@@ -4386,7 +4422,8 @@
         <v>3832</v>
       </c>
       <c r="J16" s="45">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3832</v>
       </c>
       <c r="K16" s="45">
         <f t="shared" si="2"/>
@@ -4396,16 +4433,16 @@
         <f t="shared" si="2"/>
         <v>3832</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="47">
         <f t="shared" si="2"/>
         <v>3832</v>
       </c>
-      <c r="N16" s="47">
-        <f t="shared" si="2"/>
-        <v>3832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N16" s="63"/>
+      <c r="O16" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>217</v>
       </c>
@@ -4416,11 +4453,11 @@
         <v>220</v>
       </c>
       <c r="D17" s="44" t="str">
-        <f>CONCATENATE(,A17," ",B17," ",C17)</f>
+        <f t="shared" si="1"/>
         <v>ISO20' LAYOUT_02 2N</v>
       </c>
       <c r="E17" s="45">
-        <f t="shared" ref="E17:N17" si="3">+E15-700</f>
+        <f t="shared" ref="E17:M17" si="3">+E15-700</f>
         <v>3280</v>
       </c>
       <c r="F17" s="45">
@@ -4440,7 +4477,8 @@
         <v>3280</v>
       </c>
       <c r="J17" s="45">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3280</v>
       </c>
       <c r="K17" s="45">
         <f t="shared" si="3"/>
@@ -4450,16 +4488,16 @@
         <f t="shared" si="3"/>
         <v>3280</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="47">
         <f t="shared" si="3"/>
         <v>3280</v>
       </c>
-      <c r="N17" s="47">
-        <f t="shared" si="3"/>
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N17" s="63"/>
+      <c r="O17" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>217</v>
       </c>
@@ -4470,7 +4508,7 @@
         <v>219</v>
       </c>
       <c r="D18" s="44" t="str">
-        <f>CONCATENATE(,A18," ",B18," ",C18)</f>
+        <f t="shared" si="1"/>
         <v>ISO20' LAYOUT_03 N</v>
       </c>
       <c r="E18" s="45">
@@ -4478,7 +4516,7 @@
         <v>2804</v>
       </c>
       <c r="F18" s="45">
-        <f t="shared" ref="F18:N18" si="4">+F28-6096</f>
+        <f t="shared" ref="F18:M18" si="4">+F28-6096</f>
         <v>2804</v>
       </c>
       <c r="G18" s="45">
@@ -4494,7 +4532,8 @@
         <v>3004</v>
       </c>
       <c r="J18" s="45">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2804</v>
       </c>
       <c r="K18" s="45">
         <f t="shared" si="4"/>
@@ -4504,16 +4543,16 @@
         <f t="shared" si="4"/>
         <v>2804</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="47">
         <f t="shared" si="4"/>
         <v>2804</v>
       </c>
-      <c r="N18" s="47">
-        <f t="shared" si="4"/>
-        <v>2804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N18" s="63"/>
+      <c r="O18" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>217</v>
       </c>
@@ -4524,11 +4563,11 @@
         <v>220</v>
       </c>
       <c r="D19" s="44" t="str">
-        <f>CONCATENATE(,A19," ",B19," ",C19)</f>
+        <f t="shared" si="1"/>
         <v>ISO20' LAYOUT_03 2N</v>
       </c>
       <c r="E19" s="45">
-        <f t="shared" ref="E19:N23" si="5">+E29-6096</f>
+        <f t="shared" ref="E19:M23" si="5">+E29-6096</f>
         <v>1904</v>
       </c>
       <c r="F19" s="45">
@@ -4548,7 +4587,8 @@
         <v>1704</v>
       </c>
       <c r="J19" s="45">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1904</v>
       </c>
       <c r="K19" s="45">
         <f t="shared" si="5"/>
@@ -4558,16 +4598,16 @@
         <f t="shared" si="5"/>
         <v>1904</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="47">
         <f t="shared" si="5"/>
         <v>1904</v>
       </c>
-      <c r="N19" s="47">
-        <f t="shared" si="5"/>
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N19" s="63"/>
+      <c r="O19" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>217</v>
       </c>
@@ -4602,7 +4642,8 @@
         <v>3394</v>
       </c>
       <c r="J20" s="45">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3394</v>
       </c>
       <c r="K20" s="45">
         <f t="shared" si="5"/>
@@ -4612,16 +4653,16 @@
         <f t="shared" si="5"/>
         <v>3394</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="47">
         <f t="shared" si="5"/>
         <v>3394</v>
       </c>
-      <c r="N20" s="47">
-        <f t="shared" si="5"/>
-        <v>3394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N20" s="63"/>
+      <c r="O20" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
         <v>217</v>
       </c>
@@ -4656,7 +4697,8 @@
         <v>2129</v>
       </c>
       <c r="J21" s="45">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2394</v>
       </c>
       <c r="K21" s="45">
         <f t="shared" si="5"/>
@@ -4666,16 +4708,16 @@
         <f t="shared" si="5"/>
         <v>2394</v>
       </c>
-      <c r="M21" s="45">
+      <c r="M21" s="47">
         <f t="shared" si="5"/>
         <v>2394</v>
       </c>
-      <c r="N21" s="47">
-        <f t="shared" si="5"/>
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N21" s="63"/>
+      <c r="O21" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
         <v>217</v>
       </c>
@@ -4686,7 +4728,7 @@
         <v>219</v>
       </c>
       <c r="D22" s="44" t="str">
-        <f>CONCATENATE(,A22," ",B22," ",C22)</f>
+        <f t="shared" si="1"/>
         <v>ISO20' LAYOUT_05 N</v>
       </c>
       <c r="E22" s="45">
@@ -4710,7 +4752,8 @@
         <v>2204</v>
       </c>
       <c r="J22" s="45">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2204</v>
       </c>
       <c r="K22" s="45">
         <f t="shared" si="5"/>
@@ -4720,16 +4763,16 @@
         <f t="shared" si="5"/>
         <v>2204</v>
       </c>
-      <c r="M22" s="45">
+      <c r="M22" s="47">
         <f t="shared" si="5"/>
         <v>2204</v>
       </c>
-      <c r="N22" s="47">
-        <f t="shared" si="5"/>
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="63"/>
+      <c r="O22" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="38" t="s">
         <v>217</v>
       </c>
@@ -4740,7 +4783,7 @@
         <v>220</v>
       </c>
       <c r="D23" s="48" t="str">
-        <f>CONCATENATE(,A23," ",B23," ",C23)</f>
+        <f t="shared" si="1"/>
         <v>ISO20' LAYOUT_05 2N</v>
       </c>
       <c r="E23" s="49">
@@ -4764,7 +4807,8 @@
         <v>1604</v>
       </c>
       <c r="J23" s="49">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1604</v>
       </c>
       <c r="K23" s="49">
         <f t="shared" si="5"/>
@@ -4774,16 +4818,16 @@
         <f t="shared" si="5"/>
         <v>1604</v>
       </c>
-      <c r="M23" s="49">
+      <c r="M23" s="51">
         <f t="shared" si="5"/>
         <v>1604</v>
       </c>
-      <c r="N23" s="51">
-        <f t="shared" si="5"/>
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N23" s="64"/>
+      <c r="O23" s="65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>225</v>
       </c>
@@ -4813,7 +4857,7 @@
         <v>10330</v>
       </c>
       <c r="J24" s="41">
-        <v>0</v>
+        <v>10330</v>
       </c>
       <c r="K24" s="41">
         <v>10330</v>
@@ -4821,14 +4865,15 @@
       <c r="L24" s="41">
         <v>10330</v>
       </c>
-      <c r="M24" s="41">
+      <c r="M24" s="43">
         <v>10330</v>
       </c>
-      <c r="N24" s="43">
-        <v>10330</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N24" s="63"/>
+      <c r="O24" s="66" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>225</v>
       </c>
@@ -4857,8 +4902,8 @@
       <c r="I25" s="46">
         <v>9220</v>
       </c>
-      <c r="J25" s="52">
-        <v>0</v>
+      <c r="J25" s="45">
+        <v>9220</v>
       </c>
       <c r="K25" s="45">
         <v>9220</v>
@@ -4866,14 +4911,15 @@
       <c r="L25" s="45">
         <v>9220</v>
       </c>
-      <c r="M25" s="45">
+      <c r="M25" s="47">
         <v>9220</v>
       </c>
-      <c r="N25" s="47">
-        <v>9220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N25" s="63"/>
+      <c r="O25" s="66" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
         <v>225</v>
       </c>
@@ -4884,7 +4930,7 @@
         <v>219</v>
       </c>
       <c r="D26" s="44" t="str">
-        <f>CONCATENATE(,A26," ",B26," ",C26)</f>
+        <f t="shared" si="1"/>
         <v>ISO40' LAYOUT_02 N</v>
       </c>
       <c r="E26" s="45">
@@ -4903,7 +4949,7 @@
         <v>9790</v>
       </c>
       <c r="J26" s="45">
-        <v>0</v>
+        <v>9790</v>
       </c>
       <c r="K26" s="45">
         <v>9790</v>
@@ -4911,14 +4957,15 @@
       <c r="L26" s="45">
         <v>9790</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="47">
         <v>9790</v>
       </c>
-      <c r="N26" s="47">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N26" s="63"/>
+      <c r="O26" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="s">
         <v>225</v>
       </c>
@@ -4929,7 +4976,7 @@
         <v>220</v>
       </c>
       <c r="D27" s="44" t="str">
-        <f>CONCATENATE(,A27," ",B27," ",C27)</f>
+        <f t="shared" si="1"/>
         <v>ISO40' LAYOUT_02 2N</v>
       </c>
       <c r="E27" s="45">
@@ -4948,7 +4995,7 @@
         <v>8500</v>
       </c>
       <c r="J27" s="45">
-        <v>0</v>
+        <v>8725</v>
       </c>
       <c r="K27" s="45">
         <v>8725</v>
@@ -4956,14 +5003,15 @@
       <c r="L27" s="45">
         <v>8725</v>
       </c>
-      <c r="M27" s="45">
+      <c r="M27" s="47">
         <v>8725</v>
       </c>
-      <c r="N27" s="47">
-        <v>8725</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N27" s="63"/>
+      <c r="O27" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>225</v>
       </c>
@@ -4993,7 +5041,7 @@
         <v>9100</v>
       </c>
       <c r="J28" s="45">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="K28" s="45">
         <v>8900</v>
@@ -5001,14 +5049,15 @@
       <c r="L28" s="45">
         <v>8900</v>
       </c>
-      <c r="M28" s="45">
+      <c r="M28" s="47">
         <v>8900</v>
       </c>
-      <c r="N28" s="47">
-        <v>8900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N28" s="63"/>
+      <c r="O28" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="38" t="s">
         <v>225</v>
       </c>
@@ -5038,7 +5087,7 @@
         <v>7800</v>
       </c>
       <c r="J29" s="45">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="K29" s="45">
         <v>8000</v>
@@ -5046,14 +5095,15 @@
       <c r="L29" s="45">
         <v>8000</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="47">
         <v>8000</v>
       </c>
-      <c r="N29" s="47">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N29" s="63"/>
+      <c r="O29" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="38" t="s">
         <v>225</v>
       </c>
@@ -5064,7 +5114,7 @@
         <v>219</v>
       </c>
       <c r="D30" s="44" t="str">
-        <f>CONCATENATE(,A30," ",B30," ",C30)</f>
+        <f t="shared" si="1"/>
         <v>ISO40' LAYOUT_04 N</v>
       </c>
       <c r="E30" s="45">
@@ -5082,8 +5132,8 @@
       <c r="I30" s="46">
         <v>9490</v>
       </c>
-      <c r="J30" s="52">
-        <v>0</v>
+      <c r="J30" s="45">
+        <v>9490</v>
       </c>
       <c r="K30" s="45">
         <v>9490</v>
@@ -5091,14 +5141,15 @@
       <c r="L30" s="45">
         <v>9490</v>
       </c>
-      <c r="M30" s="45">
+      <c r="M30" s="47">
         <v>9490</v>
       </c>
-      <c r="N30" s="47">
-        <v>9490</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N30" s="63"/>
+      <c r="O30" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="s">
         <v>225</v>
       </c>
@@ -5109,7 +5160,7 @@
         <v>220</v>
       </c>
       <c r="D31" s="44" t="str">
-        <f>CONCATENATE(,A31," ",B31," ",C31)</f>
+        <f t="shared" si="1"/>
         <v>ISO40' LAYOUT_04 2N</v>
       </c>
       <c r="E31" s="45">
@@ -5128,7 +5179,7 @@
         <v>8225</v>
       </c>
       <c r="J31" s="45">
-        <v>0</v>
+        <v>8490</v>
       </c>
       <c r="K31" s="45">
         <v>8490</v>
@@ -5136,14 +5187,15 @@
       <c r="L31" s="45">
         <v>8490</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="47">
         <v>8490</v>
       </c>
-      <c r="N31" s="47">
-        <v>8490</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N31" s="63"/>
+      <c r="O31" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>225</v>
       </c>
@@ -5173,7 +5225,7 @@
         <v>8300</v>
       </c>
       <c r="J32" s="45">
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="K32" s="45">
         <v>8300</v>
@@ -5181,14 +5233,15 @@
       <c r="L32" s="45">
         <v>8300</v>
       </c>
-      <c r="M32" s="45">
+      <c r="M32" s="47">
         <v>8300</v>
       </c>
-      <c r="N32" s="47">
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N32" s="63"/>
+      <c r="O32" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38" t="s">
         <v>225</v>
       </c>
@@ -5202,38 +5255,39 @@
         <f t="shared" si="1"/>
         <v>ISO40' LAYOUT_05 2N</v>
       </c>
-      <c r="E33" s="53">
+      <c r="E33" s="52">
         <v>7700</v>
       </c>
-      <c r="F33" s="53">
+      <c r="F33" s="52">
         <v>7700</v>
       </c>
-      <c r="G33" s="53">
+      <c r="G33" s="52">
         <v>7700</v>
       </c>
-      <c r="H33" s="54">
+      <c r="H33" s="53">
         <v>7700</v>
       </c>
-      <c r="I33" s="54">
+      <c r="I33" s="53">
         <v>7700</v>
       </c>
-      <c r="J33" s="53">
-        <v>0</v>
-      </c>
-      <c r="K33" s="53">
+      <c r="J33" s="52">
         <v>7700</v>
       </c>
-      <c r="L33" s="53">
+      <c r="K33" s="52">
         <v>7700</v>
       </c>
-      <c r="M33" s="53">
+      <c r="L33" s="52">
         <v>7700</v>
       </c>
-      <c r="N33" s="55">
+      <c r="M33" s="54">
         <v>7700</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N33" s="64"/>
+      <c r="O33" s="68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="38" t="s">
         <v>226</v>
       </c>
@@ -5247,47 +5301,48 @@
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_01 N</v>
       </c>
-      <c r="E34" s="56">
+      <c r="E34" s="55">
         <f>+E44-6096</f>
         <v>6129</v>
       </c>
-      <c r="F34" s="56">
-        <f t="shared" ref="F34:N34" si="6">+F44-6096</f>
+      <c r="F34" s="55">
+        <f t="shared" ref="F34:M34" si="6">+F44-6096</f>
         <v>6129</v>
       </c>
-      <c r="G34" s="56">
+      <c r="G34" s="55">
         <f t="shared" si="6"/>
         <v>6129</v>
       </c>
-      <c r="H34" s="57">
+      <c r="H34" s="56">
         <f t="shared" si="6"/>
         <v>5864</v>
       </c>
-      <c r="I34" s="57">
+      <c r="I34" s="56">
         <f t="shared" si="6"/>
         <v>5864</v>
       </c>
-      <c r="J34" s="56">
-        <v>0</v>
-      </c>
-      <c r="K34" s="56">
+      <c r="J34" s="55">
         <f t="shared" si="6"/>
         <v>6129</v>
       </c>
-      <c r="L34" s="56">
+      <c r="K34" s="55">
         <f t="shared" si="6"/>
         <v>6129</v>
       </c>
-      <c r="M34" s="56">
+      <c r="L34" s="55">
         <f t="shared" si="6"/>
         <v>6129</v>
       </c>
-      <c r="N34" s="58">
+      <c r="M34" s="57">
         <f t="shared" si="6"/>
         <v>6129</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N34" s="63"/>
+      <c r="O34" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="38" t="s">
         <v>226</v>
       </c>
@@ -5301,47 +5356,48 @@
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_01 2N</v>
       </c>
-      <c r="E35" s="59">
-        <f t="shared" ref="E35:N43" si="7">+E45-6096</f>
+      <c r="E35" s="58">
+        <f t="shared" ref="E35:M43" si="7">+E45-6096</f>
         <v>5864</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="58">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="G35" s="59">
+      <c r="G35" s="58">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="H35" s="60">
+      <c r="H35" s="59">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="I35" s="60">
+      <c r="I35" s="59">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="J35" s="59">
-        <v>0</v>
-      </c>
-      <c r="K35" s="59">
+      <c r="J35" s="58">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="L35" s="59">
+      <c r="K35" s="58">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="M35" s="59">
+      <c r="L35" s="58">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="N35" s="61">
+      <c r="M35" s="60">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N35" s="63"/>
+      <c r="O35" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="s">
         <v>226</v>
       </c>
@@ -5352,50 +5408,51 @@
         <v>219</v>
       </c>
       <c r="D36" s="44" t="str">
-        <f>CONCATENATE(,A36," ",B36," ",C36)</f>
+        <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_02 N</v>
       </c>
-      <c r="E36" s="59">
+      <c r="E36" s="58">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="F36" s="59">
+      <c r="F36" s="58">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="G36" s="59">
+      <c r="G36" s="58">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="59">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="I36" s="60">
+      <c r="I36" s="59">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="J36" s="59">
-        <v>0</v>
-      </c>
-      <c r="K36" s="59">
+      <c r="J36" s="58">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="L36" s="59">
+      <c r="K36" s="58">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="M36" s="59">
+      <c r="L36" s="58">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="N36" s="61">
+      <c r="M36" s="60">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N36" s="63"/>
+      <c r="O36" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
         <v>226</v>
       </c>
@@ -5406,50 +5463,51 @@
         <v>220</v>
       </c>
       <c r="D37" s="44" t="str">
-        <f>CONCATENATE(,A37," ",B37," ",C37)</f>
+        <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_02 2N</v>
       </c>
-      <c r="E37" s="59">
+      <c r="E37" s="58">
         <f t="shared" si="7"/>
         <v>4854</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="58">
         <f t="shared" si="7"/>
         <v>4854</v>
       </c>
-      <c r="G37" s="59">
+      <c r="G37" s="58">
         <f t="shared" si="7"/>
         <v>4854</v>
       </c>
-      <c r="H37" s="60">
+      <c r="H37" s="59">
         <f t="shared" si="7"/>
         <v>4624</v>
       </c>
-      <c r="I37" s="60">
+      <c r="I37" s="59">
         <f t="shared" si="7"/>
         <v>4624</v>
       </c>
-      <c r="J37" s="59">
-        <v>0</v>
-      </c>
-      <c r="K37" s="59">
+      <c r="J37" s="58">
         <f t="shared" si="7"/>
         <v>4854</v>
       </c>
-      <c r="L37" s="59">
+      <c r="K37" s="58">
         <f t="shared" si="7"/>
         <v>4854</v>
       </c>
-      <c r="M37" s="59">
+      <c r="L37" s="58">
         <f t="shared" si="7"/>
         <v>4854</v>
       </c>
-      <c r="N37" s="61">
+      <c r="M37" s="60">
         <f t="shared" si="7"/>
         <v>4854</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N37" s="63"/>
+      <c r="O37" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>226</v>
       </c>
@@ -5463,47 +5521,48 @@
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_03 N</v>
       </c>
-      <c r="E38" s="59">
+      <c r="E38" s="58">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="F38" s="59">
+      <c r="F38" s="58">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="G38" s="59">
+      <c r="G38" s="58">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="H38" s="60">
+      <c r="H38" s="59">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="I38" s="60">
+      <c r="I38" s="59">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="J38" s="62">
-        <v>0</v>
-      </c>
-      <c r="K38" s="59">
+      <c r="J38" s="58">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="L38" s="59">
+      <c r="K38" s="58">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="M38" s="59">
+      <c r="L38" s="58">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="N38" s="61">
+      <c r="M38" s="60">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N38" s="63"/>
+      <c r="O38" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
         <v>226</v>
       </c>
@@ -5517,47 +5576,48 @@
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_03 2N</v>
       </c>
-      <c r="E39" s="59">
+      <c r="E39" s="58">
         <f t="shared" si="7"/>
         <v>4254</v>
       </c>
-      <c r="F39" s="59">
+      <c r="F39" s="58">
         <f t="shared" si="7"/>
         <v>4254</v>
       </c>
-      <c r="G39" s="59">
+      <c r="G39" s="58">
         <f t="shared" si="7"/>
         <v>4254</v>
       </c>
-      <c r="H39" s="60">
+      <c r="H39" s="59">
         <f t="shared" si="7"/>
         <v>3629</v>
       </c>
-      <c r="I39" s="60">
+      <c r="I39" s="59">
         <f t="shared" si="7"/>
         <v>3629</v>
       </c>
-      <c r="J39" s="62">
-        <v>0</v>
-      </c>
-      <c r="K39" s="59">
+      <c r="J39" s="58">
         <f t="shared" si="7"/>
         <v>4254</v>
       </c>
-      <c r="L39" s="59">
+      <c r="K39" s="58">
         <f t="shared" si="7"/>
         <v>4254</v>
       </c>
-      <c r="M39" s="59">
+      <c r="L39" s="58">
         <f t="shared" si="7"/>
         <v>4254</v>
       </c>
-      <c r="N39" s="61">
+      <c r="M39" s="60">
         <f t="shared" si="7"/>
         <v>4254</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N39" s="63"/>
+      <c r="O39" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>226</v>
       </c>
@@ -5568,50 +5628,51 @@
         <v>219</v>
       </c>
       <c r="D40" s="44" t="str">
-        <f>CONCATENATE(,A40," ",B40," ",C40)</f>
+        <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_04 N</v>
       </c>
-      <c r="E40" s="59">
+      <c r="E40" s="58">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="F40" s="59">
+      <c r="F40" s="58">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="G40" s="59">
+      <c r="G40" s="58">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="H40" s="60">
+      <c r="H40" s="59">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="I40" s="60">
+      <c r="I40" s="59">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="J40" s="59">
-        <v>0</v>
-      </c>
-      <c r="K40" s="59">
+      <c r="J40" s="58">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="L40" s="59">
+      <c r="K40" s="58">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="M40" s="59">
+      <c r="L40" s="58">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="N40" s="61">
+      <c r="M40" s="60">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N40" s="63"/>
+      <c r="O40" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="38" t="s">
         <v>226</v>
       </c>
@@ -5622,50 +5683,51 @@
         <v>220</v>
       </c>
       <c r="D41" s="44" t="str">
-        <f>CONCATENATE(,A41," ",B41," ",C41)</f>
+        <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_04 2N</v>
       </c>
-      <c r="E41" s="59">
+      <c r="E41" s="58">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="F41" s="59">
+      <c r="F41" s="58">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="G41" s="59">
+      <c r="G41" s="58">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="H41" s="60">
+      <c r="H41" s="59">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="I41" s="60">
+      <c r="I41" s="59">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="J41" s="59">
-        <v>0</v>
-      </c>
-      <c r="K41" s="59">
+      <c r="J41" s="58">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="L41" s="59">
+      <c r="K41" s="58">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="M41" s="59">
+      <c r="L41" s="58">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="N41" s="61">
+      <c r="M41" s="60">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N41" s="63"/>
+      <c r="O41" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="s">
         <v>226</v>
       </c>
@@ -5679,47 +5741,48 @@
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_05 N</v>
       </c>
-      <c r="E42" s="59">
+      <c r="E42" s="58">
         <f t="shared" si="7"/>
         <v>4834</v>
       </c>
-      <c r="F42" s="59">
+      <c r="F42" s="58">
         <f t="shared" si="7"/>
         <v>4834</v>
       </c>
-      <c r="G42" s="59">
+      <c r="G42" s="58">
         <f t="shared" si="7"/>
         <v>4834</v>
       </c>
-      <c r="H42" s="60">
+      <c r="H42" s="59">
         <f t="shared" si="7"/>
         <v>4589</v>
       </c>
-      <c r="I42" s="60">
+      <c r="I42" s="59">
         <f t="shared" si="7"/>
         <v>4589</v>
       </c>
-      <c r="J42" s="59">
-        <v>0</v>
-      </c>
-      <c r="K42" s="59">
+      <c r="J42" s="58">
         <f t="shared" si="7"/>
         <v>4834</v>
       </c>
-      <c r="L42" s="59">
+      <c r="K42" s="58">
         <f t="shared" si="7"/>
         <v>4834</v>
       </c>
-      <c r="M42" s="59">
+      <c r="L42" s="58">
         <f t="shared" si="7"/>
         <v>4834</v>
       </c>
-      <c r="N42" s="61">
+      <c r="M42" s="60">
         <f t="shared" si="7"/>
         <v>4834</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N42" s="63"/>
+      <c r="O42" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="38" t="s">
         <v>226</v>
       </c>
@@ -5733,47 +5796,48 @@
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_05 2N</v>
       </c>
-      <c r="E43" s="53">
+      <c r="E43" s="52">
         <f t="shared" si="7"/>
         <v>3164</v>
       </c>
-      <c r="F43" s="53">
+      <c r="F43" s="52">
         <f t="shared" si="7"/>
         <v>3164</v>
       </c>
-      <c r="G43" s="53">
+      <c r="G43" s="52">
         <f t="shared" si="7"/>
         <v>3164</v>
       </c>
-      <c r="H43" s="54">
+      <c r="H43" s="53">
         <f t="shared" si="7"/>
         <v>2924</v>
       </c>
-      <c r="I43" s="54">
+      <c r="I43" s="53">
         <f t="shared" si="7"/>
         <v>2924</v>
       </c>
-      <c r="J43" s="53">
-        <v>0</v>
-      </c>
-      <c r="K43" s="53">
+      <c r="J43" s="52">
         <f t="shared" si="7"/>
         <v>3164</v>
       </c>
-      <c r="L43" s="53">
+      <c r="K43" s="52">
         <f t="shared" si="7"/>
         <v>3164</v>
       </c>
-      <c r="M43" s="53">
+      <c r="L43" s="52">
         <f t="shared" si="7"/>
         <v>3164</v>
       </c>
-      <c r="N43" s="55">
+      <c r="M43" s="54">
         <f t="shared" si="7"/>
         <v>3164</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N43" s="64"/>
+      <c r="O43" s="68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
         <v>227</v>
       </c>
@@ -5787,38 +5851,39 @@
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_01 N</v>
       </c>
-      <c r="E44" s="56">
+      <c r="E44" s="55">
         <v>12225</v>
       </c>
-      <c r="F44" s="56">
+      <c r="F44" s="55">
         <v>12225</v>
       </c>
-      <c r="G44" s="56">
+      <c r="G44" s="55">
         <v>12225</v>
       </c>
-      <c r="H44" s="57">
+      <c r="H44" s="56">
         <v>11960</v>
       </c>
-      <c r="I44" s="57">
+      <c r="I44" s="56">
         <v>11960</v>
       </c>
-      <c r="J44" s="56">
-        <v>0</v>
-      </c>
-      <c r="K44" s="56">
+      <c r="J44" s="55">
         <v>12225</v>
       </c>
-      <c r="L44" s="56">
+      <c r="K44" s="55">
         <v>12225</v>
       </c>
-      <c r="M44" s="56">
+      <c r="L44" s="55">
         <v>12225</v>
       </c>
-      <c r="N44" s="58">
+      <c r="M44" s="57">
         <v>12225</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N44" s="63"/>
+      <c r="O44" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
         <v>227</v>
       </c>
@@ -5832,38 +5897,39 @@
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_01 2N</v>
       </c>
-      <c r="E45" s="59">
+      <c r="E45" s="58">
         <v>11960</v>
       </c>
-      <c r="F45" s="59">
+      <c r="F45" s="58">
         <v>11960</v>
       </c>
-      <c r="G45" s="59">
+      <c r="G45" s="58">
         <v>11960</v>
       </c>
-      <c r="H45" s="60">
+      <c r="H45" s="59">
         <v>11960</v>
       </c>
-      <c r="I45" s="60">
+      <c r="I45" s="59">
         <v>11960</v>
       </c>
-      <c r="J45" s="59">
-        <v>0</v>
-      </c>
-      <c r="K45" s="59">
+      <c r="J45" s="58">
         <v>11960</v>
       </c>
-      <c r="L45" s="59">
+      <c r="K45" s="58">
         <v>11960</v>
       </c>
-      <c r="M45" s="59">
+      <c r="L45" s="58">
         <v>11960</v>
       </c>
-      <c r="N45" s="61">
+      <c r="M45" s="60">
         <v>11960</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N45" s="63"/>
+      <c r="O45" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
         <v>227</v>
       </c>
@@ -5877,38 +5943,39 @@
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_02 N</v>
       </c>
-      <c r="E46" s="59">
+      <c r="E46" s="58">
         <v>11960</v>
       </c>
-      <c r="F46" s="59">
+      <c r="F46" s="58">
         <v>11960</v>
       </c>
-      <c r="G46" s="59">
+      <c r="G46" s="58">
         <v>11960</v>
       </c>
-      <c r="H46" s="60">
+      <c r="H46" s="59">
         <v>11960</v>
       </c>
-      <c r="I46" s="60">
+      <c r="I46" s="59">
         <v>11960</v>
       </c>
-      <c r="J46" s="59">
-        <v>0</v>
-      </c>
-      <c r="K46" s="59">
+      <c r="J46" s="58">
         <v>11960</v>
       </c>
-      <c r="L46" s="59">
+      <c r="K46" s="58">
         <v>11960</v>
       </c>
-      <c r="M46" s="59">
+      <c r="L46" s="58">
         <v>11960</v>
       </c>
-      <c r="N46" s="61">
+      <c r="M46" s="60">
         <v>11960</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N46" s="63"/>
+      <c r="O46" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
         <v>227</v>
       </c>
@@ -5922,38 +5989,39 @@
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_02 2N</v>
       </c>
-      <c r="E47" s="59">
+      <c r="E47" s="58">
         <v>10950</v>
       </c>
-      <c r="F47" s="59">
+      <c r="F47" s="58">
         <v>10950</v>
       </c>
-      <c r="G47" s="59">
+      <c r="G47" s="58">
         <v>10950</v>
       </c>
-      <c r="H47" s="60">
+      <c r="H47" s="59">
         <v>10720</v>
       </c>
-      <c r="I47" s="60">
+      <c r="I47" s="59">
         <v>10720</v>
       </c>
-      <c r="J47" s="59">
-        <v>0</v>
-      </c>
-      <c r="K47" s="59">
+      <c r="J47" s="58">
         <v>10950</v>
       </c>
-      <c r="L47" s="59">
+      <c r="K47" s="58">
         <v>10950</v>
       </c>
-      <c r="M47" s="59">
+      <c r="L47" s="58">
         <v>10950</v>
       </c>
-      <c r="N47" s="61">
+      <c r="M47" s="60">
         <v>10950</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N47" s="63"/>
+      <c r="O47" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
         <v>227</v>
       </c>
@@ -5967,38 +6035,39 @@
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_03 N</v>
       </c>
-      <c r="E48" s="59">
+      <c r="E48" s="58">
         <v>11840</v>
       </c>
-      <c r="F48" s="59">
+      <c r="F48" s="58">
         <v>11840</v>
       </c>
-      <c r="G48" s="59">
+      <c r="G48" s="58">
         <v>11840</v>
       </c>
-      <c r="H48" s="60">
+      <c r="H48" s="59">
         <v>11840</v>
       </c>
-      <c r="I48" s="60">
+      <c r="I48" s="59">
         <v>11840</v>
       </c>
-      <c r="J48" s="62">
-        <v>0</v>
-      </c>
-      <c r="K48" s="59">
+      <c r="J48" s="58">
         <v>11840</v>
       </c>
-      <c r="L48" s="59">
+      <c r="K48" s="58">
         <v>11840</v>
       </c>
-      <c r="M48" s="59">
+      <c r="L48" s="58">
         <v>11840</v>
       </c>
-      <c r="N48" s="61">
+      <c r="M48" s="60">
         <v>11840</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N48" s="63"/>
+      <c r="O48" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
         <v>227</v>
       </c>
@@ -6012,38 +6081,39 @@
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_03 2N</v>
       </c>
-      <c r="E49" s="59">
+      <c r="E49" s="58">
         <v>10350</v>
       </c>
-      <c r="F49" s="59">
+      <c r="F49" s="58">
         <v>10350</v>
       </c>
-      <c r="G49" s="59">
+      <c r="G49" s="58">
         <v>10350</v>
       </c>
-      <c r="H49" s="60">
+      <c r="H49" s="59">
         <v>9725</v>
       </c>
-      <c r="I49" s="60">
+      <c r="I49" s="59">
         <v>9725</v>
       </c>
-      <c r="J49" s="62">
-        <v>0</v>
-      </c>
-      <c r="K49" s="59">
+      <c r="J49" s="58">
         <v>10350</v>
       </c>
-      <c r="L49" s="59">
+      <c r="K49" s="58">
         <v>10350</v>
       </c>
-      <c r="M49" s="59">
+      <c r="L49" s="58">
         <v>10350</v>
       </c>
-      <c r="N49" s="61">
+      <c r="M49" s="60">
         <v>10350</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N49" s="63"/>
+      <c r="O49" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
         <v>227</v>
       </c>
@@ -6057,38 +6127,39 @@
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_04 N</v>
       </c>
-      <c r="E50" s="59">
+      <c r="E50" s="58">
         <v>11775</v>
       </c>
-      <c r="F50" s="59">
+      <c r="F50" s="58">
         <v>11775</v>
       </c>
-      <c r="G50" s="59">
+      <c r="G50" s="58">
         <v>11775</v>
       </c>
-      <c r="H50" s="60">
+      <c r="H50" s="59">
         <v>11775</v>
       </c>
-      <c r="I50" s="60">
+      <c r="I50" s="59">
         <v>11775</v>
       </c>
-      <c r="J50" s="59">
-        <v>0</v>
-      </c>
-      <c r="K50" s="59">
+      <c r="J50" s="58">
         <v>11775</v>
       </c>
-      <c r="L50" s="59">
+      <c r="K50" s="58">
         <v>11775</v>
       </c>
-      <c r="M50" s="59">
+      <c r="L50" s="58">
         <v>11775</v>
       </c>
-      <c r="N50" s="61">
+      <c r="M50" s="60">
         <v>11775</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N50" s="63"/>
+      <c r="O50" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
         <v>227</v>
       </c>
@@ -6102,38 +6173,39 @@
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_04 2N</v>
       </c>
-      <c r="E51" s="59">
+      <c r="E51" s="58">
         <v>10225</v>
       </c>
-      <c r="F51" s="59">
+      <c r="F51" s="58">
         <v>10225</v>
       </c>
-      <c r="G51" s="59">
+      <c r="G51" s="58">
         <v>10225</v>
       </c>
-      <c r="H51" s="60">
+      <c r="H51" s="59">
         <v>10225</v>
       </c>
-      <c r="I51" s="60">
+      <c r="I51" s="59">
         <v>10225</v>
       </c>
-      <c r="J51" s="59">
-        <v>0</v>
-      </c>
-      <c r="K51" s="59">
+      <c r="J51" s="58">
         <v>10225</v>
       </c>
-      <c r="L51" s="59">
+      <c r="K51" s="58">
         <v>10225</v>
       </c>
-      <c r="M51" s="59">
+      <c r="L51" s="58">
         <v>10225</v>
       </c>
-      <c r="N51" s="61">
+      <c r="M51" s="60">
         <v>10225</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N51" s="63"/>
+      <c r="O51" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="38" t="s">
         <v>227</v>
       </c>
@@ -6147,38 +6219,39 @@
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_05 N</v>
       </c>
-      <c r="E52" s="59">
+      <c r="E52" s="58">
         <v>10930</v>
       </c>
-      <c r="F52" s="59">
+      <c r="F52" s="58">
         <v>10930</v>
       </c>
-      <c r="G52" s="59">
+      <c r="G52" s="58">
         <v>10930</v>
       </c>
-      <c r="H52" s="60">
+      <c r="H52" s="59">
         <v>10685</v>
       </c>
-      <c r="I52" s="60">
+      <c r="I52" s="59">
         <v>10685</v>
       </c>
-      <c r="J52" s="59">
-        <v>0</v>
-      </c>
-      <c r="K52" s="59">
+      <c r="J52" s="58">
         <v>10930</v>
       </c>
-      <c r="L52" s="59">
+      <c r="K52" s="58">
         <v>10930</v>
       </c>
-      <c r="M52" s="59">
+      <c r="L52" s="58">
         <v>10930</v>
       </c>
-      <c r="N52" s="61">
+      <c r="M52" s="60">
         <v>10930</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N52" s="63"/>
+      <c r="O52" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="38" t="s">
         <v>227</v>
       </c>
@@ -6192,35 +6265,996 @@
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_05 2N</v>
       </c>
-      <c r="E53" s="53">
+      <c r="E53" s="52">
         <v>9260</v>
       </c>
-      <c r="F53" s="53">
+      <c r="F53" s="52">
         <v>9260</v>
       </c>
-      <c r="G53" s="53">
+      <c r="G53" s="52">
         <v>9260</v>
       </c>
-      <c r="H53" s="54">
+      <c r="H53" s="53">
         <v>9020</v>
       </c>
-      <c r="I53" s="54">
+      <c r="I53" s="53">
         <v>9020</v>
       </c>
-      <c r="J53" s="53">
-        <v>0</v>
-      </c>
-      <c r="K53" s="53">
+      <c r="J53" s="52">
         <v>9260</v>
       </c>
-      <c r="L53" s="53">
+      <c r="K53" s="52">
         <v>9260</v>
       </c>
-      <c r="M53" s="53">
+      <c r="L53" s="52">
         <v>9260</v>
       </c>
-      <c r="N53" s="55">
+      <c r="M53" s="54">
         <v>9260</v>
+      </c>
+      <c r="N53" s="64"/>
+      <c r="O53" s="68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="40" t="str">
+        <f t="shared" ref="D54:D73" si="8">CONCATENATE(,A54," ",B54," ",C54)</f>
+        <v>NON ISO25' LAYOUT_01 N</v>
+      </c>
+      <c r="E54" s="55">
+        <v>5400</v>
+      </c>
+      <c r="F54" s="55">
+        <v>5400</v>
+      </c>
+      <c r="G54" s="55">
+        <v>5400</v>
+      </c>
+      <c r="H54" s="55">
+        <v>5400</v>
+      </c>
+      <c r="I54" s="55">
+        <v>5400</v>
+      </c>
+      <c r="J54" s="55">
+        <v>5400</v>
+      </c>
+      <c r="K54" s="55">
+        <v>5400</v>
+      </c>
+      <c r="L54" s="55">
+        <v>5400</v>
+      </c>
+      <c r="M54" s="55">
+        <v>5400</v>
+      </c>
+      <c r="N54" s="55">
+        <v>6120</v>
+      </c>
+      <c r="O54" s="57">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO25' LAYOUT_01 2N</v>
+      </c>
+      <c r="E55" s="58">
+        <v>5400</v>
+      </c>
+      <c r="F55" s="58">
+        <v>5400</v>
+      </c>
+      <c r="G55" s="58">
+        <v>5400</v>
+      </c>
+      <c r="H55" s="58">
+        <v>5400</v>
+      </c>
+      <c r="I55" s="58">
+        <v>5400</v>
+      </c>
+      <c r="J55" s="58">
+        <v>5400</v>
+      </c>
+      <c r="K55" s="58">
+        <v>5400</v>
+      </c>
+      <c r="L55" s="58">
+        <v>5400</v>
+      </c>
+      <c r="M55" s="58">
+        <v>5400</v>
+      </c>
+      <c r="N55" s="58">
+        <v>6120</v>
+      </c>
+      <c r="O55" s="60">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO25' LAYOUT_02 N</v>
+      </c>
+      <c r="E56" s="58">
+        <v>5400</v>
+      </c>
+      <c r="F56" s="58">
+        <v>5400</v>
+      </c>
+      <c r="G56" s="58">
+        <v>5400</v>
+      </c>
+      <c r="H56" s="58">
+        <v>5400</v>
+      </c>
+      <c r="I56" s="58">
+        <v>5400</v>
+      </c>
+      <c r="J56" s="58">
+        <v>5400</v>
+      </c>
+      <c r="K56" s="58">
+        <v>5400</v>
+      </c>
+      <c r="L56" s="58">
+        <v>5400</v>
+      </c>
+      <c r="M56" s="58">
+        <v>5400</v>
+      </c>
+      <c r="N56" s="58">
+        <v>6120</v>
+      </c>
+      <c r="O56" s="60">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO25' LAYOUT_02 2N</v>
+      </c>
+      <c r="E57" s="58">
+        <v>5400</v>
+      </c>
+      <c r="F57" s="58">
+        <v>5400</v>
+      </c>
+      <c r="G57" s="58">
+        <v>5400</v>
+      </c>
+      <c r="H57" s="58">
+        <v>5400</v>
+      </c>
+      <c r="I57" s="58">
+        <v>5400</v>
+      </c>
+      <c r="J57" s="58">
+        <v>5400</v>
+      </c>
+      <c r="K57" s="58">
+        <v>5400</v>
+      </c>
+      <c r="L57" s="58">
+        <v>5400</v>
+      </c>
+      <c r="M57" s="58">
+        <v>5400</v>
+      </c>
+      <c r="N57" s="58">
+        <v>6120</v>
+      </c>
+      <c r="O57" s="60">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO25' LAYOUT_03 N</v>
+      </c>
+      <c r="E58" s="58">
+        <v>5400</v>
+      </c>
+      <c r="F58" s="58">
+        <v>5400</v>
+      </c>
+      <c r="G58" s="58">
+        <v>5400</v>
+      </c>
+      <c r="H58" s="58">
+        <v>5400</v>
+      </c>
+      <c r="I58" s="58">
+        <v>5400</v>
+      </c>
+      <c r="J58" s="58">
+        <v>5400</v>
+      </c>
+      <c r="K58" s="58">
+        <v>5400</v>
+      </c>
+      <c r="L58" s="58">
+        <v>5400</v>
+      </c>
+      <c r="M58" s="58">
+        <v>5400</v>
+      </c>
+      <c r="N58" s="58">
+        <v>6120</v>
+      </c>
+      <c r="O58" s="60">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D59" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO25' LAYOUT_03 2N</v>
+      </c>
+      <c r="E59" s="58">
+        <v>5400</v>
+      </c>
+      <c r="F59" s="58">
+        <v>5400</v>
+      </c>
+      <c r="G59" s="58">
+        <v>5400</v>
+      </c>
+      <c r="H59" s="58">
+        <v>5400</v>
+      </c>
+      <c r="I59" s="58">
+        <v>5400</v>
+      </c>
+      <c r="J59" s="58">
+        <v>5400</v>
+      </c>
+      <c r="K59" s="58">
+        <v>5400</v>
+      </c>
+      <c r="L59" s="58">
+        <v>5400</v>
+      </c>
+      <c r="M59" s="58">
+        <v>5400</v>
+      </c>
+      <c r="N59" s="58">
+        <v>6120</v>
+      </c>
+      <c r="O59" s="60">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO25' LAYOUT_04 N</v>
+      </c>
+      <c r="E60" s="58">
+        <v>5400</v>
+      </c>
+      <c r="F60" s="58">
+        <v>5400</v>
+      </c>
+      <c r="G60" s="58">
+        <v>5400</v>
+      </c>
+      <c r="H60" s="58">
+        <v>5400</v>
+      </c>
+      <c r="I60" s="58">
+        <v>5400</v>
+      </c>
+      <c r="J60" s="58">
+        <v>5400</v>
+      </c>
+      <c r="K60" s="58">
+        <v>5400</v>
+      </c>
+      <c r="L60" s="58">
+        <v>5400</v>
+      </c>
+      <c r="M60" s="58">
+        <v>5400</v>
+      </c>
+      <c r="N60" s="58">
+        <v>6120</v>
+      </c>
+      <c r="O60" s="60">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO25' LAYOUT_04 2N</v>
+      </c>
+      <c r="E61" s="58">
+        <v>5400</v>
+      </c>
+      <c r="F61" s="58">
+        <v>5400</v>
+      </c>
+      <c r="G61" s="58">
+        <v>5400</v>
+      </c>
+      <c r="H61" s="58">
+        <v>5400</v>
+      </c>
+      <c r="I61" s="58">
+        <v>5400</v>
+      </c>
+      <c r="J61" s="58">
+        <v>5400</v>
+      </c>
+      <c r="K61" s="58">
+        <v>5400</v>
+      </c>
+      <c r="L61" s="58">
+        <v>5400</v>
+      </c>
+      <c r="M61" s="58">
+        <v>5400</v>
+      </c>
+      <c r="N61" s="58">
+        <v>6120</v>
+      </c>
+      <c r="O61" s="60">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO25' LAYOUT_05 N</v>
+      </c>
+      <c r="E62" s="58">
+        <v>5400</v>
+      </c>
+      <c r="F62" s="58">
+        <v>5400</v>
+      </c>
+      <c r="G62" s="58">
+        <v>5400</v>
+      </c>
+      <c r="H62" s="58">
+        <v>5400</v>
+      </c>
+      <c r="I62" s="58">
+        <v>5400</v>
+      </c>
+      <c r="J62" s="58">
+        <v>5400</v>
+      </c>
+      <c r="K62" s="58">
+        <v>5400</v>
+      </c>
+      <c r="L62" s="58">
+        <v>5400</v>
+      </c>
+      <c r="M62" s="58">
+        <v>5400</v>
+      </c>
+      <c r="N62" s="58">
+        <v>6120</v>
+      </c>
+      <c r="O62" s="60">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO25' LAYOUT_05 2N</v>
+      </c>
+      <c r="E63" s="52">
+        <v>5400</v>
+      </c>
+      <c r="F63" s="52">
+        <v>5400</v>
+      </c>
+      <c r="G63" s="52">
+        <v>5400</v>
+      </c>
+      <c r="H63" s="52">
+        <v>5400</v>
+      </c>
+      <c r="I63" s="52">
+        <v>5400</v>
+      </c>
+      <c r="J63" s="52">
+        <v>5400</v>
+      </c>
+      <c r="K63" s="52">
+        <v>5400</v>
+      </c>
+      <c r="L63" s="52">
+        <v>5400</v>
+      </c>
+      <c r="M63" s="52">
+        <v>5400</v>
+      </c>
+      <c r="N63" s="52">
+        <v>6120</v>
+      </c>
+      <c r="O63" s="54">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO45' LAYOUT_01 N</v>
+      </c>
+      <c r="E64" s="55">
+        <v>11500</v>
+      </c>
+      <c r="F64" s="55">
+        <v>11500</v>
+      </c>
+      <c r="G64" s="55">
+        <v>11500</v>
+      </c>
+      <c r="H64" s="55">
+        <v>11500</v>
+      </c>
+      <c r="I64" s="55">
+        <v>11500</v>
+      </c>
+      <c r="J64" s="55">
+        <v>11500</v>
+      </c>
+      <c r="K64" s="55">
+        <v>11500</v>
+      </c>
+      <c r="L64" s="55">
+        <v>11500</v>
+      </c>
+      <c r="M64" s="55">
+        <v>11500</v>
+      </c>
+      <c r="N64" s="55">
+        <v>12260</v>
+      </c>
+      <c r="O64" s="57">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO45' LAYOUT_01 2N</v>
+      </c>
+      <c r="E65" s="58">
+        <v>11500</v>
+      </c>
+      <c r="F65" s="58">
+        <v>11500</v>
+      </c>
+      <c r="G65" s="58">
+        <v>11500</v>
+      </c>
+      <c r="H65" s="58">
+        <v>11500</v>
+      </c>
+      <c r="I65" s="58">
+        <v>11500</v>
+      </c>
+      <c r="J65" s="58">
+        <v>11500</v>
+      </c>
+      <c r="K65" s="58">
+        <v>11500</v>
+      </c>
+      <c r="L65" s="58">
+        <v>11500</v>
+      </c>
+      <c r="M65" s="58">
+        <v>11500</v>
+      </c>
+      <c r="N65" s="58">
+        <v>12260</v>
+      </c>
+      <c r="O65" s="60">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO45' LAYOUT_02 N</v>
+      </c>
+      <c r="E66" s="58">
+        <v>11500</v>
+      </c>
+      <c r="F66" s="58">
+        <v>11500</v>
+      </c>
+      <c r="G66" s="58">
+        <v>11500</v>
+      </c>
+      <c r="H66" s="58">
+        <v>11500</v>
+      </c>
+      <c r="I66" s="58">
+        <v>11500</v>
+      </c>
+      <c r="J66" s="58">
+        <v>11500</v>
+      </c>
+      <c r="K66" s="58">
+        <v>11500</v>
+      </c>
+      <c r="L66" s="58">
+        <v>11500</v>
+      </c>
+      <c r="M66" s="58">
+        <v>11500</v>
+      </c>
+      <c r="N66" s="58">
+        <v>12260</v>
+      </c>
+      <c r="O66" s="60">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO45' LAYOUT_02 2N</v>
+      </c>
+      <c r="E67" s="58">
+        <v>11500</v>
+      </c>
+      <c r="F67" s="58">
+        <v>11500</v>
+      </c>
+      <c r="G67" s="58">
+        <v>11500</v>
+      </c>
+      <c r="H67" s="58">
+        <v>11500</v>
+      </c>
+      <c r="I67" s="58">
+        <v>11500</v>
+      </c>
+      <c r="J67" s="58">
+        <v>11500</v>
+      </c>
+      <c r="K67" s="58">
+        <v>11500</v>
+      </c>
+      <c r="L67" s="58">
+        <v>11500</v>
+      </c>
+      <c r="M67" s="58">
+        <v>11500</v>
+      </c>
+      <c r="N67" s="58">
+        <v>12260</v>
+      </c>
+      <c r="O67" s="60">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO45' LAYOUT_03 N</v>
+      </c>
+      <c r="E68" s="58">
+        <v>11500</v>
+      </c>
+      <c r="F68" s="58">
+        <v>11500</v>
+      </c>
+      <c r="G68" s="58">
+        <v>11500</v>
+      </c>
+      <c r="H68" s="58">
+        <v>11500</v>
+      </c>
+      <c r="I68" s="58">
+        <v>11500</v>
+      </c>
+      <c r="J68" s="58">
+        <v>11500</v>
+      </c>
+      <c r="K68" s="58">
+        <v>11500</v>
+      </c>
+      <c r="L68" s="58">
+        <v>11500</v>
+      </c>
+      <c r="M68" s="58">
+        <v>11500</v>
+      </c>
+      <c r="N68" s="58">
+        <v>12260</v>
+      </c>
+      <c r="O68" s="60">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO45' LAYOUT_03 2N</v>
+      </c>
+      <c r="E69" s="58">
+        <v>11500</v>
+      </c>
+      <c r="F69" s="58">
+        <v>11500</v>
+      </c>
+      <c r="G69" s="58">
+        <v>11500</v>
+      </c>
+      <c r="H69" s="58">
+        <v>11500</v>
+      </c>
+      <c r="I69" s="58">
+        <v>11500</v>
+      </c>
+      <c r="J69" s="58">
+        <v>11500</v>
+      </c>
+      <c r="K69" s="58">
+        <v>11500</v>
+      </c>
+      <c r="L69" s="58">
+        <v>11500</v>
+      </c>
+      <c r="M69" s="58">
+        <v>11500</v>
+      </c>
+      <c r="N69" s="58">
+        <v>12260</v>
+      </c>
+      <c r="O69" s="60">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO45' LAYOUT_04 N</v>
+      </c>
+      <c r="E70" s="58">
+        <v>11500</v>
+      </c>
+      <c r="F70" s="58">
+        <v>11500</v>
+      </c>
+      <c r="G70" s="58">
+        <v>11500</v>
+      </c>
+      <c r="H70" s="58">
+        <v>11500</v>
+      </c>
+      <c r="I70" s="58">
+        <v>11500</v>
+      </c>
+      <c r="J70" s="58">
+        <v>11500</v>
+      </c>
+      <c r="K70" s="58">
+        <v>11500</v>
+      </c>
+      <c r="L70" s="58">
+        <v>11500</v>
+      </c>
+      <c r="M70" s="58">
+        <v>11500</v>
+      </c>
+      <c r="N70" s="58">
+        <v>12260</v>
+      </c>
+      <c r="O70" s="60">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO45' LAYOUT_04 2N</v>
+      </c>
+      <c r="E71" s="58">
+        <v>11500</v>
+      </c>
+      <c r="F71" s="58">
+        <v>11500</v>
+      </c>
+      <c r="G71" s="58">
+        <v>11500</v>
+      </c>
+      <c r="H71" s="58">
+        <v>11500</v>
+      </c>
+      <c r="I71" s="58">
+        <v>11500</v>
+      </c>
+      <c r="J71" s="58">
+        <v>11500</v>
+      </c>
+      <c r="K71" s="58">
+        <v>11500</v>
+      </c>
+      <c r="L71" s="58">
+        <v>11500</v>
+      </c>
+      <c r="M71" s="58">
+        <v>11500</v>
+      </c>
+      <c r="N71" s="58">
+        <v>12260</v>
+      </c>
+      <c r="O71" s="60">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO45' LAYOUT_05 N</v>
+      </c>
+      <c r="E72" s="58">
+        <v>11500</v>
+      </c>
+      <c r="F72" s="58">
+        <v>11500</v>
+      </c>
+      <c r="G72" s="58">
+        <v>11500</v>
+      </c>
+      <c r="H72" s="58">
+        <v>11500</v>
+      </c>
+      <c r="I72" s="58">
+        <v>11500</v>
+      </c>
+      <c r="J72" s="58">
+        <v>11500</v>
+      </c>
+      <c r="K72" s="58">
+        <v>11500</v>
+      </c>
+      <c r="L72" s="58">
+        <v>11500</v>
+      </c>
+      <c r="M72" s="58">
+        <v>11500</v>
+      </c>
+      <c r="N72" s="58">
+        <v>12260</v>
+      </c>
+      <c r="O72" s="60">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>NON ISO45' LAYOUT_05 2N</v>
+      </c>
+      <c r="E73" s="52">
+        <v>11500</v>
+      </c>
+      <c r="F73" s="52">
+        <v>11500</v>
+      </c>
+      <c r="G73" s="52">
+        <v>11500</v>
+      </c>
+      <c r="H73" s="52">
+        <v>11500</v>
+      </c>
+      <c r="I73" s="52">
+        <v>11500</v>
+      </c>
+      <c r="J73" s="52">
+        <v>11500</v>
+      </c>
+      <c r="K73" s="52">
+        <v>11500</v>
+      </c>
+      <c r="L73" s="52">
+        <v>11500</v>
+      </c>
+      <c r="M73" s="52">
+        <v>11500</v>
+      </c>
+      <c r="N73" s="52">
+        <v>12260</v>
+      </c>
+      <c r="O73" s="54">
+        <v>12260</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelReading/inputResources/ConstraintsToJSON.xlsx
+++ b/ExcelReading/inputResources/ConstraintsToJSON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\excelTojson\ExcelToJSON\ExcelReading\inputResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2FF1ECB-A8AD-4D67-A9A2-7B143C0151A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3ABF67E-CC0A-47C7-AC11-A1352FCB26FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{1F0430CC-FF32-404D-8E6F-02861FD37FCA}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="228">
   <si>
     <t>TYPE</t>
   </si>
@@ -821,7 +821,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,8 +876,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1063,17 +1081,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1087,7 +1094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1147,9 +1154,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,22 +1229,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2067,7 +2086,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2678,10 +2697,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="62"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4070,10 +4089,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54C99C0-56AC-4268-A6D1-0A84E8101377}">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:AC73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4083,3178 +4102,5298 @@
     <col min="6" max="15" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="25">
+      <c r="C1" s="24">
         <v>1</v>
       </c>
-      <c r="D1" s="26">
+      <c r="D1" s="25">
         <v>300</v>
       </c>
-      <c r="E1" s="27">
+      <c r="E1" s="26">
         <v>22.1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <f t="shared" ref="C2:C12" si="0">+C1+1</f>
         <v>2</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>600</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>600</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D4" s="28">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27">
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
         <v>15.7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D5" s="28">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27">
+      <c r="D5" s="27">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D6" s="28">
-        <v>0</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>600</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>300</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <v>24.4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>600</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <v>300</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <v>24.4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="35"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="36" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+    <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="40" t="str">
+      <c r="D14" s="39" t="str">
         <f>CONCATENATE(,A14," ",B14," ",C14)</f>
         <v>ISO20' LAYOUT_01 N</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="40">
         <v>4532</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="40">
         <v>4532</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="40">
         <v>4532</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="41">
         <v>4532</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="41">
         <v>4532</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="40">
         <v>4532</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="40">
         <v>4532</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="40">
         <v>4532</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="42">
         <v>4532</v>
       </c>
-      <c r="N14" s="61"/>
-      <c r="O14" s="62" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="N14" s="60">
+        <v>0</v>
+      </c>
+      <c r="O14" s="61">
+        <v>0</v>
+      </c>
+      <c r="P14" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="63">
+        <v>0</v>
+      </c>
+      <c r="R14" s="63">
+        <v>0</v>
+      </c>
+      <c r="S14" s="63">
+        <v>4</v>
+      </c>
+      <c r="T14" s="63">
+        <v>4</v>
+      </c>
+      <c r="U14" s="64">
+        <v>0</v>
+      </c>
+      <c r="V14" s="63">
+        <v>0</v>
+      </c>
+      <c r="W14" s="63">
+        <v>0</v>
+      </c>
+      <c r="X14" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="44" t="str">
+      <c r="D15" s="43" t="str">
         <f t="shared" ref="D15:D53" si="1">CONCATENATE(,A15," ",B15," ",C15)</f>
         <v>ISO20' LAYOUT_01 2N</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="44">
         <v>3980</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="44">
         <v>3980</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="44">
         <v>3980</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="45">
         <v>3980</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="45">
         <v>3980</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="44">
         <v>3980</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="44">
         <v>3980</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="44">
         <v>3980</v>
       </c>
-      <c r="M15" s="47">
+      <c r="M15" s="46">
         <v>3980</v>
       </c>
-      <c r="N15" s="63"/>
-      <c r="O15" s="62" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+      <c r="N15" s="60">
+        <v>0</v>
+      </c>
+      <c r="O15" s="61">
+        <v>0</v>
+      </c>
+      <c r="P15" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="63">
+        <v>0</v>
+      </c>
+      <c r="R15" s="63">
+        <v>0</v>
+      </c>
+      <c r="S15" s="63">
+        <v>4</v>
+      </c>
+      <c r="T15" s="63">
+        <v>4</v>
+      </c>
+      <c r="U15" s="64">
+        <v>0</v>
+      </c>
+      <c r="V15" s="63">
+        <v>0</v>
+      </c>
+      <c r="W15" s="63">
+        <v>0</v>
+      </c>
+      <c r="X15" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="44" t="str">
+      <c r="D16" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ISO20' LAYOUT_02 N</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="44">
         <f>+E14-700</f>
         <v>3832</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="44">
         <f t="shared" ref="F16:M16" si="2">+F14-700</f>
         <v>3832</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="44">
         <f t="shared" si="2"/>
         <v>3832</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="45">
         <f t="shared" si="2"/>
         <v>3832</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="45">
         <f t="shared" si="2"/>
         <v>3832</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="44">
         <f t="shared" si="2"/>
         <v>3832</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="44">
         <f t="shared" si="2"/>
         <v>3832</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="44">
         <f t="shared" si="2"/>
         <v>3832</v>
       </c>
-      <c r="M16" s="47">
+      <c r="M16" s="46">
         <f t="shared" si="2"/>
         <v>3832</v>
       </c>
-      <c r="N16" s="63"/>
-      <c r="O16" s="62" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="N16" s="60">
+        <v>0</v>
+      </c>
+      <c r="O16" s="61">
+        <v>0</v>
+      </c>
+      <c r="P16" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="63">
+        <v>0</v>
+      </c>
+      <c r="R16" s="63">
+        <v>0</v>
+      </c>
+      <c r="S16" s="63">
+        <v>4</v>
+      </c>
+      <c r="T16" s="63">
+        <v>4</v>
+      </c>
+      <c r="U16" s="64">
+        <v>0</v>
+      </c>
+      <c r="V16" s="63">
+        <v>0</v>
+      </c>
+      <c r="W16" s="63">
+        <v>0</v>
+      </c>
+      <c r="X16" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="44" t="str">
+      <c r="D17" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ISO20' LAYOUT_02 2N</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="44">
         <f t="shared" ref="E17:M17" si="3">+E15-700</f>
         <v>3280</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="44">
         <f t="shared" si="3"/>
         <v>3280</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="44">
         <f t="shared" si="3"/>
         <v>3280</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="45">
         <f t="shared" si="3"/>
         <v>3280</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="45">
         <f t="shared" si="3"/>
         <v>3280</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="44">
         <f t="shared" si="3"/>
         <v>3280</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="44">
         <f t="shared" si="3"/>
         <v>3280</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="44">
         <f t="shared" si="3"/>
         <v>3280</v>
       </c>
-      <c r="M17" s="47">
+      <c r="M17" s="46">
         <f t="shared" si="3"/>
         <v>3280</v>
       </c>
-      <c r="N17" s="63"/>
-      <c r="O17" s="62" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+      <c r="N17" s="60">
+        <v>0</v>
+      </c>
+      <c r="O17" s="61">
+        <v>0</v>
+      </c>
+      <c r="P17" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="63">
+        <v>0</v>
+      </c>
+      <c r="R17" s="63">
+        <v>0</v>
+      </c>
+      <c r="S17" s="63">
+        <v>4</v>
+      </c>
+      <c r="T17" s="63">
+        <v>4</v>
+      </c>
+      <c r="U17" s="64">
+        <v>0</v>
+      </c>
+      <c r="V17" s="63">
+        <v>0</v>
+      </c>
+      <c r="W17" s="63">
+        <v>0</v>
+      </c>
+      <c r="X17" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D18" s="44" t="str">
+      <c r="D18" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ISO20' LAYOUT_03 N</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="44">
         <f>+E28-6096</f>
         <v>2804</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="44">
         <f t="shared" ref="F18:M18" si="4">+F28-6096</f>
         <v>2804</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="44">
         <f t="shared" si="4"/>
         <v>2804</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="45">
         <f t="shared" si="4"/>
         <v>3004</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="45">
         <f t="shared" si="4"/>
         <v>3004</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="44">
         <f t="shared" si="4"/>
         <v>2804</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="44">
         <f t="shared" si="4"/>
         <v>2804</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="44">
         <f t="shared" si="4"/>
         <v>2804</v>
       </c>
-      <c r="M18" s="47">
+      <c r="M18" s="46">
         <f t="shared" si="4"/>
         <v>2804</v>
       </c>
-      <c r="N18" s="63"/>
-      <c r="O18" s="62" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="N18" s="60">
+        <v>0</v>
+      </c>
+      <c r="O18" s="61">
+        <v>0</v>
+      </c>
+      <c r="P18" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="63">
+        <v>0</v>
+      </c>
+      <c r="R18" s="63">
+        <v>0</v>
+      </c>
+      <c r="S18" s="63">
+        <v>4</v>
+      </c>
+      <c r="T18" s="63">
+        <v>4</v>
+      </c>
+      <c r="U18" s="64">
+        <v>0</v>
+      </c>
+      <c r="V18" s="63">
+        <v>0</v>
+      </c>
+      <c r="W18" s="63">
+        <v>0</v>
+      </c>
+      <c r="X18" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D19" s="44" t="str">
+      <c r="D19" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ISO20' LAYOUT_03 2N</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="44">
         <f t="shared" ref="E19:M23" si="5">+E29-6096</f>
         <v>1904</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="44">
         <f t="shared" si="5"/>
         <v>1904</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="44">
         <f t="shared" si="5"/>
         <v>1904</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="45">
         <f t="shared" si="5"/>
         <v>1704</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="45">
         <f t="shared" si="5"/>
         <v>1704</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="44">
         <f t="shared" si="5"/>
         <v>1904</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="44">
         <f t="shared" si="5"/>
         <v>1904</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="44">
         <f t="shared" si="5"/>
         <v>1904</v>
       </c>
-      <c r="M19" s="47">
+      <c r="M19" s="46">
         <f t="shared" si="5"/>
         <v>1904</v>
       </c>
-      <c r="N19" s="63"/>
-      <c r="O19" s="62" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="N19" s="60">
+        <v>0</v>
+      </c>
+      <c r="O19" s="61">
+        <v>0</v>
+      </c>
+      <c r="P19" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="63">
+        <v>0</v>
+      </c>
+      <c r="R19" s="63">
+        <v>0</v>
+      </c>
+      <c r="S19" s="63">
+        <v>4</v>
+      </c>
+      <c r="T19" s="63">
+        <v>4</v>
+      </c>
+      <c r="U19" s="64">
+        <v>0</v>
+      </c>
+      <c r="V19" s="63">
+        <v>0</v>
+      </c>
+      <c r="W19" s="63">
+        <v>0</v>
+      </c>
+      <c r="X19" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D20" s="44" t="str">
+      <c r="D20" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ISO20' LAYOUT_04 N</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="44">
         <f t="shared" si="5"/>
         <v>3394</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="44">
         <f t="shared" si="5"/>
         <v>3394</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="44">
         <f t="shared" si="5"/>
         <v>3394</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="45">
         <f t="shared" si="5"/>
         <v>3394</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="45">
         <f t="shared" si="5"/>
         <v>3394</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="44">
         <f t="shared" si="5"/>
         <v>3394</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="44">
         <f t="shared" si="5"/>
         <v>3394</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="44">
         <f t="shared" si="5"/>
         <v>3394</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="46">
         <f t="shared" si="5"/>
         <v>3394</v>
       </c>
-      <c r="N20" s="63"/>
-      <c r="O20" s="62" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+      <c r="N20" s="60">
+        <v>0</v>
+      </c>
+      <c r="O20" s="61">
+        <v>0</v>
+      </c>
+      <c r="P20" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="63">
+        <v>0</v>
+      </c>
+      <c r="R20" s="63">
+        <v>0</v>
+      </c>
+      <c r="S20" s="63">
+        <v>4</v>
+      </c>
+      <c r="T20" s="63">
+        <v>4</v>
+      </c>
+      <c r="U20" s="64">
+        <v>0</v>
+      </c>
+      <c r="V20" s="63">
+        <v>0</v>
+      </c>
+      <c r="W20" s="63">
+        <v>0</v>
+      </c>
+      <c r="X20" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="44" t="str">
+      <c r="D21" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ISO20' LAYOUT_04 2N</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="44">
         <f t="shared" si="5"/>
         <v>2394</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="44">
         <f t="shared" si="5"/>
         <v>2394</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="44">
         <f t="shared" si="5"/>
         <v>2394</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="45">
         <f t="shared" si="5"/>
         <v>2129</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="45">
         <f t="shared" si="5"/>
         <v>2129</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="44">
         <f t="shared" si="5"/>
         <v>2394</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="44">
         <f t="shared" si="5"/>
         <v>2394</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="44">
         <f t="shared" si="5"/>
         <v>2394</v>
       </c>
-      <c r="M21" s="47">
+      <c r="M21" s="46">
         <f t="shared" si="5"/>
         <v>2394</v>
       </c>
-      <c r="N21" s="63"/>
-      <c r="O21" s="62" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+      <c r="N21" s="60">
+        <v>0</v>
+      </c>
+      <c r="O21" s="61">
+        <v>0</v>
+      </c>
+      <c r="P21" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="63">
+        <v>0</v>
+      </c>
+      <c r="R21" s="63">
+        <v>0</v>
+      </c>
+      <c r="S21" s="63">
+        <v>4</v>
+      </c>
+      <c r="T21" s="63">
+        <v>4</v>
+      </c>
+      <c r="U21" s="64">
+        <v>0</v>
+      </c>
+      <c r="V21" s="63">
+        <v>0</v>
+      </c>
+      <c r="W21" s="63">
+        <v>0</v>
+      </c>
+      <c r="X21" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="44" t="str">
+      <c r="D22" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ISO20' LAYOUT_05 N</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="44">
         <f t="shared" si="5"/>
         <v>2204</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="44">
         <f t="shared" si="5"/>
         <v>2204</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="44">
         <f t="shared" si="5"/>
         <v>2204</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="45">
         <f t="shared" si="5"/>
         <v>2204</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="45">
         <f t="shared" si="5"/>
         <v>2204</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="44">
         <f t="shared" si="5"/>
         <v>2204</v>
       </c>
-      <c r="K22" s="45">
+      <c r="K22" s="44">
         <f t="shared" si="5"/>
         <v>2204</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L22" s="44">
         <f t="shared" si="5"/>
         <v>2204</v>
       </c>
-      <c r="M22" s="47">
+      <c r="M22" s="46">
         <f t="shared" si="5"/>
         <v>2204</v>
       </c>
-      <c r="N22" s="63"/>
-      <c r="O22" s="62" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
+      <c r="N22" s="60">
+        <v>0</v>
+      </c>
+      <c r="O22" s="61">
+        <v>0</v>
+      </c>
+      <c r="P22" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="63">
+        <v>0</v>
+      </c>
+      <c r="R22" s="63">
+        <v>0</v>
+      </c>
+      <c r="S22" s="63">
+        <v>4</v>
+      </c>
+      <c r="T22" s="63">
+        <v>4</v>
+      </c>
+      <c r="U22" s="64">
+        <v>0</v>
+      </c>
+      <c r="V22" s="63">
+        <v>0</v>
+      </c>
+      <c r="W22" s="63">
+        <v>0</v>
+      </c>
+      <c r="X22" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="48" t="str">
+      <c r="D23" s="47" t="str">
         <f t="shared" si="1"/>
         <v>ISO20' LAYOUT_05 2N</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="48">
         <f t="shared" si="5"/>
         <v>1604</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="48">
         <f t="shared" si="5"/>
         <v>1604</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="48">
         <f t="shared" si="5"/>
         <v>1604</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="49">
         <f t="shared" si="5"/>
         <v>1604</v>
       </c>
-      <c r="I23" s="50">
+      <c r="I23" s="49">
         <f t="shared" si="5"/>
         <v>1604</v>
       </c>
-      <c r="J23" s="49">
+      <c r="J23" s="48">
         <f t="shared" si="5"/>
         <v>1604</v>
       </c>
-      <c r="K23" s="49">
+      <c r="K23" s="48">
         <f t="shared" si="5"/>
         <v>1604</v>
       </c>
-      <c r="L23" s="49">
+      <c r="L23" s="48">
         <f t="shared" si="5"/>
         <v>1604</v>
       </c>
-      <c r="M23" s="51">
+      <c r="M23" s="50">
         <f t="shared" si="5"/>
         <v>1604</v>
       </c>
-      <c r="N23" s="64"/>
-      <c r="O23" s="65" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
+      <c r="N23" s="60">
+        <v>0</v>
+      </c>
+      <c r="O23" s="61">
+        <v>0</v>
+      </c>
+      <c r="P23" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="63">
+        <v>0</v>
+      </c>
+      <c r="R23" s="63">
+        <v>0</v>
+      </c>
+      <c r="S23" s="65">
+        <v>4</v>
+      </c>
+      <c r="T23" s="65">
+        <v>4</v>
+      </c>
+      <c r="U23" s="64">
+        <v>0</v>
+      </c>
+      <c r="V23" s="63">
+        <v>0</v>
+      </c>
+      <c r="W23" s="63">
+        <v>0</v>
+      </c>
+      <c r="X23" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D24" s="40" t="str">
+      <c r="D24" s="39" t="str">
         <f t="shared" si="1"/>
         <v>ISO40' LAYOUT_01 N</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="40">
         <v>10330</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="40">
         <v>10330</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="40">
         <v>10330</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="41">
         <v>10330</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="41">
         <v>10330</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="40">
         <v>10330</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="40">
         <v>10330</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="40">
         <v>10330</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="42">
         <v>10330</v>
       </c>
-      <c r="N24" s="63"/>
-      <c r="O24" s="66" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="N24" s="60">
+        <v>0</v>
+      </c>
+      <c r="O24" s="61">
+        <v>0</v>
+      </c>
+      <c r="P24" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="63">
+        <v>0</v>
+      </c>
+      <c r="R24" s="63">
+        <v>0</v>
+      </c>
+      <c r="S24" s="66">
+        <v>8</v>
+      </c>
+      <c r="T24" s="66">
+        <v>7</v>
+      </c>
+      <c r="U24" s="64">
+        <v>0</v>
+      </c>
+      <c r="V24" s="63">
+        <v>0</v>
+      </c>
+      <c r="W24" s="63">
+        <v>0</v>
+      </c>
+      <c r="X24" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="44" t="str">
+      <c r="D25" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ISO40' LAYOUT_01 2N</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="44">
         <v>9220</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="44">
         <v>9220</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="44">
         <v>9220</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="45">
         <v>9220</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="45">
         <v>9220</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="44">
         <v>9220</v>
       </c>
-      <c r="K25" s="45">
+      <c r="K25" s="44">
         <v>9220</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="44">
         <v>9220</v>
       </c>
-      <c r="M25" s="47">
+      <c r="M25" s="46">
         <v>9220</v>
       </c>
-      <c r="N25" s="63"/>
-      <c r="O25" s="66" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
+      <c r="N25" s="60">
+        <v>0</v>
+      </c>
+      <c r="O25" s="61">
+        <v>0</v>
+      </c>
+      <c r="P25" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="63">
+        <v>0</v>
+      </c>
+      <c r="R25" s="63">
+        <v>0</v>
+      </c>
+      <c r="S25" s="66">
+        <v>8</v>
+      </c>
+      <c r="T25" s="66">
+        <v>7</v>
+      </c>
+      <c r="U25" s="64">
+        <v>0</v>
+      </c>
+      <c r="V25" s="63">
+        <v>0</v>
+      </c>
+      <c r="W25" s="63">
+        <v>0</v>
+      </c>
+      <c r="X25" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D26" s="44" t="str">
+      <c r="D26" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ISO40' LAYOUT_02 N</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="44">
         <v>9790</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="44">
         <v>9790</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="44">
         <v>9790</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="45">
         <v>9790</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="45">
         <v>9790</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="44">
         <v>9790</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="44">
         <v>9790</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="44">
         <v>9790</v>
       </c>
-      <c r="M26" s="47">
+      <c r="M26" s="46">
         <v>9790</v>
       </c>
-      <c r="N26" s="63"/>
-      <c r="O26" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
+      <c r="N26" s="60">
+        <v>0</v>
+      </c>
+      <c r="O26" s="61">
+        <v>0</v>
+      </c>
+      <c r="P26" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="63">
+        <v>0</v>
+      </c>
+      <c r="R26" s="63">
+        <v>0</v>
+      </c>
+      <c r="S26" s="66">
+        <v>8</v>
+      </c>
+      <c r="T26" s="66">
+        <v>7</v>
+      </c>
+      <c r="U26" s="64">
+        <v>0</v>
+      </c>
+      <c r="V26" s="63">
+        <v>0</v>
+      </c>
+      <c r="W26" s="63">
+        <v>0</v>
+      </c>
+      <c r="X26" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="44" t="str">
+      <c r="D27" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ISO40' LAYOUT_02 2N</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="44">
         <v>8725</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="44">
         <v>8725</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="44">
         <v>8725</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="45">
         <v>8500</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="45">
         <v>8500</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="44">
         <v>8725</v>
       </c>
-      <c r="K27" s="45">
+      <c r="K27" s="44">
         <v>8725</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="44">
         <v>8725</v>
       </c>
-      <c r="M27" s="47">
+      <c r="M27" s="46">
         <v>8725</v>
       </c>
-      <c r="N27" s="63"/>
-      <c r="O27" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="s">
+      <c r="N27" s="60">
+        <v>0</v>
+      </c>
+      <c r="O27" s="61">
+        <v>0</v>
+      </c>
+      <c r="P27" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="63">
+        <v>0</v>
+      </c>
+      <c r="R27" s="63">
+        <v>0</v>
+      </c>
+      <c r="S27" s="66">
+        <v>8</v>
+      </c>
+      <c r="T27" s="66">
+        <v>7</v>
+      </c>
+      <c r="U27" s="64">
+        <v>0</v>
+      </c>
+      <c r="V27" s="63">
+        <v>0</v>
+      </c>
+      <c r="W27" s="63">
+        <v>0</v>
+      </c>
+      <c r="X27" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D28" s="44" t="str">
+      <c r="D28" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ISO40' LAYOUT_03 N</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="44">
         <v>8900</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="44">
         <v>8900</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="44">
         <v>8900</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="45">
         <v>9100</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="45">
         <v>9100</v>
       </c>
-      <c r="J28" s="45">
+      <c r="J28" s="44">
         <v>8900</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="44">
         <v>8900</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="44">
         <v>8900</v>
       </c>
-      <c r="M28" s="47">
+      <c r="M28" s="46">
         <v>8900</v>
       </c>
-      <c r="N28" s="63"/>
-      <c r="O28" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+      <c r="N28" s="60">
+        <v>0</v>
+      </c>
+      <c r="O28" s="61">
+        <v>0</v>
+      </c>
+      <c r="P28" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="63">
+        <v>0</v>
+      </c>
+      <c r="R28" s="63">
+        <v>0</v>
+      </c>
+      <c r="S28" s="66">
+        <v>8</v>
+      </c>
+      <c r="T28" s="66">
+        <v>7</v>
+      </c>
+      <c r="U28" s="64">
+        <v>0</v>
+      </c>
+      <c r="V28" s="63">
+        <v>0</v>
+      </c>
+      <c r="W28" s="63">
+        <v>0</v>
+      </c>
+      <c r="X28" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="44" t="str">
+      <c r="D29" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ISO40' LAYOUT_03 2N</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="44">
         <v>8000</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="44">
         <v>8000</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="44">
         <v>8000</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="45">
         <v>7800</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="45">
         <v>7800</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="44">
         <v>8000</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="44">
         <v>8000</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="44">
         <v>8000</v>
       </c>
-      <c r="M29" s="47">
+      <c r="M29" s="46">
         <v>8000</v>
       </c>
-      <c r="N29" s="63"/>
-      <c r="O29" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+      <c r="N29" s="60">
+        <v>0</v>
+      </c>
+      <c r="O29" s="61">
+        <v>0</v>
+      </c>
+      <c r="P29" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="63">
+        <v>0</v>
+      </c>
+      <c r="R29" s="63">
+        <v>0</v>
+      </c>
+      <c r="S29" s="66">
+        <v>8</v>
+      </c>
+      <c r="T29" s="66">
+        <v>7</v>
+      </c>
+      <c r="U29" s="64">
+        <v>0</v>
+      </c>
+      <c r="V29" s="63">
+        <v>0</v>
+      </c>
+      <c r="W29" s="63">
+        <v>0</v>
+      </c>
+      <c r="X29" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D30" s="44" t="str">
+      <c r="D30" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ISO40' LAYOUT_04 N</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="44">
         <v>9490</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="44">
         <v>9490</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="44">
         <v>9490</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="45">
         <v>9490</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="45">
         <v>9490</v>
       </c>
-      <c r="J30" s="45">
+      <c r="J30" s="44">
         <v>9490</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="44">
         <v>9490</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="44">
         <v>9490</v>
       </c>
-      <c r="M30" s="47">
+      <c r="M30" s="46">
         <v>9490</v>
       </c>
-      <c r="N30" s="63"/>
-      <c r="O30" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="N30" s="60">
+        <v>0</v>
+      </c>
+      <c r="O30" s="61">
+        <v>0</v>
+      </c>
+      <c r="P30" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="63">
+        <v>0</v>
+      </c>
+      <c r="R30" s="63">
+        <v>0</v>
+      </c>
+      <c r="S30" s="66">
+        <v>8</v>
+      </c>
+      <c r="T30" s="66">
+        <v>7</v>
+      </c>
+      <c r="U30" s="64">
+        <v>0</v>
+      </c>
+      <c r="V30" s="63">
+        <v>0</v>
+      </c>
+      <c r="W30" s="63">
+        <v>0</v>
+      </c>
+      <c r="X30" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D31" s="44" t="str">
+      <c r="D31" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ISO40' LAYOUT_04 2N</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="44">
         <v>8490</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="44">
         <v>8490</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="44">
         <v>8490</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="45">
         <v>8225</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="45">
         <v>8225</v>
       </c>
-      <c r="J31" s="45">
+      <c r="J31" s="44">
         <v>8490</v>
       </c>
-      <c r="K31" s="45">
+      <c r="K31" s="44">
         <v>8490</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="44">
         <v>8490</v>
       </c>
-      <c r="M31" s="47">
+      <c r="M31" s="46">
         <v>8490</v>
       </c>
-      <c r="N31" s="63"/>
-      <c r="O31" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
+      <c r="N31" s="60">
+        <v>0</v>
+      </c>
+      <c r="O31" s="61">
+        <v>0</v>
+      </c>
+      <c r="P31" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="63">
+        <v>0</v>
+      </c>
+      <c r="R31" s="63">
+        <v>0</v>
+      </c>
+      <c r="S31" s="66">
+        <v>8</v>
+      </c>
+      <c r="T31" s="66">
+        <v>7</v>
+      </c>
+      <c r="U31" s="64">
+        <v>0</v>
+      </c>
+      <c r="V31" s="63">
+        <v>0</v>
+      </c>
+      <c r="W31" s="63">
+        <v>0</v>
+      </c>
+      <c r="X31" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D32" s="44" t="str">
+      <c r="D32" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ISO40' LAYOUT_05 N</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="44">
         <v>8300</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="44">
         <v>8300</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="44">
         <v>8300</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="45">
         <v>8300</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="45">
         <v>8300</v>
       </c>
-      <c r="J32" s="45">
+      <c r="J32" s="44">
         <v>8300</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="44">
         <v>8300</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="44">
         <v>8300</v>
       </c>
-      <c r="M32" s="47">
+      <c r="M32" s="46">
         <v>8300</v>
       </c>
-      <c r="N32" s="63"/>
-      <c r="O32" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="38" t="s">
+      <c r="N32" s="60">
+        <v>0</v>
+      </c>
+      <c r="O32" s="61">
+        <v>0</v>
+      </c>
+      <c r="P32" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="63">
+        <v>0</v>
+      </c>
+      <c r="R32" s="63">
+        <v>0</v>
+      </c>
+      <c r="S32" s="66">
+        <v>8</v>
+      </c>
+      <c r="T32" s="66">
+        <v>7</v>
+      </c>
+      <c r="U32" s="64">
+        <v>0</v>
+      </c>
+      <c r="V32" s="63">
+        <v>0</v>
+      </c>
+      <c r="W32" s="63">
+        <v>0</v>
+      </c>
+      <c r="X32" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="48" t="str">
+      <c r="D33" s="47" t="str">
         <f t="shared" si="1"/>
         <v>ISO40' LAYOUT_05 2N</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E33" s="51">
         <v>7700</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="51">
         <v>7700</v>
       </c>
-      <c r="G33" s="52">
+      <c r="G33" s="51">
         <v>7700</v>
       </c>
-      <c r="H33" s="53">
+      <c r="H33" s="52">
         <v>7700</v>
       </c>
-      <c r="I33" s="53">
+      <c r="I33" s="52">
         <v>7700</v>
       </c>
-      <c r="J33" s="52">
+      <c r="J33" s="51">
         <v>7700</v>
       </c>
-      <c r="K33" s="52">
+      <c r="K33" s="51">
         <v>7700</v>
       </c>
-      <c r="L33" s="52">
+      <c r="L33" s="51">
         <v>7700</v>
       </c>
-      <c r="M33" s="54">
+      <c r="M33" s="53">
         <v>7700</v>
       </c>
-      <c r="N33" s="64"/>
-      <c r="O33" s="68" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="N33" s="60">
+        <v>0</v>
+      </c>
+      <c r="O33" s="61">
+        <v>0</v>
+      </c>
+      <c r="P33" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="63">
+        <v>0</v>
+      </c>
+      <c r="R33" s="63">
+        <v>0</v>
+      </c>
+      <c r="S33" s="65">
+        <v>8</v>
+      </c>
+      <c r="T33" s="65">
+        <v>7</v>
+      </c>
+      <c r="U33" s="64">
+        <v>0</v>
+      </c>
+      <c r="V33" s="63">
+        <v>0</v>
+      </c>
+      <c r="W33" s="63">
+        <v>0</v>
+      </c>
+      <c r="X33" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D34" s="40" t="str">
+      <c r="D34" s="39" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_01 N</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="54">
         <f>+E44-6096</f>
         <v>6129</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F34" s="54">
         <f t="shared" ref="F34:M34" si="6">+F44-6096</f>
         <v>6129</v>
       </c>
-      <c r="G34" s="55">
+      <c r="G34" s="54">
         <f t="shared" si="6"/>
         <v>6129</v>
       </c>
-      <c r="H34" s="56">
+      <c r="H34" s="55">
         <f t="shared" si="6"/>
         <v>5864</v>
       </c>
-      <c r="I34" s="56">
+      <c r="I34" s="55">
         <f t="shared" si="6"/>
         <v>5864</v>
       </c>
-      <c r="J34" s="55">
+      <c r="J34" s="54">
         <f t="shared" si="6"/>
         <v>6129</v>
       </c>
-      <c r="K34" s="55">
+      <c r="K34" s="54">
         <f t="shared" si="6"/>
         <v>6129</v>
       </c>
-      <c r="L34" s="55">
+      <c r="L34" s="54">
         <f t="shared" si="6"/>
         <v>6129</v>
       </c>
-      <c r="M34" s="57">
+      <c r="M34" s="56">
         <f t="shared" si="6"/>
         <v>6129</v>
       </c>
-      <c r="N34" s="63"/>
-      <c r="O34" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
+      <c r="N34" s="60">
+        <v>0</v>
+      </c>
+      <c r="O34" s="61">
+        <v>0</v>
+      </c>
+      <c r="P34" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="63">
+        <v>0</v>
+      </c>
+      <c r="R34" s="63">
+        <v>0</v>
+      </c>
+      <c r="S34" s="66">
+        <v>5</v>
+      </c>
+      <c r="T34" s="66">
+        <v>4</v>
+      </c>
+      <c r="U34" s="64">
+        <v>0</v>
+      </c>
+      <c r="V34" s="63">
+        <v>0</v>
+      </c>
+      <c r="W34" s="63">
+        <v>0</v>
+      </c>
+      <c r="X34" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D35" s="44" t="str">
+      <c r="D35" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_01 2N</v>
       </c>
-      <c r="E35" s="58">
+      <c r="E35" s="57">
         <f t="shared" ref="E35:M43" si="7">+E45-6096</f>
         <v>5864</v>
       </c>
-      <c r="F35" s="58">
+      <c r="F35" s="57">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="G35" s="58">
+      <c r="G35" s="57">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="H35" s="59">
+      <c r="H35" s="58">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="I35" s="59">
+      <c r="I35" s="58">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="J35" s="58">
+      <c r="J35" s="57">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="K35" s="58">
+      <c r="K35" s="57">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="L35" s="58">
+      <c r="L35" s="57">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="M35" s="60">
+      <c r="M35" s="59">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="N35" s="63"/>
-      <c r="O35" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="N35" s="60">
+        <v>0</v>
+      </c>
+      <c r="O35" s="61">
+        <v>0</v>
+      </c>
+      <c r="P35" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="63">
+        <v>0</v>
+      </c>
+      <c r="R35" s="63">
+        <v>0</v>
+      </c>
+      <c r="S35" s="66">
+        <v>5</v>
+      </c>
+      <c r="T35" s="66">
+        <v>4</v>
+      </c>
+      <c r="U35" s="64">
+        <v>0</v>
+      </c>
+      <c r="V35" s="63">
+        <v>0</v>
+      </c>
+      <c r="W35" s="63">
+        <v>0</v>
+      </c>
+      <c r="X35" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D36" s="44" t="str">
+      <c r="D36" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_02 N</v>
       </c>
-      <c r="E36" s="58">
+      <c r="E36" s="57">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="F36" s="58">
+      <c r="F36" s="57">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="G36" s="58">
+      <c r="G36" s="57">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="H36" s="59">
+      <c r="H36" s="58">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="I36" s="59">
+      <c r="I36" s="58">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="J36" s="58">
+      <c r="J36" s="57">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="K36" s="58">
+      <c r="K36" s="57">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="L36" s="58">
+      <c r="L36" s="57">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="M36" s="60">
+      <c r="M36" s="59">
         <f t="shared" si="7"/>
         <v>5864</v>
       </c>
-      <c r="N36" s="63"/>
-      <c r="O36" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="s">
+      <c r="N36" s="60">
+        <v>0</v>
+      </c>
+      <c r="O36" s="61">
+        <v>0</v>
+      </c>
+      <c r="P36" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="63">
+        <v>0</v>
+      </c>
+      <c r="R36" s="63">
+        <v>0</v>
+      </c>
+      <c r="S36" s="66">
+        <v>5</v>
+      </c>
+      <c r="T36" s="66">
+        <v>4</v>
+      </c>
+      <c r="U36" s="64">
+        <v>0</v>
+      </c>
+      <c r="V36" s="63">
+        <v>0</v>
+      </c>
+      <c r="W36" s="63">
+        <v>0</v>
+      </c>
+      <c r="X36" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="44" t="str">
+      <c r="D37" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_02 2N</v>
       </c>
-      <c r="E37" s="58">
+      <c r="E37" s="57">
         <f t="shared" si="7"/>
         <v>4854</v>
       </c>
-      <c r="F37" s="58">
+      <c r="F37" s="57">
         <f t="shared" si="7"/>
         <v>4854</v>
       </c>
-      <c r="G37" s="58">
+      <c r="G37" s="57">
         <f t="shared" si="7"/>
         <v>4854</v>
       </c>
-      <c r="H37" s="59">
+      <c r="H37" s="58">
         <f t="shared" si="7"/>
         <v>4624</v>
       </c>
-      <c r="I37" s="59">
+      <c r="I37" s="58">
         <f t="shared" si="7"/>
         <v>4624</v>
       </c>
-      <c r="J37" s="58">
+      <c r="J37" s="57">
         <f t="shared" si="7"/>
         <v>4854</v>
       </c>
-      <c r="K37" s="58">
+      <c r="K37" s="57">
         <f t="shared" si="7"/>
         <v>4854</v>
       </c>
-      <c r="L37" s="58">
+      <c r="L37" s="57">
         <f t="shared" si="7"/>
         <v>4854</v>
       </c>
-      <c r="M37" s="60">
+      <c r="M37" s="59">
         <f t="shared" si="7"/>
         <v>4854</v>
       </c>
-      <c r="N37" s="63"/>
-      <c r="O37" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
+      <c r="N37" s="60">
+        <v>0</v>
+      </c>
+      <c r="O37" s="61">
+        <v>0</v>
+      </c>
+      <c r="P37" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="63">
+        <v>0</v>
+      </c>
+      <c r="R37" s="63">
+        <v>0</v>
+      </c>
+      <c r="S37" s="66">
+        <v>5</v>
+      </c>
+      <c r="T37" s="66">
+        <v>4</v>
+      </c>
+      <c r="U37" s="64">
+        <v>0</v>
+      </c>
+      <c r="V37" s="63">
+        <v>0</v>
+      </c>
+      <c r="W37" s="63">
+        <v>0</v>
+      </c>
+      <c r="X37" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D38" s="44" t="str">
+      <c r="D38" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_03 N</v>
       </c>
-      <c r="E38" s="58">
+      <c r="E38" s="57">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="F38" s="58">
+      <c r="F38" s="57">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="G38" s="58">
+      <c r="G38" s="57">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="H38" s="59">
+      <c r="H38" s="58">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="I38" s="59">
+      <c r="I38" s="58">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="J38" s="58">
+      <c r="J38" s="57">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="K38" s="58">
+      <c r="K38" s="57">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="L38" s="58">
+      <c r="L38" s="57">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="M38" s="60">
+      <c r="M38" s="59">
         <f t="shared" si="7"/>
         <v>5744</v>
       </c>
-      <c r="N38" s="63"/>
-      <c r="O38" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
+      <c r="N38" s="60">
+        <v>0</v>
+      </c>
+      <c r="O38" s="61">
+        <v>0</v>
+      </c>
+      <c r="P38" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="63">
+        <v>0</v>
+      </c>
+      <c r="R38" s="63">
+        <v>0</v>
+      </c>
+      <c r="S38" s="66">
+        <v>5</v>
+      </c>
+      <c r="T38" s="66">
+        <v>4</v>
+      </c>
+      <c r="U38" s="64">
+        <v>0</v>
+      </c>
+      <c r="V38" s="63">
+        <v>0</v>
+      </c>
+      <c r="W38" s="63">
+        <v>0</v>
+      </c>
+      <c r="X38" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A39" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D39" s="44" t="str">
+      <c r="D39" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_03 2N</v>
       </c>
-      <c r="E39" s="58">
+      <c r="E39" s="57">
         <f t="shared" si="7"/>
         <v>4254</v>
       </c>
-      <c r="F39" s="58">
+      <c r="F39" s="57">
         <f t="shared" si="7"/>
         <v>4254</v>
       </c>
-      <c r="G39" s="58">
+      <c r="G39" s="57">
         <f t="shared" si="7"/>
         <v>4254</v>
       </c>
-      <c r="H39" s="59">
+      <c r="H39" s="58">
         <f t="shared" si="7"/>
         <v>3629</v>
       </c>
-      <c r="I39" s="59">
+      <c r="I39" s="58">
         <f t="shared" si="7"/>
         <v>3629</v>
       </c>
-      <c r="J39" s="58">
+      <c r="J39" s="57">
         <f t="shared" si="7"/>
         <v>4254</v>
       </c>
-      <c r="K39" s="58">
+      <c r="K39" s="57">
         <f t="shared" si="7"/>
         <v>4254</v>
       </c>
-      <c r="L39" s="58">
+      <c r="L39" s="57">
         <f t="shared" si="7"/>
         <v>4254</v>
       </c>
-      <c r="M39" s="60">
+      <c r="M39" s="59">
         <f t="shared" si="7"/>
         <v>4254</v>
       </c>
-      <c r="N39" s="63"/>
-      <c r="O39" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="38" t="s">
+      <c r="N39" s="60">
+        <v>0</v>
+      </c>
+      <c r="O39" s="61">
+        <v>0</v>
+      </c>
+      <c r="P39" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="63">
+        <v>0</v>
+      </c>
+      <c r="R39" s="63">
+        <v>0</v>
+      </c>
+      <c r="S39" s="66">
+        <v>5</v>
+      </c>
+      <c r="T39" s="66">
+        <v>4</v>
+      </c>
+      <c r="U39" s="64">
+        <v>0</v>
+      </c>
+      <c r="V39" s="63">
+        <v>0</v>
+      </c>
+      <c r="W39" s="63">
+        <v>0</v>
+      </c>
+      <c r="X39" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D40" s="44" t="str">
+      <c r="D40" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_04 N</v>
       </c>
-      <c r="E40" s="58">
+      <c r="E40" s="57">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="F40" s="58">
+      <c r="F40" s="57">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="G40" s="58">
+      <c r="G40" s="57">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="H40" s="59">
+      <c r="H40" s="58">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="I40" s="59">
+      <c r="I40" s="58">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="J40" s="58">
+      <c r="J40" s="57">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="K40" s="58">
+      <c r="K40" s="57">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="L40" s="58">
+      <c r="L40" s="57">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="M40" s="60">
+      <c r="M40" s="59">
         <f t="shared" si="7"/>
         <v>5679</v>
       </c>
-      <c r="N40" s="63"/>
-      <c r="O40" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="38" t="s">
+      <c r="N40" s="60">
+        <v>0</v>
+      </c>
+      <c r="O40" s="61">
+        <v>0</v>
+      </c>
+      <c r="P40" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="63">
+        <v>0</v>
+      </c>
+      <c r="R40" s="63">
+        <v>0</v>
+      </c>
+      <c r="S40" s="66">
+        <v>5</v>
+      </c>
+      <c r="T40" s="66">
+        <v>4</v>
+      </c>
+      <c r="U40" s="64">
+        <v>0</v>
+      </c>
+      <c r="V40" s="63">
+        <v>0</v>
+      </c>
+      <c r="W40" s="63">
+        <v>0</v>
+      </c>
+      <c r="X40" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D41" s="44" t="str">
+      <c r="D41" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_04 2N</v>
       </c>
-      <c r="E41" s="58">
+      <c r="E41" s="57">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="F41" s="58">
+      <c r="F41" s="57">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="G41" s="58">
+      <c r="G41" s="57">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="H41" s="59">
+      <c r="H41" s="58">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="I41" s="59">
+      <c r="I41" s="58">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="J41" s="58">
+      <c r="J41" s="57">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="K41" s="58">
+      <c r="K41" s="57">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="L41" s="58">
+      <c r="L41" s="57">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="M41" s="60">
+      <c r="M41" s="59">
         <f t="shared" si="7"/>
         <v>4129</v>
       </c>
-      <c r="N41" s="63"/>
-      <c r="O41" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
+      <c r="N41" s="60">
+        <v>0</v>
+      </c>
+      <c r="O41" s="61">
+        <v>0</v>
+      </c>
+      <c r="P41" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="63">
+        <v>0</v>
+      </c>
+      <c r="R41" s="63">
+        <v>0</v>
+      </c>
+      <c r="S41" s="66">
+        <v>5</v>
+      </c>
+      <c r="T41" s="66">
+        <v>4</v>
+      </c>
+      <c r="U41" s="64">
+        <v>0</v>
+      </c>
+      <c r="V41" s="63">
+        <v>0</v>
+      </c>
+      <c r="W41" s="63">
+        <v>0</v>
+      </c>
+      <c r="X41" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="44" t="str">
+      <c r="D42" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_05 N</v>
       </c>
-      <c r="E42" s="58">
+      <c r="E42" s="57">
         <f t="shared" si="7"/>
         <v>4834</v>
       </c>
-      <c r="F42" s="58">
+      <c r="F42" s="57">
         <f t="shared" si="7"/>
         <v>4834</v>
       </c>
-      <c r="G42" s="58">
+      <c r="G42" s="57">
         <f t="shared" si="7"/>
         <v>4834</v>
       </c>
-      <c r="H42" s="59">
+      <c r="H42" s="58">
         <f t="shared" si="7"/>
         <v>4589</v>
       </c>
-      <c r="I42" s="59">
+      <c r="I42" s="58">
         <f t="shared" si="7"/>
         <v>4589</v>
       </c>
-      <c r="J42" s="58">
+      <c r="J42" s="57">
         <f t="shared" si="7"/>
         <v>4834</v>
       </c>
-      <c r="K42" s="58">
+      <c r="K42" s="57">
         <f t="shared" si="7"/>
         <v>4834</v>
       </c>
-      <c r="L42" s="58">
+      <c r="L42" s="57">
         <f t="shared" si="7"/>
         <v>4834</v>
       </c>
-      <c r="M42" s="60">
+      <c r="M42" s="59">
         <f t="shared" si="7"/>
         <v>4834</v>
       </c>
-      <c r="N42" s="63"/>
-      <c r="O42" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="38" t="s">
+      <c r="N42" s="60">
+        <v>0</v>
+      </c>
+      <c r="O42" s="61">
+        <v>0</v>
+      </c>
+      <c r="P42" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="63">
+        <v>0</v>
+      </c>
+      <c r="R42" s="63">
+        <v>0</v>
+      </c>
+      <c r="S42" s="66">
+        <v>5</v>
+      </c>
+      <c r="T42" s="66">
+        <v>4</v>
+      </c>
+      <c r="U42" s="64">
+        <v>0</v>
+      </c>
+      <c r="V42" s="63">
+        <v>0</v>
+      </c>
+      <c r="W42" s="63">
+        <v>0</v>
+      </c>
+      <c r="X42" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D43" s="48" t="str">
+      <c r="D43" s="47" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO25' LAYOUT_05 2N</v>
       </c>
-      <c r="E43" s="52">
+      <c r="E43" s="51">
         <f t="shared" si="7"/>
         <v>3164</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F43" s="51">
         <f t="shared" si="7"/>
         <v>3164</v>
       </c>
-      <c r="G43" s="52">
+      <c r="G43" s="51">
         <f t="shared" si="7"/>
         <v>3164</v>
       </c>
-      <c r="H43" s="53">
+      <c r="H43" s="52">
         <f t="shared" si="7"/>
         <v>2924</v>
       </c>
-      <c r="I43" s="53">
+      <c r="I43" s="52">
         <f t="shared" si="7"/>
         <v>2924</v>
       </c>
-      <c r="J43" s="52">
+      <c r="J43" s="51">
         <f t="shared" si="7"/>
         <v>3164</v>
       </c>
-      <c r="K43" s="52">
+      <c r="K43" s="51">
         <f t="shared" si="7"/>
         <v>3164</v>
       </c>
-      <c r="L43" s="52">
+      <c r="L43" s="51">
         <f t="shared" si="7"/>
         <v>3164</v>
       </c>
-      <c r="M43" s="54">
+      <c r="M43" s="53">
         <f t="shared" si="7"/>
         <v>3164</v>
       </c>
-      <c r="N43" s="64"/>
-      <c r="O43" s="68" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
+      <c r="N43" s="60">
+        <v>0</v>
+      </c>
+      <c r="O43" s="61">
+        <v>0</v>
+      </c>
+      <c r="P43" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="63">
+        <v>0</v>
+      </c>
+      <c r="R43" s="63">
+        <v>0</v>
+      </c>
+      <c r="S43" s="65">
+        <v>5</v>
+      </c>
+      <c r="T43" s="65">
+        <v>4</v>
+      </c>
+      <c r="U43" s="64">
+        <v>0</v>
+      </c>
+      <c r="V43" s="63">
+        <v>0</v>
+      </c>
+      <c r="W43" s="63">
+        <v>0</v>
+      </c>
+      <c r="X43" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D44" s="40" t="str">
+      <c r="D44" s="39" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_01 N</v>
       </c>
-      <c r="E44" s="55">
+      <c r="E44" s="54">
         <v>12225</v>
       </c>
-      <c r="F44" s="55">
+      <c r="F44" s="54">
         <v>12225</v>
       </c>
-      <c r="G44" s="55">
+      <c r="G44" s="54">
         <v>12225</v>
       </c>
-      <c r="H44" s="56">
+      <c r="H44" s="55">
         <v>11960</v>
       </c>
-      <c r="I44" s="56">
+      <c r="I44" s="55">
         <v>11960</v>
       </c>
-      <c r="J44" s="55">
+      <c r="J44" s="54">
         <v>12225</v>
       </c>
-      <c r="K44" s="55">
+      <c r="K44" s="54">
         <v>12225</v>
       </c>
-      <c r="L44" s="55">
+      <c r="L44" s="54">
         <v>12225</v>
       </c>
-      <c r="M44" s="57">
+      <c r="M44" s="56">
         <v>12225</v>
       </c>
-      <c r="N44" s="63"/>
-      <c r="O44" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="s">
+      <c r="N44" s="60">
+        <v>0</v>
+      </c>
+      <c r="O44" s="61">
+        <v>0</v>
+      </c>
+      <c r="P44" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="63">
+        <v>0</v>
+      </c>
+      <c r="R44" s="63">
+        <v>0</v>
+      </c>
+      <c r="S44" s="66">
+        <v>9</v>
+      </c>
+      <c r="T44" s="66">
+        <v>8</v>
+      </c>
+      <c r="U44" s="64">
+        <v>0</v>
+      </c>
+      <c r="V44" s="63">
+        <v>0</v>
+      </c>
+      <c r="W44" s="63">
+        <v>0</v>
+      </c>
+      <c r="X44" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D45" s="44" t="str">
+      <c r="D45" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_01 2N</v>
       </c>
-      <c r="E45" s="58">
+      <c r="E45" s="57">
         <v>11960</v>
       </c>
-      <c r="F45" s="58">
+      <c r="F45" s="57">
         <v>11960</v>
       </c>
-      <c r="G45" s="58">
+      <c r="G45" s="57">
         <v>11960</v>
       </c>
-      <c r="H45" s="59">
+      <c r="H45" s="58">
         <v>11960</v>
       </c>
-      <c r="I45" s="59">
+      <c r="I45" s="58">
         <v>11960</v>
       </c>
-      <c r="J45" s="58">
+      <c r="J45" s="57">
         <v>11960</v>
       </c>
-      <c r="K45" s="58">
+      <c r="K45" s="57">
         <v>11960</v>
       </c>
-      <c r="L45" s="58">
+      <c r="L45" s="57">
         <v>11960</v>
       </c>
-      <c r="M45" s="60">
+      <c r="M45" s="59">
         <v>11960</v>
       </c>
-      <c r="N45" s="63"/>
-      <c r="O45" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="38" t="s">
+      <c r="N45" s="60">
+        <v>0</v>
+      </c>
+      <c r="O45" s="61">
+        <v>0</v>
+      </c>
+      <c r="P45" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="63">
+        <v>0</v>
+      </c>
+      <c r="R45" s="63">
+        <v>0</v>
+      </c>
+      <c r="S45" s="66">
+        <v>9</v>
+      </c>
+      <c r="T45" s="66">
+        <v>8</v>
+      </c>
+      <c r="U45" s="64">
+        <v>0</v>
+      </c>
+      <c r="V45" s="63">
+        <v>0</v>
+      </c>
+      <c r="W45" s="63">
+        <v>0</v>
+      </c>
+      <c r="X45" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D46" s="44" t="str">
+      <c r="D46" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_02 N</v>
       </c>
-      <c r="E46" s="58">
+      <c r="E46" s="57">
         <v>11960</v>
       </c>
-      <c r="F46" s="58">
+      <c r="F46" s="57">
         <v>11960</v>
       </c>
-      <c r="G46" s="58">
+      <c r="G46" s="57">
         <v>11960</v>
       </c>
-      <c r="H46" s="59">
+      <c r="H46" s="58">
         <v>11960</v>
       </c>
-      <c r="I46" s="59">
+      <c r="I46" s="58">
         <v>11960</v>
       </c>
-      <c r="J46" s="58">
+      <c r="J46" s="57">
         <v>11960</v>
       </c>
-      <c r="K46" s="58">
+      <c r="K46" s="57">
         <v>11960</v>
       </c>
-      <c r="L46" s="58">
+      <c r="L46" s="57">
         <v>11960</v>
       </c>
-      <c r="M46" s="60">
+      <c r="M46" s="59">
         <v>11960</v>
       </c>
-      <c r="N46" s="63"/>
-      <c r="O46" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="N46" s="60">
+        <v>0</v>
+      </c>
+      <c r="O46" s="61">
+        <v>0</v>
+      </c>
+      <c r="P46" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="63">
+        <v>0</v>
+      </c>
+      <c r="R46" s="63">
+        <v>0</v>
+      </c>
+      <c r="S46" s="66">
+        <v>9</v>
+      </c>
+      <c r="T46" s="66">
+        <v>8</v>
+      </c>
+      <c r="U46" s="64">
+        <v>0</v>
+      </c>
+      <c r="V46" s="63">
+        <v>0</v>
+      </c>
+      <c r="W46" s="63">
+        <v>0</v>
+      </c>
+      <c r="X46" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A47" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D47" s="44" t="str">
+      <c r="D47" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_02 2N</v>
       </c>
-      <c r="E47" s="58">
+      <c r="E47" s="57">
         <v>10950</v>
       </c>
-      <c r="F47" s="58">
+      <c r="F47" s="57">
         <v>10950</v>
       </c>
-      <c r="G47" s="58">
+      <c r="G47" s="57">
         <v>10950</v>
       </c>
-      <c r="H47" s="59">
+      <c r="H47" s="58">
         <v>10720</v>
       </c>
-      <c r="I47" s="59">
+      <c r="I47" s="58">
         <v>10720</v>
       </c>
-      <c r="J47" s="58">
+      <c r="J47" s="57">
         <v>10950</v>
       </c>
-      <c r="K47" s="58">
+      <c r="K47" s="57">
         <v>10950</v>
       </c>
-      <c r="L47" s="58">
+      <c r="L47" s="57">
         <v>10950</v>
       </c>
-      <c r="M47" s="60">
+      <c r="M47" s="59">
         <v>10950</v>
       </c>
-      <c r="N47" s="63"/>
-      <c r="O47" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="38" t="s">
+      <c r="N47" s="60">
+        <v>0</v>
+      </c>
+      <c r="O47" s="61">
+        <v>0</v>
+      </c>
+      <c r="P47" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="63">
+        <v>0</v>
+      </c>
+      <c r="R47" s="63">
+        <v>0</v>
+      </c>
+      <c r="S47" s="66">
+        <v>9</v>
+      </c>
+      <c r="T47" s="66">
+        <v>8</v>
+      </c>
+      <c r="U47" s="64">
+        <v>0</v>
+      </c>
+      <c r="V47" s="63">
+        <v>0</v>
+      </c>
+      <c r="W47" s="63">
+        <v>0</v>
+      </c>
+      <c r="X47" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D48" s="44" t="str">
+      <c r="D48" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_03 N</v>
       </c>
-      <c r="E48" s="58">
+      <c r="E48" s="57">
         <v>11840</v>
       </c>
-      <c r="F48" s="58">
+      <c r="F48" s="57">
         <v>11840</v>
       </c>
-      <c r="G48" s="58">
+      <c r="G48" s="57">
         <v>11840</v>
       </c>
-      <c r="H48" s="59">
+      <c r="H48" s="58">
         <v>11840</v>
       </c>
-      <c r="I48" s="59">
+      <c r="I48" s="58">
         <v>11840</v>
       </c>
-      <c r="J48" s="58">
+      <c r="J48" s="57">
         <v>11840</v>
       </c>
-      <c r="K48" s="58">
+      <c r="K48" s="57">
         <v>11840</v>
       </c>
-      <c r="L48" s="58">
+      <c r="L48" s="57">
         <v>11840</v>
       </c>
-      <c r="M48" s="60">
+      <c r="M48" s="59">
         <v>11840</v>
       </c>
-      <c r="N48" s="63"/>
-      <c r="O48" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
+      <c r="N48" s="60">
+        <v>0</v>
+      </c>
+      <c r="O48" s="61">
+        <v>0</v>
+      </c>
+      <c r="P48" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="63">
+        <v>0</v>
+      </c>
+      <c r="R48" s="63">
+        <v>0</v>
+      </c>
+      <c r="S48" s="66">
+        <v>9</v>
+      </c>
+      <c r="T48" s="66">
+        <v>8</v>
+      </c>
+      <c r="U48" s="64">
+        <v>0</v>
+      </c>
+      <c r="V48" s="63">
+        <v>0</v>
+      </c>
+      <c r="W48" s="63">
+        <v>0</v>
+      </c>
+      <c r="X48" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D49" s="44" t="str">
+      <c r="D49" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_03 2N</v>
       </c>
-      <c r="E49" s="58">
+      <c r="E49" s="57">
         <v>10350</v>
       </c>
-      <c r="F49" s="58">
+      <c r="F49" s="57">
         <v>10350</v>
       </c>
-      <c r="G49" s="58">
+      <c r="G49" s="57">
         <v>10350</v>
       </c>
-      <c r="H49" s="59">
+      <c r="H49" s="58">
         <v>9725</v>
       </c>
-      <c r="I49" s="59">
+      <c r="I49" s="58">
         <v>9725</v>
       </c>
-      <c r="J49" s="58">
+      <c r="J49" s="57">
         <v>10350</v>
       </c>
-      <c r="K49" s="58">
+      <c r="K49" s="57">
         <v>10350</v>
       </c>
-      <c r="L49" s="58">
+      <c r="L49" s="57">
         <v>10350</v>
       </c>
-      <c r="M49" s="60">
+      <c r="M49" s="59">
         <v>10350</v>
       </c>
-      <c r="N49" s="63"/>
-      <c r="O49" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="38" t="s">
+      <c r="N49" s="60">
+        <v>0</v>
+      </c>
+      <c r="O49" s="61">
+        <v>0</v>
+      </c>
+      <c r="P49" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="63">
+        <v>0</v>
+      </c>
+      <c r="R49" s="63">
+        <v>0</v>
+      </c>
+      <c r="S49" s="66">
+        <v>9</v>
+      </c>
+      <c r="T49" s="66">
+        <v>8</v>
+      </c>
+      <c r="U49" s="64">
+        <v>0</v>
+      </c>
+      <c r="V49" s="63">
+        <v>0</v>
+      </c>
+      <c r="W49" s="63">
+        <v>0</v>
+      </c>
+      <c r="X49" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A50" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="44" t="str">
+      <c r="D50" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_04 N</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E50" s="57">
         <v>11775</v>
       </c>
-      <c r="F50" s="58">
+      <c r="F50" s="57">
         <v>11775</v>
       </c>
-      <c r="G50" s="58">
+      <c r="G50" s="57">
         <v>11775</v>
       </c>
-      <c r="H50" s="59">
+      <c r="H50" s="58">
         <v>11775</v>
       </c>
-      <c r="I50" s="59">
+      <c r="I50" s="58">
         <v>11775</v>
       </c>
-      <c r="J50" s="58">
+      <c r="J50" s="57">
         <v>11775</v>
       </c>
-      <c r="K50" s="58">
+      <c r="K50" s="57">
         <v>11775</v>
       </c>
-      <c r="L50" s="58">
+      <c r="L50" s="57">
         <v>11775</v>
       </c>
-      <c r="M50" s="60">
+      <c r="M50" s="59">
         <v>11775</v>
       </c>
-      <c r="N50" s="63"/>
-      <c r="O50" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="38" t="s">
+      <c r="N50" s="60">
+        <v>0</v>
+      </c>
+      <c r="O50" s="61">
+        <v>0</v>
+      </c>
+      <c r="P50" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="63">
+        <v>0</v>
+      </c>
+      <c r="R50" s="63">
+        <v>0</v>
+      </c>
+      <c r="S50" s="66">
+        <v>9</v>
+      </c>
+      <c r="T50" s="66">
+        <v>8</v>
+      </c>
+      <c r="U50" s="64">
+        <v>0</v>
+      </c>
+      <c r="V50" s="63">
+        <v>0</v>
+      </c>
+      <c r="W50" s="63">
+        <v>0</v>
+      </c>
+      <c r="X50" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A51" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="44" t="str">
+      <c r="D51" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_04 2N</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="57">
         <v>10225</v>
       </c>
-      <c r="F51" s="58">
+      <c r="F51" s="57">
         <v>10225</v>
       </c>
-      <c r="G51" s="58">
+      <c r="G51" s="57">
         <v>10225</v>
       </c>
-      <c r="H51" s="59">
+      <c r="H51" s="58">
         <v>10225</v>
       </c>
-      <c r="I51" s="59">
+      <c r="I51" s="58">
         <v>10225</v>
       </c>
-      <c r="J51" s="58">
+      <c r="J51" s="57">
         <v>10225</v>
       </c>
-      <c r="K51" s="58">
+      <c r="K51" s="57">
         <v>10225</v>
       </c>
-      <c r="L51" s="58">
+      <c r="L51" s="57">
         <v>10225</v>
       </c>
-      <c r="M51" s="60">
+      <c r="M51" s="59">
         <v>10225</v>
       </c>
-      <c r="N51" s="63"/>
-      <c r="O51" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
+      <c r="N51" s="60">
+        <v>0</v>
+      </c>
+      <c r="O51" s="61">
+        <v>0</v>
+      </c>
+      <c r="P51" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="63">
+        <v>0</v>
+      </c>
+      <c r="R51" s="63">
+        <v>0</v>
+      </c>
+      <c r="S51" s="66">
+        <v>9</v>
+      </c>
+      <c r="T51" s="66">
+        <v>8</v>
+      </c>
+      <c r="U51" s="64">
+        <v>0</v>
+      </c>
+      <c r="V51" s="63">
+        <v>0</v>
+      </c>
+      <c r="W51" s="63">
+        <v>0</v>
+      </c>
+      <c r="X51" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A52" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D52" s="44" t="str">
+      <c r="D52" s="43" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_05 N</v>
       </c>
-      <c r="E52" s="58">
+      <c r="E52" s="57">
         <v>10930</v>
       </c>
-      <c r="F52" s="58">
+      <c r="F52" s="57">
         <v>10930</v>
       </c>
-      <c r="G52" s="58">
+      <c r="G52" s="57">
         <v>10930</v>
       </c>
-      <c r="H52" s="59">
+      <c r="H52" s="58">
         <v>10685</v>
       </c>
-      <c r="I52" s="59">
+      <c r="I52" s="58">
         <v>10685</v>
       </c>
-      <c r="J52" s="58">
+      <c r="J52" s="57">
         <v>10930</v>
       </c>
-      <c r="K52" s="58">
+      <c r="K52" s="57">
         <v>10930</v>
       </c>
-      <c r="L52" s="58">
+      <c r="L52" s="57">
         <v>10930</v>
       </c>
-      <c r="M52" s="60">
+      <c r="M52" s="59">
         <v>10930</v>
       </c>
-      <c r="N52" s="63"/>
-      <c r="O52" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="38" t="s">
+      <c r="N52" s="60">
+        <v>0</v>
+      </c>
+      <c r="O52" s="61">
+        <v>0</v>
+      </c>
+      <c r="P52" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="63">
+        <v>0</v>
+      </c>
+      <c r="R52" s="63">
+        <v>0</v>
+      </c>
+      <c r="S52" s="66">
+        <v>9</v>
+      </c>
+      <c r="T52" s="66">
+        <v>8</v>
+      </c>
+      <c r="U52" s="64">
+        <v>0</v>
+      </c>
+      <c r="V52" s="63">
+        <v>0</v>
+      </c>
+      <c r="W52" s="63">
+        <v>0</v>
+      </c>
+      <c r="X52" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D53" s="48" t="str">
+      <c r="D53" s="47" t="str">
         <f t="shared" si="1"/>
         <v>NON ISO45' LAYOUT_05 2N</v>
       </c>
-      <c r="E53" s="52">
+      <c r="E53" s="51">
         <v>9260</v>
       </c>
-      <c r="F53" s="52">
+      <c r="F53" s="51">
         <v>9260</v>
       </c>
-      <c r="G53" s="52">
+      <c r="G53" s="51">
         <v>9260</v>
       </c>
-      <c r="H53" s="53">
+      <c r="H53" s="52">
         <v>9020</v>
       </c>
-      <c r="I53" s="53">
+      <c r="I53" s="52">
         <v>9020</v>
       </c>
-      <c r="J53" s="52">
+      <c r="J53" s="51">
         <v>9260</v>
       </c>
-      <c r="K53" s="52">
+      <c r="K53" s="51">
         <v>9260</v>
       </c>
-      <c r="L53" s="52">
+      <c r="L53" s="51">
         <v>9260</v>
       </c>
-      <c r="M53" s="54">
+      <c r="M53" s="53">
         <v>9260</v>
       </c>
-      <c r="N53" s="64"/>
-      <c r="O53" s="68" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="38" t="s">
+      <c r="N53" s="60">
+        <v>0</v>
+      </c>
+      <c r="O53" s="61">
+        <v>0</v>
+      </c>
+      <c r="P53" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="63">
+        <v>0</v>
+      </c>
+      <c r="R53" s="63">
+        <v>0</v>
+      </c>
+      <c r="S53" s="65">
+        <v>9</v>
+      </c>
+      <c r="T53" s="65">
+        <v>8</v>
+      </c>
+      <c r="U53" s="64">
+        <v>0</v>
+      </c>
+      <c r="V53" s="63">
+        <v>0</v>
+      </c>
+      <c r="W53" s="63">
+        <v>0</v>
+      </c>
+      <c r="X53" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A54" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D54" s="40" t="str">
+      <c r="D54" s="39" t="str">
         <f t="shared" ref="D54:D73" si="8">CONCATENATE(,A54," ",B54," ",C54)</f>
         <v>NON ISO25' LAYOUT_01 N</v>
       </c>
-      <c r="E54" s="55">
+      <c r="E54" s="54">
         <v>5400</v>
       </c>
-      <c r="F54" s="55">
+      <c r="F54" s="54">
         <v>5400</v>
       </c>
-      <c r="G54" s="55">
+      <c r="G54" s="54">
         <v>5400</v>
       </c>
-      <c r="H54" s="55">
+      <c r="H54" s="54">
         <v>5400</v>
       </c>
-      <c r="I54" s="55">
+      <c r="I54" s="54">
         <v>5400</v>
       </c>
-      <c r="J54" s="55">
+      <c r="J54" s="54">
         <v>5400</v>
       </c>
-      <c r="K54" s="55">
+      <c r="K54" s="54">
         <v>5400</v>
       </c>
-      <c r="L54" s="55">
+      <c r="L54" s="54">
         <v>5400</v>
       </c>
-      <c r="M54" s="55">
+      <c r="M54" s="54">
         <v>5400</v>
       </c>
-      <c r="N54" s="55">
+      <c r="N54" s="54">
         <v>6120</v>
       </c>
-      <c r="O54" s="57">
+      <c r="O54" s="56">
         <v>6120</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="38" t="s">
+      <c r="P54" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="63">
+        <v>0</v>
+      </c>
+      <c r="R54" s="63">
+        <v>0</v>
+      </c>
+      <c r="S54" s="63">
+        <v>12</v>
+      </c>
+      <c r="T54" s="66">
+        <v>8</v>
+      </c>
+      <c r="U54" s="64">
+        <v>0</v>
+      </c>
+      <c r="V54" s="63">
+        <v>0</v>
+      </c>
+      <c r="W54" s="63">
+        <v>0</v>
+      </c>
+      <c r="X54" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="67">
+        <v>3082</v>
+      </c>
+      <c r="AA54" s="67">
+        <v>3082</v>
+      </c>
+      <c r="AB54" s="70">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A55" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="44" t="str">
+      <c r="D55" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO25' LAYOUT_01 2N</v>
       </c>
-      <c r="E55" s="58">
+      <c r="E55" s="57">
         <v>5400</v>
       </c>
-      <c r="F55" s="58">
+      <c r="F55" s="57">
         <v>5400</v>
       </c>
-      <c r="G55" s="58">
+      <c r="G55" s="57">
         <v>5400</v>
       </c>
-      <c r="H55" s="58">
+      <c r="H55" s="57">
         <v>5400</v>
       </c>
-      <c r="I55" s="58">
+      <c r="I55" s="57">
         <v>5400</v>
       </c>
-      <c r="J55" s="58">
+      <c r="J55" s="57">
         <v>5400</v>
       </c>
-      <c r="K55" s="58">
+      <c r="K55" s="57">
         <v>5400</v>
       </c>
-      <c r="L55" s="58">
+      <c r="L55" s="57">
         <v>5400</v>
       </c>
-      <c r="M55" s="58">
+      <c r="M55" s="57">
         <v>5400</v>
       </c>
-      <c r="N55" s="58">
+      <c r="N55" s="57">
         <v>6120</v>
       </c>
-      <c r="O55" s="60">
+      <c r="O55" s="59">
         <v>6120</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="38" t="s">
+      <c r="P55" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="63">
+        <v>0</v>
+      </c>
+      <c r="R55" s="63">
+        <v>0</v>
+      </c>
+      <c r="S55" s="63">
+        <v>12</v>
+      </c>
+      <c r="T55" s="66">
+        <v>6</v>
+      </c>
+      <c r="U55" s="64">
+        <v>0</v>
+      </c>
+      <c r="V55" s="63">
+        <v>0</v>
+      </c>
+      <c r="W55" s="63">
+        <v>0</v>
+      </c>
+      <c r="X55" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="67">
+        <v>3320</v>
+      </c>
+      <c r="AA55" s="67">
+        <v>3320</v>
+      </c>
+      <c r="AB55" s="70">
+        <v>1074</v>
+      </c>
+      <c r="AC55" s="70">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A56" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D56" s="44" t="str">
+      <c r="D56" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO25' LAYOUT_02 N</v>
       </c>
-      <c r="E56" s="58">
+      <c r="E56" s="57">
         <v>5400</v>
       </c>
-      <c r="F56" s="58">
+      <c r="F56" s="57">
         <v>5400</v>
       </c>
-      <c r="G56" s="58">
+      <c r="G56" s="57">
         <v>5400</v>
       </c>
-      <c r="H56" s="58">
+      <c r="H56" s="57">
         <v>5400</v>
       </c>
-      <c r="I56" s="58">
+      <c r="I56" s="57">
         <v>5400</v>
       </c>
-      <c r="J56" s="58">
+      <c r="J56" s="57">
         <v>5400</v>
       </c>
-      <c r="K56" s="58">
+      <c r="K56" s="57">
         <v>5400</v>
       </c>
-      <c r="L56" s="58">
+      <c r="L56" s="57">
         <v>5400</v>
       </c>
-      <c r="M56" s="58">
+      <c r="M56" s="57">
         <v>5400</v>
       </c>
-      <c r="N56" s="58">
+      <c r="N56" s="57">
         <v>6120</v>
       </c>
-      <c r="O56" s="60">
+      <c r="O56" s="59">
         <v>6120</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="38" t="s">
+      <c r="P56" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="63">
+        <v>0</v>
+      </c>
+      <c r="R56" s="63">
+        <v>0</v>
+      </c>
+      <c r="S56" s="63">
+        <v>12</v>
+      </c>
+      <c r="T56" s="66">
+        <v>8</v>
+      </c>
+      <c r="U56" s="64">
+        <v>0</v>
+      </c>
+      <c r="V56" s="63">
+        <v>0</v>
+      </c>
+      <c r="W56" s="63">
+        <v>0</v>
+      </c>
+      <c r="X56" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="67">
+        <v>3082</v>
+      </c>
+      <c r="AA56" s="67">
+        <v>3082</v>
+      </c>
+      <c r="AB56" s="70">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A57" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D57" s="44" t="str">
+      <c r="D57" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO25' LAYOUT_02 2N</v>
       </c>
-      <c r="E57" s="58">
+      <c r="E57" s="57">
         <v>5400</v>
       </c>
-      <c r="F57" s="58">
+      <c r="F57" s="57">
         <v>5400</v>
       </c>
-      <c r="G57" s="58">
+      <c r="G57" s="57">
         <v>5400</v>
       </c>
-      <c r="H57" s="58">
+      <c r="H57" s="57">
         <v>5400</v>
       </c>
-      <c r="I57" s="58">
+      <c r="I57" s="57">
         <v>5400</v>
       </c>
-      <c r="J57" s="58">
+      <c r="J57" s="57">
         <v>5400</v>
       </c>
-      <c r="K57" s="58">
+      <c r="K57" s="57">
         <v>5400</v>
       </c>
-      <c r="L57" s="58">
+      <c r="L57" s="57">
         <v>5400</v>
       </c>
-      <c r="M57" s="58">
+      <c r="M57" s="57">
         <v>5400</v>
       </c>
-      <c r="N57" s="58">
+      <c r="N57" s="57">
         <v>6120</v>
       </c>
-      <c r="O57" s="60">
+      <c r="O57" s="59">
         <v>6120</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="s">
+      <c r="P57" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="63">
+        <v>0</v>
+      </c>
+      <c r="R57" s="63">
+        <v>0</v>
+      </c>
+      <c r="S57" s="63">
+        <v>12</v>
+      </c>
+      <c r="T57" s="66">
+        <v>8</v>
+      </c>
+      <c r="U57" s="64">
+        <v>0</v>
+      </c>
+      <c r="V57" s="63">
+        <v>0</v>
+      </c>
+      <c r="W57" s="63">
+        <v>0</v>
+      </c>
+      <c r="X57" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="67">
+        <v>2725</v>
+      </c>
+      <c r="AA57" s="67">
+        <v>2725</v>
+      </c>
+      <c r="AB57" s="70">
+        <v>1106</v>
+      </c>
+      <c r="AC57" s="70">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D58" s="44" t="str">
+      <c r="D58" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO25' LAYOUT_03 N</v>
       </c>
-      <c r="E58" s="58">
+      <c r="E58" s="57">
         <v>5400</v>
       </c>
-      <c r="F58" s="58">
+      <c r="F58" s="57">
         <v>5400</v>
       </c>
-      <c r="G58" s="58">
+      <c r="G58" s="57">
         <v>5400</v>
       </c>
-      <c r="H58" s="58">
+      <c r="H58" s="57">
         <v>5400</v>
       </c>
-      <c r="I58" s="58">
+      <c r="I58" s="57">
         <v>5400</v>
       </c>
-      <c r="J58" s="58">
+      <c r="J58" s="57">
         <v>5400</v>
       </c>
-      <c r="K58" s="58">
+      <c r="K58" s="57">
         <v>5400</v>
       </c>
-      <c r="L58" s="58">
+      <c r="L58" s="57">
         <v>5400</v>
       </c>
-      <c r="M58" s="58">
+      <c r="M58" s="57">
         <v>5400</v>
       </c>
-      <c r="N58" s="58">
+      <c r="N58" s="57">
         <v>6120</v>
       </c>
-      <c r="O58" s="60">
+      <c r="O58" s="59">
         <v>6120</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="38" t="s">
+      <c r="P58" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="63">
+        <v>0</v>
+      </c>
+      <c r="R58" s="63">
+        <v>0</v>
+      </c>
+      <c r="S58" s="63">
+        <v>12</v>
+      </c>
+      <c r="T58" s="66">
+        <v>8</v>
+      </c>
+      <c r="U58" s="64">
+        <v>0</v>
+      </c>
+      <c r="V58" s="63">
+        <v>0</v>
+      </c>
+      <c r="W58" s="63">
+        <v>0</v>
+      </c>
+      <c r="X58" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="67">
+        <v>3082</v>
+      </c>
+      <c r="AA58" s="67">
+        <v>3082</v>
+      </c>
+      <c r="AB58" s="70">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A59" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D59" s="44" t="str">
+      <c r="D59" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO25' LAYOUT_03 2N</v>
       </c>
-      <c r="E59" s="58">
+      <c r="E59" s="57">
         <v>5400</v>
       </c>
-      <c r="F59" s="58">
+      <c r="F59" s="57">
         <v>5400</v>
       </c>
-      <c r="G59" s="58">
+      <c r="G59" s="57">
         <v>5400</v>
       </c>
-      <c r="H59" s="58">
+      <c r="H59" s="57">
         <v>5400</v>
       </c>
-      <c r="I59" s="58">
+      <c r="I59" s="57">
         <v>5400</v>
       </c>
-      <c r="J59" s="58">
+      <c r="J59" s="57">
         <v>5400</v>
       </c>
-      <c r="K59" s="58">
+      <c r="K59" s="57">
         <v>5400</v>
       </c>
-      <c r="L59" s="58">
+      <c r="L59" s="57">
         <v>5400</v>
       </c>
-      <c r="M59" s="58">
+      <c r="M59" s="57">
         <v>5400</v>
       </c>
-      <c r="N59" s="58">
+      <c r="N59" s="57">
         <v>6120</v>
       </c>
-      <c r="O59" s="60">
+      <c r="O59" s="59">
         <v>6120</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="38" t="s">
+      <c r="P59" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="63">
+        <v>0</v>
+      </c>
+      <c r="R59" s="63">
+        <v>0</v>
+      </c>
+      <c r="S59" s="63">
+        <v>12</v>
+      </c>
+      <c r="T59" s="66">
+        <v>8</v>
+      </c>
+      <c r="U59" s="64">
+        <v>0</v>
+      </c>
+      <c r="V59" s="63">
+        <v>0</v>
+      </c>
+      <c r="W59" s="63">
+        <v>0</v>
+      </c>
+      <c r="X59" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="67">
+        <v>2725</v>
+      </c>
+      <c r="AA59" s="67">
+        <v>2725</v>
+      </c>
+      <c r="AB59" s="70">
+        <v>1106</v>
+      </c>
+      <c r="AC59" s="70">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A60" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D60" s="44" t="str">
+      <c r="D60" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO25' LAYOUT_04 N</v>
       </c>
-      <c r="E60" s="58">
+      <c r="E60" s="57">
         <v>5400</v>
       </c>
-      <c r="F60" s="58">
+      <c r="F60" s="57">
         <v>5400</v>
       </c>
-      <c r="G60" s="58">
+      <c r="G60" s="57">
         <v>5400</v>
       </c>
-      <c r="H60" s="58">
+      <c r="H60" s="57">
         <v>5400</v>
       </c>
-      <c r="I60" s="58">
+      <c r="I60" s="57">
         <v>5400</v>
       </c>
-      <c r="J60" s="58">
+      <c r="J60" s="57">
         <v>5400</v>
       </c>
-      <c r="K60" s="58">
+      <c r="K60" s="57">
         <v>5400</v>
       </c>
-      <c r="L60" s="58">
+      <c r="L60" s="57">
         <v>5400</v>
       </c>
-      <c r="M60" s="58">
+      <c r="M60" s="57">
         <v>5400</v>
       </c>
-      <c r="N60" s="58">
+      <c r="N60" s="57">
         <v>6120</v>
       </c>
-      <c r="O60" s="60">
+      <c r="O60" s="59">
         <v>6120</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="38" t="s">
+      <c r="P60" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="63">
+        <v>0</v>
+      </c>
+      <c r="R60" s="63">
+        <v>0</v>
+      </c>
+      <c r="S60" s="63">
+        <v>12</v>
+      </c>
+      <c r="T60" s="66">
+        <v>8</v>
+      </c>
+      <c r="U60" s="64">
+        <v>0</v>
+      </c>
+      <c r="V60" s="63">
+        <v>0</v>
+      </c>
+      <c r="W60" s="63">
+        <v>0</v>
+      </c>
+      <c r="X60" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="67">
+        <v>1036</v>
+      </c>
+      <c r="AA60" s="67">
+        <v>1036</v>
+      </c>
+      <c r="AB60" s="70">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A61" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D61" s="44" t="str">
+      <c r="D61" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO25' LAYOUT_04 2N</v>
       </c>
-      <c r="E61" s="58">
+      <c r="E61" s="57">
         <v>5400</v>
       </c>
-      <c r="F61" s="58">
+      <c r="F61" s="57">
         <v>5400</v>
       </c>
-      <c r="G61" s="58">
+      <c r="G61" s="57">
         <v>5400</v>
       </c>
-      <c r="H61" s="58">
+      <c r="H61" s="57">
         <v>5400</v>
       </c>
-      <c r="I61" s="58">
+      <c r="I61" s="57">
         <v>5400</v>
       </c>
-      <c r="J61" s="58">
+      <c r="J61" s="57">
         <v>5400</v>
       </c>
-      <c r="K61" s="58">
+      <c r="K61" s="57">
         <v>5400</v>
       </c>
-      <c r="L61" s="58">
+      <c r="L61" s="57">
         <v>5400</v>
       </c>
-      <c r="M61" s="58">
+      <c r="M61" s="57">
         <v>5400</v>
       </c>
-      <c r="N61" s="58">
+      <c r="N61" s="57">
         <v>6120</v>
       </c>
-      <c r="O61" s="60">
+      <c r="O61" s="59">
         <v>6120</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="38" t="s">
+      <c r="P61" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="63">
+        <v>0</v>
+      </c>
+      <c r="R61" s="63">
+        <v>0</v>
+      </c>
+      <c r="S61" s="63">
+        <v>12</v>
+      </c>
+      <c r="T61" s="66">
+        <v>8</v>
+      </c>
+      <c r="U61" s="64">
+        <v>0</v>
+      </c>
+      <c r="V61" s="63">
+        <v>0</v>
+      </c>
+      <c r="W61" s="63">
+        <v>0</v>
+      </c>
+      <c r="X61" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="67">
+        <v>2013</v>
+      </c>
+      <c r="AA61" s="67">
+        <v>2013</v>
+      </c>
+      <c r="AB61" s="70">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A62" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D62" s="44" t="str">
+      <c r="D62" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO25' LAYOUT_05 N</v>
       </c>
-      <c r="E62" s="58">
+      <c r="E62" s="57">
         <v>5400</v>
       </c>
-      <c r="F62" s="58">
+      <c r="F62" s="57">
         <v>5400</v>
       </c>
-      <c r="G62" s="58">
+      <c r="G62" s="57">
         <v>5400</v>
       </c>
-      <c r="H62" s="58">
+      <c r="H62" s="57">
         <v>5400</v>
       </c>
-      <c r="I62" s="58">
+      <c r="I62" s="57">
         <v>5400</v>
       </c>
-      <c r="J62" s="58">
+      <c r="J62" s="57">
         <v>5400</v>
       </c>
-      <c r="K62" s="58">
+      <c r="K62" s="57">
         <v>5400</v>
       </c>
-      <c r="L62" s="58">
+      <c r="L62" s="57">
         <v>5400</v>
       </c>
-      <c r="M62" s="58">
+      <c r="M62" s="57">
         <v>5400</v>
       </c>
-      <c r="N62" s="58">
+      <c r="N62" s="57">
         <v>6120</v>
       </c>
-      <c r="O62" s="60">
+      <c r="O62" s="59">
         <v>6120</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="38" t="s">
+      <c r="P62" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="63">
+        <v>0</v>
+      </c>
+      <c r="R62" s="63">
+        <v>0</v>
+      </c>
+      <c r="S62" s="63">
+        <v>12</v>
+      </c>
+      <c r="T62" s="66">
+        <v>8</v>
+      </c>
+      <c r="U62" s="64">
+        <v>0</v>
+      </c>
+      <c r="V62" s="63">
+        <v>0</v>
+      </c>
+      <c r="W62" s="63">
+        <v>0</v>
+      </c>
+      <c r="X62" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="68">
+        <v>1036</v>
+      </c>
+      <c r="AA62" s="68">
+        <v>1036</v>
+      </c>
+      <c r="AB62" s="71">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D63" s="48" t="str">
+      <c r="D63" s="47" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO25' LAYOUT_05 2N</v>
       </c>
-      <c r="E63" s="52">
+      <c r="E63" s="51">
         <v>5400</v>
       </c>
-      <c r="F63" s="52">
+      <c r="F63" s="51">
         <v>5400</v>
       </c>
-      <c r="G63" s="52">
+      <c r="G63" s="51">
         <v>5400</v>
       </c>
-      <c r="H63" s="52">
+      <c r="H63" s="51">
         <v>5400</v>
       </c>
-      <c r="I63" s="52">
+      <c r="I63" s="51">
         <v>5400</v>
       </c>
-      <c r="J63" s="52">
+      <c r="J63" s="51">
         <v>5400</v>
       </c>
-      <c r="K63" s="52">
+      <c r="K63" s="51">
         <v>5400</v>
       </c>
-      <c r="L63" s="52">
+      <c r="L63" s="51">
         <v>5400</v>
       </c>
-      <c r="M63" s="52">
+      <c r="M63" s="51">
         <v>5400</v>
       </c>
-      <c r="N63" s="52">
+      <c r="N63" s="51">
         <v>6120</v>
       </c>
-      <c r="O63" s="54">
+      <c r="O63" s="53">
         <v>6120</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="38" t="s">
+      <c r="P63" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="63">
+        <v>0</v>
+      </c>
+      <c r="R63" s="63">
+        <v>0</v>
+      </c>
+      <c r="S63" s="65">
+        <v>12</v>
+      </c>
+      <c r="T63" s="65">
+        <v>8</v>
+      </c>
+      <c r="U63" s="64">
+        <v>0</v>
+      </c>
+      <c r="V63" s="63">
+        <v>0</v>
+      </c>
+      <c r="W63" s="63">
+        <v>0</v>
+      </c>
+      <c r="X63" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="69">
+        <v>2013</v>
+      </c>
+      <c r="AA63" s="69">
+        <v>2013</v>
+      </c>
+      <c r="AB63" s="72">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A64" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="39" t="s">
+      <c r="C64" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="40" t="str">
+      <c r="D64" s="39" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO45' LAYOUT_01 N</v>
       </c>
-      <c r="E64" s="55">
+      <c r="E64" s="54">
         <v>11500</v>
       </c>
-      <c r="F64" s="55">
+      <c r="F64" s="54">
         <v>11500</v>
       </c>
-      <c r="G64" s="55">
+      <c r="G64" s="54">
         <v>11500</v>
       </c>
-      <c r="H64" s="55">
+      <c r="H64" s="54">
         <v>11500</v>
       </c>
-      <c r="I64" s="55">
+      <c r="I64" s="54">
         <v>11500</v>
       </c>
-      <c r="J64" s="55">
+      <c r="J64" s="54">
         <v>11500</v>
       </c>
-      <c r="K64" s="55">
+      <c r="K64" s="54">
         <v>11500</v>
       </c>
-      <c r="L64" s="55">
+      <c r="L64" s="54">
         <v>11500</v>
       </c>
-      <c r="M64" s="55">
+      <c r="M64" s="54">
         <v>11500</v>
       </c>
-      <c r="N64" s="55">
+      <c r="N64" s="54">
         <v>12260</v>
       </c>
-      <c r="O64" s="57">
+      <c r="O64" s="56">
         <v>12260</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="38" t="s">
+      <c r="P64" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="63">
+        <v>0</v>
+      </c>
+      <c r="R64" s="63">
+        <v>0</v>
+      </c>
+      <c r="S64" s="66">
+        <v>20</v>
+      </c>
+      <c r="T64" s="66">
+        <v>14</v>
+      </c>
+      <c r="U64" s="64">
+        <v>0</v>
+      </c>
+      <c r="V64" s="63">
+        <v>0</v>
+      </c>
+      <c r="W64" s="63">
+        <v>0</v>
+      </c>
+      <c r="X64" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="67">
+        <v>3082</v>
+      </c>
+      <c r="AA64" s="67">
+        <v>3082</v>
+      </c>
+      <c r="AB64" s="70">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A65" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D65" s="44" t="str">
+      <c r="D65" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO45' LAYOUT_01 2N</v>
       </c>
-      <c r="E65" s="58">
+      <c r="E65" s="57">
         <v>11500</v>
       </c>
-      <c r="F65" s="58">
+      <c r="F65" s="57">
         <v>11500</v>
       </c>
-      <c r="G65" s="58">
+      <c r="G65" s="57">
         <v>11500</v>
       </c>
-      <c r="H65" s="58">
+      <c r="H65" s="57">
         <v>11500</v>
       </c>
-      <c r="I65" s="58">
+      <c r="I65" s="57">
         <v>11500</v>
       </c>
-      <c r="J65" s="58">
+      <c r="J65" s="57">
         <v>11500</v>
       </c>
-      <c r="K65" s="58">
+      <c r="K65" s="57">
         <v>11500</v>
       </c>
-      <c r="L65" s="58">
+      <c r="L65" s="57">
         <v>11500</v>
       </c>
-      <c r="M65" s="58">
+      <c r="M65" s="57">
         <v>11500</v>
       </c>
-      <c r="N65" s="58">
+      <c r="N65" s="57">
         <v>12260</v>
       </c>
-      <c r="O65" s="60">
+      <c r="O65" s="59">
         <v>12260</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="38" t="s">
+      <c r="P65" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="63">
+        <v>0</v>
+      </c>
+      <c r="R65" s="63">
+        <v>0</v>
+      </c>
+      <c r="S65" s="66">
+        <v>20</v>
+      </c>
+      <c r="T65" s="66">
+        <v>12</v>
+      </c>
+      <c r="U65" s="64">
+        <v>0</v>
+      </c>
+      <c r="V65" s="63">
+        <v>0</v>
+      </c>
+      <c r="W65" s="63">
+        <v>0</v>
+      </c>
+      <c r="X65" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="67">
+        <v>3320</v>
+      </c>
+      <c r="AA65" s="67">
+        <v>3320</v>
+      </c>
+      <c r="AB65" s="70">
+        <v>1106</v>
+      </c>
+      <c r="AC65" s="70">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A66" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D66" s="44" t="str">
+      <c r="D66" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO45' LAYOUT_02 N</v>
       </c>
-      <c r="E66" s="58">
+      <c r="E66" s="57">
         <v>11500</v>
       </c>
-      <c r="F66" s="58">
+      <c r="F66" s="57">
         <v>11500</v>
       </c>
-      <c r="G66" s="58">
+      <c r="G66" s="57">
         <v>11500</v>
       </c>
-      <c r="H66" s="58">
+      <c r="H66" s="57">
         <v>11500</v>
       </c>
-      <c r="I66" s="58">
+      <c r="I66" s="57">
         <v>11500</v>
       </c>
-      <c r="J66" s="58">
+      <c r="J66" s="57">
         <v>11500</v>
       </c>
-      <c r="K66" s="58">
+      <c r="K66" s="57">
         <v>11500</v>
       </c>
-      <c r="L66" s="58">
+      <c r="L66" s="57">
         <v>11500</v>
       </c>
-      <c r="M66" s="58">
+      <c r="M66" s="57">
         <v>11500</v>
       </c>
-      <c r="N66" s="58">
+      <c r="N66" s="57">
         <v>12260</v>
       </c>
-      <c r="O66" s="60">
+      <c r="O66" s="59">
         <v>12260</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="38" t="s">
+      <c r="P66" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="63">
+        <v>0</v>
+      </c>
+      <c r="R66" s="63">
+        <v>0</v>
+      </c>
+      <c r="S66" s="66">
+        <v>20</v>
+      </c>
+      <c r="T66" s="66">
+        <v>14</v>
+      </c>
+      <c r="U66" s="64">
+        <v>0</v>
+      </c>
+      <c r="V66" s="63">
+        <v>0</v>
+      </c>
+      <c r="W66" s="63">
+        <v>0</v>
+      </c>
+      <c r="X66" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="67">
+        <v>3082</v>
+      </c>
+      <c r="AA66" s="67">
+        <v>3082</v>
+      </c>
+      <c r="AB66" s="70">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A67" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D67" s="44" t="str">
+      <c r="D67" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO45' LAYOUT_02 2N</v>
       </c>
-      <c r="E67" s="58">
+      <c r="E67" s="57">
         <v>11500</v>
       </c>
-      <c r="F67" s="58">
+      <c r="F67" s="57">
         <v>11500</v>
       </c>
-      <c r="G67" s="58">
+      <c r="G67" s="57">
         <v>11500</v>
       </c>
-      <c r="H67" s="58">
+      <c r="H67" s="57">
         <v>11500</v>
       </c>
-      <c r="I67" s="58">
+      <c r="I67" s="57">
         <v>11500</v>
       </c>
-      <c r="J67" s="58">
+      <c r="J67" s="57">
         <v>11500</v>
       </c>
-      <c r="K67" s="58">
+      <c r="K67" s="57">
         <v>11500</v>
       </c>
-      <c r="L67" s="58">
+      <c r="L67" s="57">
         <v>11500</v>
       </c>
-      <c r="M67" s="58">
+      <c r="M67" s="57">
         <v>11500</v>
       </c>
-      <c r="N67" s="58">
+      <c r="N67" s="57">
         <v>12260</v>
       </c>
-      <c r="O67" s="60">
+      <c r="O67" s="59">
         <v>12260</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="38" t="s">
+      <c r="P67" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="63">
+        <v>0</v>
+      </c>
+      <c r="R67" s="63">
+        <v>0</v>
+      </c>
+      <c r="S67" s="66">
+        <v>20</v>
+      </c>
+      <c r="T67" s="66">
+        <v>12</v>
+      </c>
+      <c r="U67" s="64">
+        <v>0</v>
+      </c>
+      <c r="V67" s="63">
+        <v>0</v>
+      </c>
+      <c r="W67" s="63">
+        <v>0</v>
+      </c>
+      <c r="X67" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="67">
+        <v>2725</v>
+      </c>
+      <c r="AA67" s="67">
+        <v>2725</v>
+      </c>
+      <c r="AB67" s="70">
+        <v>1106</v>
+      </c>
+      <c r="AC67" s="70">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A68" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D68" s="44" t="str">
+      <c r="D68" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO45' LAYOUT_03 N</v>
       </c>
-      <c r="E68" s="58">
+      <c r="E68" s="57">
         <v>11500</v>
       </c>
-      <c r="F68" s="58">
+      <c r="F68" s="57">
         <v>11500</v>
       </c>
-      <c r="G68" s="58">
+      <c r="G68" s="57">
         <v>11500</v>
       </c>
-      <c r="H68" s="58">
+      <c r="H68" s="57">
         <v>11500</v>
       </c>
-      <c r="I68" s="58">
+      <c r="I68" s="57">
         <v>11500</v>
       </c>
-      <c r="J68" s="58">
+      <c r="J68" s="57">
         <v>11500</v>
       </c>
-      <c r="K68" s="58">
+      <c r="K68" s="57">
         <v>11500</v>
       </c>
-      <c r="L68" s="58">
+      <c r="L68" s="57">
         <v>11500</v>
       </c>
-      <c r="M68" s="58">
+      <c r="M68" s="57">
         <v>11500</v>
       </c>
-      <c r="N68" s="58">
+      <c r="N68" s="57">
         <v>12260</v>
       </c>
-      <c r="O68" s="60">
+      <c r="O68" s="59">
         <v>12260</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="38" t="s">
+      <c r="P68" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="63">
+        <v>0</v>
+      </c>
+      <c r="R68" s="63">
+        <v>0</v>
+      </c>
+      <c r="S68" s="66">
+        <v>20</v>
+      </c>
+      <c r="T68" s="66">
+        <v>14</v>
+      </c>
+      <c r="U68" s="64">
+        <v>0</v>
+      </c>
+      <c r="V68" s="63">
+        <v>0</v>
+      </c>
+      <c r="W68" s="63">
+        <v>0</v>
+      </c>
+      <c r="X68" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="67">
+        <v>3082</v>
+      </c>
+      <c r="AA68" s="67">
+        <v>3082</v>
+      </c>
+      <c r="AB68" s="70">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A69" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C69" s="39" t="s">
+      <c r="C69" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D69" s="44" t="str">
+      <c r="D69" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO45' LAYOUT_03 2N</v>
       </c>
-      <c r="E69" s="58">
+      <c r="E69" s="57">
         <v>11500</v>
       </c>
-      <c r="F69" s="58">
+      <c r="F69" s="57">
         <v>11500</v>
       </c>
-      <c r="G69" s="58">
+      <c r="G69" s="57">
         <v>11500</v>
       </c>
-      <c r="H69" s="58">
+      <c r="H69" s="57">
         <v>11500</v>
       </c>
-      <c r="I69" s="58">
+      <c r="I69" s="57">
         <v>11500</v>
       </c>
-      <c r="J69" s="58">
+      <c r="J69" s="57">
         <v>11500</v>
       </c>
-      <c r="K69" s="58">
+      <c r="K69" s="57">
         <v>11500</v>
       </c>
-      <c r="L69" s="58">
+      <c r="L69" s="57">
         <v>11500</v>
       </c>
-      <c r="M69" s="58">
+      <c r="M69" s="57">
         <v>11500</v>
       </c>
-      <c r="N69" s="58">
+      <c r="N69" s="57">
         <v>12260</v>
       </c>
-      <c r="O69" s="60">
+      <c r="O69" s="59">
         <v>12260</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="38" t="s">
+      <c r="P69" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="63">
+        <v>0</v>
+      </c>
+      <c r="R69" s="63">
+        <v>0</v>
+      </c>
+      <c r="S69" s="66">
+        <v>20</v>
+      </c>
+      <c r="T69" s="66">
+        <v>12</v>
+      </c>
+      <c r="U69" s="64">
+        <v>0</v>
+      </c>
+      <c r="V69" s="63">
+        <v>0</v>
+      </c>
+      <c r="W69" s="63">
+        <v>0</v>
+      </c>
+      <c r="X69" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="67">
+        <v>2725</v>
+      </c>
+      <c r="AA69" s="67">
+        <v>2725</v>
+      </c>
+      <c r="AB69" s="70">
+        <v>1106</v>
+      </c>
+      <c r="AC69" s="70">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A70" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C70" s="39" t="s">
+      <c r="C70" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D70" s="44" t="str">
+      <c r="D70" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO45' LAYOUT_04 N</v>
       </c>
-      <c r="E70" s="58">
+      <c r="E70" s="57">
         <v>11500</v>
       </c>
-      <c r="F70" s="58">
+      <c r="F70" s="57">
         <v>11500</v>
       </c>
-      <c r="G70" s="58">
+      <c r="G70" s="57">
         <v>11500</v>
       </c>
-      <c r="H70" s="58">
+      <c r="H70" s="57">
         <v>11500</v>
       </c>
-      <c r="I70" s="58">
+      <c r="I70" s="57">
         <v>11500</v>
       </c>
-      <c r="J70" s="58">
+      <c r="J70" s="57">
         <v>11500</v>
       </c>
-      <c r="K70" s="58">
+      <c r="K70" s="57">
         <v>11500</v>
       </c>
-      <c r="L70" s="58">
+      <c r="L70" s="57">
         <v>11500</v>
       </c>
-      <c r="M70" s="58">
+      <c r="M70" s="57">
         <v>11500</v>
       </c>
-      <c r="N70" s="58">
+      <c r="N70" s="57">
         <v>12260</v>
       </c>
-      <c r="O70" s="60">
+      <c r="O70" s="59">
         <v>12260</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="38" t="s">
+      <c r="P70" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="63">
+        <v>0</v>
+      </c>
+      <c r="R70" s="63">
+        <v>0</v>
+      </c>
+      <c r="S70" s="66">
+        <v>20</v>
+      </c>
+      <c r="T70" s="66">
+        <v>14</v>
+      </c>
+      <c r="U70" s="64">
+        <v>0</v>
+      </c>
+      <c r="V70" s="63">
+        <v>0</v>
+      </c>
+      <c r="W70" s="63">
+        <v>0</v>
+      </c>
+      <c r="X70" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="67">
+        <v>1036</v>
+      </c>
+      <c r="AA70" s="67">
+        <v>1036</v>
+      </c>
+      <c r="AB70" s="70">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A71" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C71" s="39" t="s">
+      <c r="C71" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D71" s="44" t="str">
+      <c r="D71" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO45' LAYOUT_04 2N</v>
       </c>
-      <c r="E71" s="58">
+      <c r="E71" s="57">
         <v>11500</v>
       </c>
-      <c r="F71" s="58">
+      <c r="F71" s="57">
         <v>11500</v>
       </c>
-      <c r="G71" s="58">
+      <c r="G71" s="57">
         <v>11500</v>
       </c>
-      <c r="H71" s="58">
+      <c r="H71" s="57">
         <v>11500</v>
       </c>
-      <c r="I71" s="58">
+      <c r="I71" s="57">
         <v>11500</v>
       </c>
-      <c r="J71" s="58">
+      <c r="J71" s="57">
         <v>11500</v>
       </c>
-      <c r="K71" s="58">
+      <c r="K71" s="57">
         <v>11500</v>
       </c>
-      <c r="L71" s="58">
+      <c r="L71" s="57">
         <v>11500</v>
       </c>
-      <c r="M71" s="58">
+      <c r="M71" s="57">
         <v>11500</v>
       </c>
-      <c r="N71" s="58">
+      <c r="N71" s="57">
         <v>12260</v>
       </c>
-      <c r="O71" s="60">
+      <c r="O71" s="59">
         <v>12260</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="38" t="s">
+      <c r="P71" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="63">
+        <v>0</v>
+      </c>
+      <c r="R71" s="63">
+        <v>0</v>
+      </c>
+      <c r="S71" s="66">
+        <v>20</v>
+      </c>
+      <c r="T71" s="66">
+        <v>12</v>
+      </c>
+      <c r="U71" s="64">
+        <v>0</v>
+      </c>
+      <c r="V71" s="63">
+        <v>0</v>
+      </c>
+      <c r="W71" s="63">
+        <v>0</v>
+      </c>
+      <c r="X71" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="67">
+        <v>2013</v>
+      </c>
+      <c r="AA71" s="67">
+        <v>2013</v>
+      </c>
+      <c r="AB71" s="70">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A72" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C72" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D72" s="44" t="str">
+      <c r="D72" s="43" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO45' LAYOUT_05 N</v>
       </c>
-      <c r="E72" s="58">
+      <c r="E72" s="57">
         <v>11500</v>
       </c>
-      <c r="F72" s="58">
+      <c r="F72" s="57">
         <v>11500</v>
       </c>
-      <c r="G72" s="58">
+      <c r="G72" s="57">
         <v>11500</v>
       </c>
-      <c r="H72" s="58">
+      <c r="H72" s="57">
         <v>11500</v>
       </c>
-      <c r="I72" s="58">
+      <c r="I72" s="57">
         <v>11500</v>
       </c>
-      <c r="J72" s="58">
+      <c r="J72" s="57">
         <v>11500</v>
       </c>
-      <c r="K72" s="58">
+      <c r="K72" s="57">
         <v>11500</v>
       </c>
-      <c r="L72" s="58">
+      <c r="L72" s="57">
         <v>11500</v>
       </c>
-      <c r="M72" s="58">
+      <c r="M72" s="57">
         <v>11500</v>
       </c>
-      <c r="N72" s="58">
+      <c r="N72" s="57">
         <v>12260</v>
       </c>
-      <c r="O72" s="60">
+      <c r="O72" s="59">
         <v>12260</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="38" t="s">
+      <c r="P72" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="63">
+        <v>0</v>
+      </c>
+      <c r="R72" s="63">
+        <v>0</v>
+      </c>
+      <c r="S72" s="66">
+        <v>20</v>
+      </c>
+      <c r="T72" s="66">
+        <v>16</v>
+      </c>
+      <c r="U72" s="64">
+        <v>0</v>
+      </c>
+      <c r="V72" s="63">
+        <v>0</v>
+      </c>
+      <c r="W72" s="63">
+        <v>0</v>
+      </c>
+      <c r="X72" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="68">
+        <v>1036</v>
+      </c>
+      <c r="AA72" s="68">
+        <v>1036</v>
+      </c>
+      <c r="AB72" s="71">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C73" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D73" s="48" t="str">
+      <c r="D73" s="47" t="str">
         <f t="shared" si="8"/>
         <v>NON ISO45' LAYOUT_05 2N</v>
       </c>
-      <c r="E73" s="52">
+      <c r="E73" s="51">
         <v>11500</v>
       </c>
-      <c r="F73" s="52">
+      <c r="F73" s="51">
         <v>11500</v>
       </c>
-      <c r="G73" s="52">
+      <c r="G73" s="51">
         <v>11500</v>
       </c>
-      <c r="H73" s="52">
+      <c r="H73" s="51">
         <v>11500</v>
       </c>
-      <c r="I73" s="52">
+      <c r="I73" s="51">
         <v>11500</v>
       </c>
-      <c r="J73" s="52">
+      <c r="J73" s="51">
         <v>11500</v>
       </c>
-      <c r="K73" s="52">
+      <c r="K73" s="51">
         <v>11500</v>
       </c>
-      <c r="L73" s="52">
+      <c r="L73" s="51">
         <v>11500</v>
       </c>
-      <c r="M73" s="52">
+      <c r="M73" s="51">
         <v>11500</v>
       </c>
-      <c r="N73" s="52">
+      <c r="N73" s="51">
         <v>12260</v>
       </c>
-      <c r="O73" s="54">
+      <c r="O73" s="53">
         <v>12260</v>
+      </c>
+      <c r="P73" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="63">
+        <v>0</v>
+      </c>
+      <c r="R73" s="63">
+        <v>0</v>
+      </c>
+      <c r="S73" s="65">
+        <v>20</v>
+      </c>
+      <c r="T73" s="65">
+        <v>16</v>
+      </c>
+      <c r="U73" s="64">
+        <v>0</v>
+      </c>
+      <c r="V73" s="63">
+        <v>0</v>
+      </c>
+      <c r="W73" s="63">
+        <v>0</v>
+      </c>
+      <c r="X73" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="69">
+        <v>2013</v>
+      </c>
+      <c r="AA73" s="69">
+        <v>2013</v>
+      </c>
+      <c r="AB73" s="72">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="72">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelReading/inputResources/ConstraintsToJSON.xlsx
+++ b/ExcelReading/inputResources/ConstraintsToJSON.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\excelTojson\ExcelToJSON\ExcelReading\inputResources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3ABF67E-CC0A-47C7-AC11-A1352FCB26FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B31C5120-54E8-4DA7-BE52-DE6C50C10DB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{1F0430CC-FF32-404D-8E6F-02861FD37FCA}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="7" xr2:uid="{1F0430CC-FF32-404D-8E6F-02861FD37FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="PDU" sheetId="1" r:id="rId1"/>
@@ -20,15 +15,17 @@
     <sheet name="Rack" sheetId="11" r:id="rId5"/>
     <sheet name="UPS" sheetId="12" r:id="rId6"/>
     <sheet name="ContainerUPS" sheetId="13" r:id="rId7"/>
+    <sheet name="ERVAndARS" sheetId="14" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="CONF_UPS_Redundancy">[1]CONFIGURATOR!$D$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1:Q10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +33,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="234">
   <si>
     <t>TYPE</t>
   </si>
@@ -729,6 +728,24 @@
   </si>
   <si>
     <t>NON ISO45'</t>
+  </si>
+  <si>
+    <t>ERV / ARS</t>
+  </si>
+  <si>
+    <t>ARS_ISO</t>
+  </si>
+  <si>
+    <t>ISO20'_ETO</t>
+  </si>
+  <si>
+    <t>ISO40'_ETO</t>
+  </si>
+  <si>
+    <t>ARS_NONISO</t>
+  </si>
+  <si>
+    <t>NON ISOD45</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1229,9 +1246,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1260,6 +1274,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2697,10 +2720,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4091,7 +4114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54C99C0-56AC-4268-A6D1-0A84E8101377}">
   <dimension ref="A1:AC73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4361,34 +4384,34 @@
       <c r="O14" s="61">
         <v>0</v>
       </c>
-      <c r="P14" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="63">
-        <v>0</v>
-      </c>
-      <c r="R14" s="63">
-        <v>0</v>
-      </c>
-      <c r="S14" s="63">
+      <c r="P14" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="62">
+        <v>0</v>
+      </c>
+      <c r="R14" s="62">
+        <v>0</v>
+      </c>
+      <c r="S14" s="62">
         <v>4</v>
       </c>
-      <c r="T14" s="63">
+      <c r="T14" s="62">
         <v>4</v>
       </c>
-      <c r="U14" s="64">
-        <v>0</v>
-      </c>
-      <c r="V14" s="63">
-        <v>0</v>
-      </c>
-      <c r="W14" s="63">
-        <v>0</v>
-      </c>
-      <c r="X14" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="63">
+      <c r="U14" s="63">
+        <v>0</v>
+      </c>
+      <c r="V14" s="62">
+        <v>0</v>
+      </c>
+      <c r="W14" s="62">
+        <v>0</v>
+      </c>
+      <c r="X14" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4439,34 +4462,34 @@
       <c r="O15" s="61">
         <v>0</v>
       </c>
-      <c r="P15" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="63">
-        <v>0</v>
-      </c>
-      <c r="R15" s="63">
-        <v>0</v>
-      </c>
-      <c r="S15" s="63">
+      <c r="P15" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="62">
+        <v>0</v>
+      </c>
+      <c r="R15" s="62">
+        <v>0</v>
+      </c>
+      <c r="S15" s="62">
         <v>4</v>
       </c>
-      <c r="T15" s="63">
+      <c r="T15" s="62">
         <v>4</v>
       </c>
-      <c r="U15" s="64">
-        <v>0</v>
-      </c>
-      <c r="V15" s="63">
-        <v>0</v>
-      </c>
-      <c r="W15" s="63">
-        <v>0</v>
-      </c>
-      <c r="X15" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="63">
+      <c r="U15" s="63">
+        <v>0</v>
+      </c>
+      <c r="V15" s="62">
+        <v>0</v>
+      </c>
+      <c r="W15" s="62">
+        <v>0</v>
+      </c>
+      <c r="X15" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4526,34 +4549,34 @@
       <c r="O16" s="61">
         <v>0</v>
       </c>
-      <c r="P16" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="63">
-        <v>0</v>
-      </c>
-      <c r="R16" s="63">
-        <v>0</v>
-      </c>
-      <c r="S16" s="63">
+      <c r="P16" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="62">
+        <v>0</v>
+      </c>
+      <c r="R16" s="62">
+        <v>0</v>
+      </c>
+      <c r="S16" s="62">
         <v>4</v>
       </c>
-      <c r="T16" s="63">
+      <c r="T16" s="62">
         <v>4</v>
       </c>
-      <c r="U16" s="64">
-        <v>0</v>
-      </c>
-      <c r="V16" s="63">
-        <v>0</v>
-      </c>
-      <c r="W16" s="63">
-        <v>0</v>
-      </c>
-      <c r="X16" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="63">
+      <c r="U16" s="63">
+        <v>0</v>
+      </c>
+      <c r="V16" s="62">
+        <v>0</v>
+      </c>
+      <c r="W16" s="62">
+        <v>0</v>
+      </c>
+      <c r="X16" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4613,34 +4636,34 @@
       <c r="O17" s="61">
         <v>0</v>
       </c>
-      <c r="P17" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="63">
-        <v>0</v>
-      </c>
-      <c r="R17" s="63">
-        <v>0</v>
-      </c>
-      <c r="S17" s="63">
+      <c r="P17" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="62">
+        <v>0</v>
+      </c>
+      <c r="R17" s="62">
+        <v>0</v>
+      </c>
+      <c r="S17" s="62">
         <v>4</v>
       </c>
-      <c r="T17" s="63">
+      <c r="T17" s="62">
         <v>4</v>
       </c>
-      <c r="U17" s="64">
-        <v>0</v>
-      </c>
-      <c r="V17" s="63">
-        <v>0</v>
-      </c>
-      <c r="W17" s="63">
-        <v>0</v>
-      </c>
-      <c r="X17" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="63">
+      <c r="U17" s="63">
+        <v>0</v>
+      </c>
+      <c r="V17" s="62">
+        <v>0</v>
+      </c>
+      <c r="W17" s="62">
+        <v>0</v>
+      </c>
+      <c r="X17" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4700,34 +4723,34 @@
       <c r="O18" s="61">
         <v>0</v>
       </c>
-      <c r="P18" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="63">
-        <v>0</v>
-      </c>
-      <c r="R18" s="63">
-        <v>0</v>
-      </c>
-      <c r="S18" s="63">
+      <c r="P18" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="62">
+        <v>0</v>
+      </c>
+      <c r="R18" s="62">
+        <v>0</v>
+      </c>
+      <c r="S18" s="62">
         <v>4</v>
       </c>
-      <c r="T18" s="63">
+      <c r="T18" s="62">
         <v>4</v>
       </c>
-      <c r="U18" s="64">
-        <v>0</v>
-      </c>
-      <c r="V18" s="63">
-        <v>0</v>
-      </c>
-      <c r="W18" s="63">
-        <v>0</v>
-      </c>
-      <c r="X18" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="63">
+      <c r="U18" s="63">
+        <v>0</v>
+      </c>
+      <c r="V18" s="62">
+        <v>0</v>
+      </c>
+      <c r="W18" s="62">
+        <v>0</v>
+      </c>
+      <c r="X18" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4787,34 +4810,34 @@
       <c r="O19" s="61">
         <v>0</v>
       </c>
-      <c r="P19" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="63">
-        <v>0</v>
-      </c>
-      <c r="R19" s="63">
-        <v>0</v>
-      </c>
-      <c r="S19" s="63">
+      <c r="P19" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="62">
+        <v>0</v>
+      </c>
+      <c r="R19" s="62">
+        <v>0</v>
+      </c>
+      <c r="S19" s="62">
         <v>4</v>
       </c>
-      <c r="T19" s="63">
+      <c r="T19" s="62">
         <v>4</v>
       </c>
-      <c r="U19" s="64">
-        <v>0</v>
-      </c>
-      <c r="V19" s="63">
-        <v>0</v>
-      </c>
-      <c r="W19" s="63">
-        <v>0</v>
-      </c>
-      <c r="X19" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="63">
+      <c r="U19" s="63">
+        <v>0</v>
+      </c>
+      <c r="V19" s="62">
+        <v>0</v>
+      </c>
+      <c r="W19" s="62">
+        <v>0</v>
+      </c>
+      <c r="X19" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4874,34 +4897,34 @@
       <c r="O20" s="61">
         <v>0</v>
       </c>
-      <c r="P20" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="63">
-        <v>0</v>
-      </c>
-      <c r="R20" s="63">
-        <v>0</v>
-      </c>
-      <c r="S20" s="63">
+      <c r="P20" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="62">
+        <v>0</v>
+      </c>
+      <c r="R20" s="62">
+        <v>0</v>
+      </c>
+      <c r="S20" s="62">
         <v>4</v>
       </c>
-      <c r="T20" s="63">
+      <c r="T20" s="62">
         <v>4</v>
       </c>
-      <c r="U20" s="64">
-        <v>0</v>
-      </c>
-      <c r="V20" s="63">
-        <v>0</v>
-      </c>
-      <c r="W20" s="63">
-        <v>0</v>
-      </c>
-      <c r="X20" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="63">
+      <c r="U20" s="63">
+        <v>0</v>
+      </c>
+      <c r="V20" s="62">
+        <v>0</v>
+      </c>
+      <c r="W20" s="62">
+        <v>0</v>
+      </c>
+      <c r="X20" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4961,34 +4984,34 @@
       <c r="O21" s="61">
         <v>0</v>
       </c>
-      <c r="P21" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="63">
-        <v>0</v>
-      </c>
-      <c r="R21" s="63">
-        <v>0</v>
-      </c>
-      <c r="S21" s="63">
+      <c r="P21" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="62">
+        <v>0</v>
+      </c>
+      <c r="R21" s="62">
+        <v>0</v>
+      </c>
+      <c r="S21" s="62">
         <v>4</v>
       </c>
-      <c r="T21" s="63">
+      <c r="T21" s="62">
         <v>4</v>
       </c>
-      <c r="U21" s="64">
-        <v>0</v>
-      </c>
-      <c r="V21" s="63">
-        <v>0</v>
-      </c>
-      <c r="W21" s="63">
-        <v>0</v>
-      </c>
-      <c r="X21" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="63">
+      <c r="U21" s="63">
+        <v>0</v>
+      </c>
+      <c r="V21" s="62">
+        <v>0</v>
+      </c>
+      <c r="W21" s="62">
+        <v>0</v>
+      </c>
+      <c r="X21" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5048,34 +5071,34 @@
       <c r="O22" s="61">
         <v>0</v>
       </c>
-      <c r="P22" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="63">
-        <v>0</v>
-      </c>
-      <c r="R22" s="63">
-        <v>0</v>
-      </c>
-      <c r="S22" s="63">
+      <c r="P22" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="62">
+        <v>0</v>
+      </c>
+      <c r="R22" s="62">
+        <v>0</v>
+      </c>
+      <c r="S22" s="62">
         <v>4</v>
       </c>
-      <c r="T22" s="63">
+      <c r="T22" s="62">
         <v>4</v>
       </c>
-      <c r="U22" s="64">
-        <v>0</v>
-      </c>
-      <c r="V22" s="63">
-        <v>0</v>
-      </c>
-      <c r="W22" s="63">
-        <v>0</v>
-      </c>
-      <c r="X22" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="63">
+      <c r="U22" s="63">
+        <v>0</v>
+      </c>
+      <c r="V22" s="62">
+        <v>0</v>
+      </c>
+      <c r="W22" s="62">
+        <v>0</v>
+      </c>
+      <c r="X22" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5135,34 +5158,34 @@
       <c r="O23" s="61">
         <v>0</v>
       </c>
-      <c r="P23" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="63">
-        <v>0</v>
-      </c>
-      <c r="R23" s="63">
-        <v>0</v>
-      </c>
-      <c r="S23" s="65">
+      <c r="P23" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="62">
+        <v>0</v>
+      </c>
+      <c r="R23" s="62">
+        <v>0</v>
+      </c>
+      <c r="S23" s="64">
         <v>4</v>
       </c>
-      <c r="T23" s="65">
+      <c r="T23" s="64">
         <v>4</v>
       </c>
-      <c r="U23" s="64">
-        <v>0</v>
-      </c>
-      <c r="V23" s="63">
-        <v>0</v>
-      </c>
-      <c r="W23" s="63">
-        <v>0</v>
-      </c>
-      <c r="X23" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="63">
+      <c r="U23" s="63">
+        <v>0</v>
+      </c>
+      <c r="V23" s="62">
+        <v>0</v>
+      </c>
+      <c r="W23" s="62">
+        <v>0</v>
+      </c>
+      <c r="X23" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5213,34 +5236,34 @@
       <c r="O24" s="61">
         <v>0</v>
       </c>
-      <c r="P24" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="63">
-        <v>0</v>
-      </c>
-      <c r="R24" s="63">
-        <v>0</v>
-      </c>
-      <c r="S24" s="66">
+      <c r="P24" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="62">
+        <v>0</v>
+      </c>
+      <c r="R24" s="62">
+        <v>0</v>
+      </c>
+      <c r="S24" s="65">
         <v>8</v>
       </c>
-      <c r="T24" s="66">
+      <c r="T24" s="65">
         <v>7</v>
       </c>
-      <c r="U24" s="64">
-        <v>0</v>
-      </c>
-      <c r="V24" s="63">
-        <v>0</v>
-      </c>
-      <c r="W24" s="63">
-        <v>0</v>
-      </c>
-      <c r="X24" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="63">
+      <c r="U24" s="63">
+        <v>0</v>
+      </c>
+      <c r="V24" s="62">
+        <v>0</v>
+      </c>
+      <c r="W24" s="62">
+        <v>0</v>
+      </c>
+      <c r="X24" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5291,34 +5314,34 @@
       <c r="O25" s="61">
         <v>0</v>
       </c>
-      <c r="P25" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="63">
-        <v>0</v>
-      </c>
-      <c r="R25" s="63">
-        <v>0</v>
-      </c>
-      <c r="S25" s="66">
+      <c r="P25" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="62">
+        <v>0</v>
+      </c>
+      <c r="R25" s="62">
+        <v>0</v>
+      </c>
+      <c r="S25" s="65">
         <v>8</v>
       </c>
-      <c r="T25" s="66">
+      <c r="T25" s="65">
         <v>7</v>
       </c>
-      <c r="U25" s="64">
-        <v>0</v>
-      </c>
-      <c r="V25" s="63">
-        <v>0</v>
-      </c>
-      <c r="W25" s="63">
-        <v>0</v>
-      </c>
-      <c r="X25" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="63">
+      <c r="U25" s="63">
+        <v>0</v>
+      </c>
+      <c r="V25" s="62">
+        <v>0</v>
+      </c>
+      <c r="W25" s="62">
+        <v>0</v>
+      </c>
+      <c r="X25" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5369,34 +5392,34 @@
       <c r="O26" s="61">
         <v>0</v>
       </c>
-      <c r="P26" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="63">
-        <v>0</v>
-      </c>
-      <c r="R26" s="63">
-        <v>0</v>
-      </c>
-      <c r="S26" s="66">
+      <c r="P26" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="62">
+        <v>0</v>
+      </c>
+      <c r="R26" s="62">
+        <v>0</v>
+      </c>
+      <c r="S26" s="65">
         <v>8</v>
       </c>
-      <c r="T26" s="66">
+      <c r="T26" s="65">
         <v>7</v>
       </c>
-      <c r="U26" s="64">
-        <v>0</v>
-      </c>
-      <c r="V26" s="63">
-        <v>0</v>
-      </c>
-      <c r="W26" s="63">
-        <v>0</v>
-      </c>
-      <c r="X26" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="63">
+      <c r="U26" s="63">
+        <v>0</v>
+      </c>
+      <c r="V26" s="62">
+        <v>0</v>
+      </c>
+      <c r="W26" s="62">
+        <v>0</v>
+      </c>
+      <c r="X26" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5447,34 +5470,34 @@
       <c r="O27" s="61">
         <v>0</v>
       </c>
-      <c r="P27" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="63">
-        <v>0</v>
-      </c>
-      <c r="R27" s="63">
-        <v>0</v>
-      </c>
-      <c r="S27" s="66">
+      <c r="P27" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="62">
+        <v>0</v>
+      </c>
+      <c r="R27" s="62">
+        <v>0</v>
+      </c>
+      <c r="S27" s="65">
         <v>8</v>
       </c>
-      <c r="T27" s="66">
+      <c r="T27" s="65">
         <v>7</v>
       </c>
-      <c r="U27" s="64">
-        <v>0</v>
-      </c>
-      <c r="V27" s="63">
-        <v>0</v>
-      </c>
-      <c r="W27" s="63">
-        <v>0</v>
-      </c>
-      <c r="X27" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="63">
+      <c r="U27" s="63">
+        <v>0</v>
+      </c>
+      <c r="V27" s="62">
+        <v>0</v>
+      </c>
+      <c r="W27" s="62">
+        <v>0</v>
+      </c>
+      <c r="X27" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5525,34 +5548,34 @@
       <c r="O28" s="61">
         <v>0</v>
       </c>
-      <c r="P28" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="63">
-        <v>0</v>
-      </c>
-      <c r="R28" s="63">
-        <v>0</v>
-      </c>
-      <c r="S28" s="66">
+      <c r="P28" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="62">
+        <v>0</v>
+      </c>
+      <c r="R28" s="62">
+        <v>0</v>
+      </c>
+      <c r="S28" s="65">
         <v>8</v>
       </c>
-      <c r="T28" s="66">
+      <c r="T28" s="65">
         <v>7</v>
       </c>
-      <c r="U28" s="64">
-        <v>0</v>
-      </c>
-      <c r="V28" s="63">
-        <v>0</v>
-      </c>
-      <c r="W28" s="63">
-        <v>0</v>
-      </c>
-      <c r="X28" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="63">
+      <c r="U28" s="63">
+        <v>0</v>
+      </c>
+      <c r="V28" s="62">
+        <v>0</v>
+      </c>
+      <c r="W28" s="62">
+        <v>0</v>
+      </c>
+      <c r="X28" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5603,34 +5626,34 @@
       <c r="O29" s="61">
         <v>0</v>
       </c>
-      <c r="P29" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="63">
-        <v>0</v>
-      </c>
-      <c r="R29" s="63">
-        <v>0</v>
-      </c>
-      <c r="S29" s="66">
+      <c r="P29" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="62">
+        <v>0</v>
+      </c>
+      <c r="R29" s="62">
+        <v>0</v>
+      </c>
+      <c r="S29" s="65">
         <v>8</v>
       </c>
-      <c r="T29" s="66">
+      <c r="T29" s="65">
         <v>7</v>
       </c>
-      <c r="U29" s="64">
-        <v>0</v>
-      </c>
-      <c r="V29" s="63">
-        <v>0</v>
-      </c>
-      <c r="W29" s="63">
-        <v>0</v>
-      </c>
-      <c r="X29" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="63">
+      <c r="U29" s="63">
+        <v>0</v>
+      </c>
+      <c r="V29" s="62">
+        <v>0</v>
+      </c>
+      <c r="W29" s="62">
+        <v>0</v>
+      </c>
+      <c r="X29" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5681,34 +5704,34 @@
       <c r="O30" s="61">
         <v>0</v>
       </c>
-      <c r="P30" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="63">
-        <v>0</v>
-      </c>
-      <c r="R30" s="63">
-        <v>0</v>
-      </c>
-      <c r="S30" s="66">
+      <c r="P30" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="62">
+        <v>0</v>
+      </c>
+      <c r="R30" s="62">
+        <v>0</v>
+      </c>
+      <c r="S30" s="65">
         <v>8</v>
       </c>
-      <c r="T30" s="66">
+      <c r="T30" s="65">
         <v>7</v>
       </c>
-      <c r="U30" s="64">
-        <v>0</v>
-      </c>
-      <c r="V30" s="63">
-        <v>0</v>
-      </c>
-      <c r="W30" s="63">
-        <v>0</v>
-      </c>
-      <c r="X30" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="63">
+      <c r="U30" s="63">
+        <v>0</v>
+      </c>
+      <c r="V30" s="62">
+        <v>0</v>
+      </c>
+      <c r="W30" s="62">
+        <v>0</v>
+      </c>
+      <c r="X30" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5759,34 +5782,34 @@
       <c r="O31" s="61">
         <v>0</v>
       </c>
-      <c r="P31" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="63">
-        <v>0</v>
-      </c>
-      <c r="R31" s="63">
-        <v>0</v>
-      </c>
-      <c r="S31" s="66">
+      <c r="P31" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="62">
+        <v>0</v>
+      </c>
+      <c r="R31" s="62">
+        <v>0</v>
+      </c>
+      <c r="S31" s="65">
         <v>8</v>
       </c>
-      <c r="T31" s="66">
+      <c r="T31" s="65">
         <v>7</v>
       </c>
-      <c r="U31" s="64">
-        <v>0</v>
-      </c>
-      <c r="V31" s="63">
-        <v>0</v>
-      </c>
-      <c r="W31" s="63">
-        <v>0</v>
-      </c>
-      <c r="X31" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="63">
+      <c r="U31" s="63">
+        <v>0</v>
+      </c>
+      <c r="V31" s="62">
+        <v>0</v>
+      </c>
+      <c r="W31" s="62">
+        <v>0</v>
+      </c>
+      <c r="X31" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5837,34 +5860,34 @@
       <c r="O32" s="61">
         <v>0</v>
       </c>
-      <c r="P32" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="63">
-        <v>0</v>
-      </c>
-      <c r="R32" s="63">
-        <v>0</v>
-      </c>
-      <c r="S32" s="66">
+      <c r="P32" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="62">
+        <v>0</v>
+      </c>
+      <c r="R32" s="62">
+        <v>0</v>
+      </c>
+      <c r="S32" s="65">
         <v>8</v>
       </c>
-      <c r="T32" s="66">
+      <c r="T32" s="65">
         <v>7</v>
       </c>
-      <c r="U32" s="64">
-        <v>0</v>
-      </c>
-      <c r="V32" s="63">
-        <v>0</v>
-      </c>
-      <c r="W32" s="63">
-        <v>0</v>
-      </c>
-      <c r="X32" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="63">
+      <c r="U32" s="63">
+        <v>0</v>
+      </c>
+      <c r="V32" s="62">
+        <v>0</v>
+      </c>
+      <c r="W32" s="62">
+        <v>0</v>
+      </c>
+      <c r="X32" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5915,34 +5938,34 @@
       <c r="O33" s="61">
         <v>0</v>
       </c>
-      <c r="P33" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="63">
-        <v>0</v>
-      </c>
-      <c r="R33" s="63">
-        <v>0</v>
-      </c>
-      <c r="S33" s="65">
+      <c r="P33" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="62">
+        <v>0</v>
+      </c>
+      <c r="R33" s="62">
+        <v>0</v>
+      </c>
+      <c r="S33" s="64">
         <v>8</v>
       </c>
-      <c r="T33" s="65">
+      <c r="T33" s="64">
         <v>7</v>
       </c>
-      <c r="U33" s="64">
-        <v>0</v>
-      </c>
-      <c r="V33" s="63">
-        <v>0</v>
-      </c>
-      <c r="W33" s="63">
-        <v>0</v>
-      </c>
-      <c r="X33" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="63">
+      <c r="U33" s="63">
+        <v>0</v>
+      </c>
+      <c r="V33" s="62">
+        <v>0</v>
+      </c>
+      <c r="W33" s="62">
+        <v>0</v>
+      </c>
+      <c r="X33" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="62">
         <v>0</v>
       </c>
     </row>
@@ -6002,34 +6025,34 @@
       <c r="O34" s="61">
         <v>0</v>
       </c>
-      <c r="P34" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="63">
-        <v>0</v>
-      </c>
-      <c r="R34" s="63">
-        <v>0</v>
-      </c>
-      <c r="S34" s="66">
+      <c r="P34" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="62">
+        <v>0</v>
+      </c>
+      <c r="R34" s="62">
+        <v>0</v>
+      </c>
+      <c r="S34" s="65">
         <v>5</v>
       </c>
-      <c r="T34" s="66">
+      <c r="T34" s="65">
         <v>4</v>
       </c>
-      <c r="U34" s="64">
-        <v>0</v>
-      </c>
-      <c r="V34" s="63">
-        <v>0</v>
-      </c>
-      <c r="W34" s="63">
-        <v>0</v>
-      </c>
-      <c r="X34" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="63">
+      <c r="U34" s="63">
+        <v>0</v>
+      </c>
+      <c r="V34" s="62">
+        <v>0</v>
+      </c>
+      <c r="W34" s="62">
+        <v>0</v>
+      </c>
+      <c r="X34" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="62">
         <v>0</v>
       </c>
     </row>
@@ -6089,34 +6112,34 @@
       <c r="O35" s="61">
         <v>0</v>
       </c>
-      <c r="P35" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="63">
-        <v>0</v>
-      </c>
-      <c r="R35" s="63">
-        <v>0</v>
-      </c>
-      <c r="S35" s="66">
+      <c r="P35" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="62">
+        <v>0</v>
+      </c>
+      <c r="R35" s="62">
+        <v>0</v>
+      </c>
+      <c r="S35" s="65">
         <v>5</v>
       </c>
-      <c r="T35" s="66">
+      <c r="T35" s="65">
         <v>4</v>
       </c>
-      <c r="U35" s="64">
-        <v>0</v>
-      </c>
-      <c r="V35" s="63">
-        <v>0</v>
-      </c>
-      <c r="W35" s="63">
-        <v>0</v>
-      </c>
-      <c r="X35" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="63">
+      <c r="U35" s="63">
+        <v>0</v>
+      </c>
+      <c r="V35" s="62">
+        <v>0</v>
+      </c>
+      <c r="W35" s="62">
+        <v>0</v>
+      </c>
+      <c r="X35" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="62">
         <v>0</v>
       </c>
     </row>
@@ -6176,34 +6199,34 @@
       <c r="O36" s="61">
         <v>0</v>
       </c>
-      <c r="P36" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="63">
-        <v>0</v>
-      </c>
-      <c r="R36" s="63">
-        <v>0</v>
-      </c>
-      <c r="S36" s="66">
+      <c r="P36" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="62">
+        <v>0</v>
+      </c>
+      <c r="R36" s="62">
+        <v>0</v>
+      </c>
+      <c r="S36" s="65">
         <v>5</v>
       </c>
-      <c r="T36" s="66">
+      <c r="T36" s="65">
         <v>4</v>
       </c>
-      <c r="U36" s="64">
-        <v>0</v>
-      </c>
-      <c r="V36" s="63">
-        <v>0</v>
-      </c>
-      <c r="W36" s="63">
-        <v>0</v>
-      </c>
-      <c r="X36" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="63">
+      <c r="U36" s="63">
+        <v>0</v>
+      </c>
+      <c r="V36" s="62">
+        <v>0</v>
+      </c>
+      <c r="W36" s="62">
+        <v>0</v>
+      </c>
+      <c r="X36" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="62">
         <v>0</v>
       </c>
     </row>
@@ -6263,34 +6286,34 @@
       <c r="O37" s="61">
         <v>0</v>
       </c>
-      <c r="P37" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="63">
-        <v>0</v>
-      </c>
-      <c r="R37" s="63">
-        <v>0</v>
-      </c>
-      <c r="S37" s="66">
+      <c r="P37" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="62">
+        <v>0</v>
+      </c>
+      <c r="R37" s="62">
+        <v>0</v>
+      </c>
+      <c r="S37" s="65">
         <v>5</v>
       </c>
-      <c r="T37" s="66">
+      <c r="T37" s="65">
         <v>4</v>
       </c>
-      <c r="U37" s="64">
-        <v>0</v>
-      </c>
-      <c r="V37" s="63">
-        <v>0</v>
-      </c>
-      <c r="W37" s="63">
-        <v>0</v>
-      </c>
-      <c r="X37" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="63">
+      <c r="U37" s="63">
+        <v>0</v>
+      </c>
+      <c r="V37" s="62">
+        <v>0</v>
+      </c>
+      <c r="W37" s="62">
+        <v>0</v>
+      </c>
+      <c r="X37" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="62">
         <v>0</v>
       </c>
     </row>
@@ -6350,34 +6373,34 @@
       <c r="O38" s="61">
         <v>0</v>
       </c>
-      <c r="P38" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="63">
-        <v>0</v>
-      </c>
-      <c r="R38" s="63">
-        <v>0</v>
-      </c>
-      <c r="S38" s="66">
+      <c r="P38" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="62">
+        <v>0</v>
+      </c>
+      <c r="R38" s="62">
+        <v>0</v>
+      </c>
+      <c r="S38" s="65">
         <v>5</v>
       </c>
-      <c r="T38" s="66">
+      <c r="T38" s="65">
         <v>4</v>
       </c>
-      <c r="U38" s="64">
-        <v>0</v>
-      </c>
-      <c r="V38" s="63">
-        <v>0</v>
-      </c>
-      <c r="W38" s="63">
-        <v>0</v>
-      </c>
-      <c r="X38" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="63">
+      <c r="U38" s="63">
+        <v>0</v>
+      </c>
+      <c r="V38" s="62">
+        <v>0</v>
+      </c>
+      <c r="W38" s="62">
+        <v>0</v>
+      </c>
+      <c r="X38" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="62">
         <v>0</v>
       </c>
     </row>
@@ -6437,34 +6460,34 @@
       <c r="O39" s="61">
         <v>0</v>
       </c>
-      <c r="P39" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="63">
-        <v>0</v>
-      </c>
-      <c r="R39" s="63">
-        <v>0</v>
-      </c>
-      <c r="S39" s="66">
+      <c r="P39" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="62">
+        <v>0</v>
+      </c>
+      <c r="R39" s="62">
+        <v>0</v>
+      </c>
+      <c r="S39" s="65">
         <v>5</v>
       </c>
-      <c r="T39" s="66">
+      <c r="T39" s="65">
         <v>4</v>
       </c>
-      <c r="U39" s="64">
-        <v>0</v>
-      </c>
-      <c r="V39" s="63">
-        <v>0</v>
-      </c>
-      <c r="W39" s="63">
-        <v>0</v>
-      </c>
-      <c r="X39" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="63">
+      <c r="U39" s="63">
+        <v>0</v>
+      </c>
+      <c r="V39" s="62">
+        <v>0</v>
+      </c>
+      <c r="W39" s="62">
+        <v>0</v>
+      </c>
+      <c r="X39" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="62">
         <v>0</v>
       </c>
     </row>
@@ -6524,34 +6547,34 @@
       <c r="O40" s="61">
         <v>0</v>
       </c>
-      <c r="P40" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="63">
-        <v>0</v>
-      </c>
-      <c r="R40" s="63">
-        <v>0</v>
-      </c>
-      <c r="S40" s="66">
+      <c r="P40" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="62">
+        <v>0</v>
+      </c>
+      <c r="R40" s="62">
+        <v>0</v>
+      </c>
+      <c r="S40" s="65">
         <v>5</v>
       </c>
-      <c r="T40" s="66">
+      <c r="T40" s="65">
         <v>4</v>
       </c>
-      <c r="U40" s="64">
-        <v>0</v>
-      </c>
-      <c r="V40" s="63">
-        <v>0</v>
-      </c>
-      <c r="W40" s="63">
-        <v>0</v>
-      </c>
-      <c r="X40" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="63">
+      <c r="U40" s="63">
+        <v>0</v>
+      </c>
+      <c r="V40" s="62">
+        <v>0</v>
+      </c>
+      <c r="W40" s="62">
+        <v>0</v>
+      </c>
+      <c r="X40" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="62">
         <v>0</v>
       </c>
     </row>
@@ -6611,34 +6634,34 @@
       <c r="O41" s="61">
         <v>0</v>
       </c>
-      <c r="P41" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="63">
-        <v>0</v>
-      </c>
-      <c r="R41" s="63">
-        <v>0</v>
-      </c>
-      <c r="S41" s="66">
+      <c r="P41" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="62">
+        <v>0</v>
+      </c>
+      <c r="R41" s="62">
+        <v>0</v>
+      </c>
+      <c r="S41" s="65">
         <v>5</v>
       </c>
-      <c r="T41" s="66">
+      <c r="T41" s="65">
         <v>4</v>
       </c>
-      <c r="U41" s="64">
-        <v>0</v>
-      </c>
-      <c r="V41" s="63">
-        <v>0</v>
-      </c>
-      <c r="W41" s="63">
-        <v>0</v>
-      </c>
-      <c r="X41" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="63">
+      <c r="U41" s="63">
+        <v>0</v>
+      </c>
+      <c r="V41" s="62">
+        <v>0</v>
+      </c>
+      <c r="W41" s="62">
+        <v>0</v>
+      </c>
+      <c r="X41" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="62">
         <v>0</v>
       </c>
     </row>
@@ -6698,34 +6721,34 @@
       <c r="O42" s="61">
         <v>0</v>
       </c>
-      <c r="P42" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="63">
-        <v>0</v>
-      </c>
-      <c r="R42" s="63">
-        <v>0</v>
-      </c>
-      <c r="S42" s="66">
+      <c r="P42" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="62">
+        <v>0</v>
+      </c>
+      <c r="R42" s="62">
+        <v>0</v>
+      </c>
+      <c r="S42" s="65">
         <v>5</v>
       </c>
-      <c r="T42" s="66">
+      <c r="T42" s="65">
         <v>4</v>
       </c>
-      <c r="U42" s="64">
-        <v>0</v>
-      </c>
-      <c r="V42" s="63">
-        <v>0</v>
-      </c>
-      <c r="W42" s="63">
-        <v>0</v>
-      </c>
-      <c r="X42" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="63">
+      <c r="U42" s="63">
+        <v>0</v>
+      </c>
+      <c r="V42" s="62">
+        <v>0</v>
+      </c>
+      <c r="W42" s="62">
+        <v>0</v>
+      </c>
+      <c r="X42" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="62">
         <v>0</v>
       </c>
     </row>
@@ -6785,34 +6808,34 @@
       <c r="O43" s="61">
         <v>0</v>
       </c>
-      <c r="P43" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="63">
-        <v>0</v>
-      </c>
-      <c r="R43" s="63">
-        <v>0</v>
-      </c>
-      <c r="S43" s="65">
+      <c r="P43" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="62">
+        <v>0</v>
+      </c>
+      <c r="R43" s="62">
+        <v>0</v>
+      </c>
+      <c r="S43" s="64">
         <v>5</v>
       </c>
-      <c r="T43" s="65">
+      <c r="T43" s="64">
         <v>4</v>
       </c>
-      <c r="U43" s="64">
-        <v>0</v>
-      </c>
-      <c r="V43" s="63">
-        <v>0</v>
-      </c>
-      <c r="W43" s="63">
-        <v>0</v>
-      </c>
-      <c r="X43" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="63">
+      <c r="U43" s="63">
+        <v>0</v>
+      </c>
+      <c r="V43" s="62">
+        <v>0</v>
+      </c>
+      <c r="W43" s="62">
+        <v>0</v>
+      </c>
+      <c r="X43" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="62">
         <v>0</v>
       </c>
     </row>
@@ -6863,34 +6886,34 @@
       <c r="O44" s="61">
         <v>0</v>
       </c>
-      <c r="P44" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="63">
-        <v>0</v>
-      </c>
-      <c r="R44" s="63">
-        <v>0</v>
-      </c>
-      <c r="S44" s="66">
+      <c r="P44" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="62">
+        <v>0</v>
+      </c>
+      <c r="R44" s="62">
+        <v>0</v>
+      </c>
+      <c r="S44" s="65">
         <v>9</v>
       </c>
-      <c r="T44" s="66">
+      <c r="T44" s="65">
         <v>8</v>
       </c>
-      <c r="U44" s="64">
-        <v>0</v>
-      </c>
-      <c r="V44" s="63">
-        <v>0</v>
-      </c>
-      <c r="W44" s="63">
-        <v>0</v>
-      </c>
-      <c r="X44" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="63">
+      <c r="U44" s="63">
+        <v>0</v>
+      </c>
+      <c r="V44" s="62">
+        <v>0</v>
+      </c>
+      <c r="W44" s="62">
+        <v>0</v>
+      </c>
+      <c r="X44" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="62">
         <v>0</v>
       </c>
     </row>
@@ -6941,34 +6964,34 @@
       <c r="O45" s="61">
         <v>0</v>
       </c>
-      <c r="P45" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="63">
-        <v>0</v>
-      </c>
-      <c r="R45" s="63">
-        <v>0</v>
-      </c>
-      <c r="S45" s="66">
+      <c r="P45" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="62">
+        <v>0</v>
+      </c>
+      <c r="R45" s="62">
+        <v>0</v>
+      </c>
+      <c r="S45" s="65">
         <v>9</v>
       </c>
-      <c r="T45" s="66">
+      <c r="T45" s="65">
         <v>8</v>
       </c>
-      <c r="U45" s="64">
-        <v>0</v>
-      </c>
-      <c r="V45" s="63">
-        <v>0</v>
-      </c>
-      <c r="W45" s="63">
-        <v>0</v>
-      </c>
-      <c r="X45" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="63">
+      <c r="U45" s="63">
+        <v>0</v>
+      </c>
+      <c r="V45" s="62">
+        <v>0</v>
+      </c>
+      <c r="W45" s="62">
+        <v>0</v>
+      </c>
+      <c r="X45" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7019,34 +7042,34 @@
       <c r="O46" s="61">
         <v>0</v>
       </c>
-      <c r="P46" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="63">
-        <v>0</v>
-      </c>
-      <c r="R46" s="63">
-        <v>0</v>
-      </c>
-      <c r="S46" s="66">
+      <c r="P46" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="62">
+        <v>0</v>
+      </c>
+      <c r="R46" s="62">
+        <v>0</v>
+      </c>
+      <c r="S46" s="65">
         <v>9</v>
       </c>
-      <c r="T46" s="66">
+      <c r="T46" s="65">
         <v>8</v>
       </c>
-      <c r="U46" s="64">
-        <v>0</v>
-      </c>
-      <c r="V46" s="63">
-        <v>0</v>
-      </c>
-      <c r="W46" s="63">
-        <v>0</v>
-      </c>
-      <c r="X46" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="63">
+      <c r="U46" s="63">
+        <v>0</v>
+      </c>
+      <c r="V46" s="62">
+        <v>0</v>
+      </c>
+      <c r="W46" s="62">
+        <v>0</v>
+      </c>
+      <c r="X46" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7097,34 +7120,34 @@
       <c r="O47" s="61">
         <v>0</v>
       </c>
-      <c r="P47" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="63">
-        <v>0</v>
-      </c>
-      <c r="R47" s="63">
-        <v>0</v>
-      </c>
-      <c r="S47" s="66">
+      <c r="P47" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="62">
+        <v>0</v>
+      </c>
+      <c r="R47" s="62">
+        <v>0</v>
+      </c>
+      <c r="S47" s="65">
         <v>9</v>
       </c>
-      <c r="T47" s="66">
+      <c r="T47" s="65">
         <v>8</v>
       </c>
-      <c r="U47" s="64">
-        <v>0</v>
-      </c>
-      <c r="V47" s="63">
-        <v>0</v>
-      </c>
-      <c r="W47" s="63">
-        <v>0</v>
-      </c>
-      <c r="X47" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="63">
+      <c r="U47" s="63">
+        <v>0</v>
+      </c>
+      <c r="V47" s="62">
+        <v>0</v>
+      </c>
+      <c r="W47" s="62">
+        <v>0</v>
+      </c>
+      <c r="X47" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7175,34 +7198,34 @@
       <c r="O48" s="61">
         <v>0</v>
       </c>
-      <c r="P48" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="63">
-        <v>0</v>
-      </c>
-      <c r="R48" s="63">
-        <v>0</v>
-      </c>
-      <c r="S48" s="66">
+      <c r="P48" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="62">
+        <v>0</v>
+      </c>
+      <c r="R48" s="62">
+        <v>0</v>
+      </c>
+      <c r="S48" s="65">
         <v>9</v>
       </c>
-      <c r="T48" s="66">
+      <c r="T48" s="65">
         <v>8</v>
       </c>
-      <c r="U48" s="64">
-        <v>0</v>
-      </c>
-      <c r="V48" s="63">
-        <v>0</v>
-      </c>
-      <c r="W48" s="63">
-        <v>0</v>
-      </c>
-      <c r="X48" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="63">
+      <c r="U48" s="63">
+        <v>0</v>
+      </c>
+      <c r="V48" s="62">
+        <v>0</v>
+      </c>
+      <c r="W48" s="62">
+        <v>0</v>
+      </c>
+      <c r="X48" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7253,34 +7276,34 @@
       <c r="O49" s="61">
         <v>0</v>
       </c>
-      <c r="P49" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="63">
-        <v>0</v>
-      </c>
-      <c r="R49" s="63">
-        <v>0</v>
-      </c>
-      <c r="S49" s="66">
+      <c r="P49" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="62">
+        <v>0</v>
+      </c>
+      <c r="R49" s="62">
+        <v>0</v>
+      </c>
+      <c r="S49" s="65">
         <v>9</v>
       </c>
-      <c r="T49" s="66">
+      <c r="T49" s="65">
         <v>8</v>
       </c>
-      <c r="U49" s="64">
-        <v>0</v>
-      </c>
-      <c r="V49" s="63">
-        <v>0</v>
-      </c>
-      <c r="W49" s="63">
-        <v>0</v>
-      </c>
-      <c r="X49" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="63">
+      <c r="U49" s="63">
+        <v>0</v>
+      </c>
+      <c r="V49" s="62">
+        <v>0</v>
+      </c>
+      <c r="W49" s="62">
+        <v>0</v>
+      </c>
+      <c r="X49" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7331,34 +7354,34 @@
       <c r="O50" s="61">
         <v>0</v>
       </c>
-      <c r="P50" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="63">
-        <v>0</v>
-      </c>
-      <c r="R50" s="63">
-        <v>0</v>
-      </c>
-      <c r="S50" s="66">
+      <c r="P50" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="62">
+        <v>0</v>
+      </c>
+      <c r="R50" s="62">
+        <v>0</v>
+      </c>
+      <c r="S50" s="65">
         <v>9</v>
       </c>
-      <c r="T50" s="66">
+      <c r="T50" s="65">
         <v>8</v>
       </c>
-      <c r="U50" s="64">
-        <v>0</v>
-      </c>
-      <c r="V50" s="63">
-        <v>0</v>
-      </c>
-      <c r="W50" s="63">
-        <v>0</v>
-      </c>
-      <c r="X50" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="63">
+      <c r="U50" s="63">
+        <v>0</v>
+      </c>
+      <c r="V50" s="62">
+        <v>0</v>
+      </c>
+      <c r="W50" s="62">
+        <v>0</v>
+      </c>
+      <c r="X50" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7409,34 +7432,34 @@
       <c r="O51" s="61">
         <v>0</v>
       </c>
-      <c r="P51" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="63">
-        <v>0</v>
-      </c>
-      <c r="R51" s="63">
-        <v>0</v>
-      </c>
-      <c r="S51" s="66">
+      <c r="P51" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="62">
+        <v>0</v>
+      </c>
+      <c r="R51" s="62">
+        <v>0</v>
+      </c>
+      <c r="S51" s="65">
         <v>9</v>
       </c>
-      <c r="T51" s="66">
+      <c r="T51" s="65">
         <v>8</v>
       </c>
-      <c r="U51" s="64">
-        <v>0</v>
-      </c>
-      <c r="V51" s="63">
-        <v>0</v>
-      </c>
-      <c r="W51" s="63">
-        <v>0</v>
-      </c>
-      <c r="X51" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="63">
+      <c r="U51" s="63">
+        <v>0</v>
+      </c>
+      <c r="V51" s="62">
+        <v>0</v>
+      </c>
+      <c r="W51" s="62">
+        <v>0</v>
+      </c>
+      <c r="X51" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7487,34 +7510,34 @@
       <c r="O52" s="61">
         <v>0</v>
       </c>
-      <c r="P52" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="63">
-        <v>0</v>
-      </c>
-      <c r="R52" s="63">
-        <v>0</v>
-      </c>
-      <c r="S52" s="66">
+      <c r="P52" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="62">
+        <v>0</v>
+      </c>
+      <c r="R52" s="62">
+        <v>0</v>
+      </c>
+      <c r="S52" s="65">
         <v>9</v>
       </c>
-      <c r="T52" s="66">
+      <c r="T52" s="65">
         <v>8</v>
       </c>
-      <c r="U52" s="64">
-        <v>0</v>
-      </c>
-      <c r="V52" s="63">
-        <v>0</v>
-      </c>
-      <c r="W52" s="63">
-        <v>0</v>
-      </c>
-      <c r="X52" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="63">
+      <c r="U52" s="63">
+        <v>0</v>
+      </c>
+      <c r="V52" s="62">
+        <v>0</v>
+      </c>
+      <c r="W52" s="62">
+        <v>0</v>
+      </c>
+      <c r="X52" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7565,34 +7588,34 @@
       <c r="O53" s="61">
         <v>0</v>
       </c>
-      <c r="P53" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="63">
-        <v>0</v>
-      </c>
-      <c r="R53" s="63">
-        <v>0</v>
-      </c>
-      <c r="S53" s="65">
+      <c r="P53" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="62">
+        <v>0</v>
+      </c>
+      <c r="R53" s="62">
+        <v>0</v>
+      </c>
+      <c r="S53" s="64">
         <v>9</v>
       </c>
-      <c r="T53" s="65">
+      <c r="T53" s="64">
         <v>8</v>
       </c>
-      <c r="U53" s="64">
-        <v>0</v>
-      </c>
-      <c r="V53" s="63">
-        <v>0</v>
-      </c>
-      <c r="W53" s="63">
-        <v>0</v>
-      </c>
-      <c r="X53" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="63">
+      <c r="U53" s="63">
+        <v>0</v>
+      </c>
+      <c r="V53" s="62">
+        <v>0</v>
+      </c>
+      <c r="W53" s="62">
+        <v>0</v>
+      </c>
+      <c r="X53" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7643,46 +7666,46 @@
       <c r="O54" s="56">
         <v>6120</v>
       </c>
-      <c r="P54" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="63">
-        <v>0</v>
-      </c>
-      <c r="R54" s="63">
-        <v>0</v>
-      </c>
-      <c r="S54" s="63">
+      <c r="P54" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="62">
+        <v>0</v>
+      </c>
+      <c r="R54" s="62">
+        <v>0</v>
+      </c>
+      <c r="S54" s="62">
         <v>12</v>
       </c>
-      <c r="T54" s="66">
+      <c r="T54" s="65">
         <v>8</v>
       </c>
-      <c r="U54" s="64">
-        <v>0</v>
-      </c>
-      <c r="V54" s="63">
-        <v>0</v>
-      </c>
-      <c r="W54" s="63">
-        <v>0</v>
-      </c>
-      <c r="X54" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="67">
+      <c r="U54" s="63">
+        <v>0</v>
+      </c>
+      <c r="V54" s="62">
+        <v>0</v>
+      </c>
+      <c r="W54" s="62">
+        <v>0</v>
+      </c>
+      <c r="X54" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="66">
         <v>3082</v>
       </c>
-      <c r="AA54" s="67">
+      <c r="AA54" s="66">
         <v>3082</v>
       </c>
-      <c r="AB54" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="70">
+      <c r="AB54" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="69">
         <v>0</v>
       </c>
     </row>
@@ -7733,46 +7756,46 @@
       <c r="O55" s="59">
         <v>6120</v>
       </c>
-      <c r="P55" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="63">
-        <v>0</v>
-      </c>
-      <c r="R55" s="63">
-        <v>0</v>
-      </c>
-      <c r="S55" s="63">
+      <c r="P55" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="62">
+        <v>0</v>
+      </c>
+      <c r="R55" s="62">
+        <v>0</v>
+      </c>
+      <c r="S55" s="62">
         <v>12</v>
       </c>
-      <c r="T55" s="66">
+      <c r="T55" s="65">
         <v>6</v>
       </c>
-      <c r="U55" s="64">
-        <v>0</v>
-      </c>
-      <c r="V55" s="63">
-        <v>0</v>
-      </c>
-      <c r="W55" s="63">
-        <v>0</v>
-      </c>
-      <c r="X55" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="67">
+      <c r="U55" s="63">
+        <v>0</v>
+      </c>
+      <c r="V55" s="62">
+        <v>0</v>
+      </c>
+      <c r="W55" s="62">
+        <v>0</v>
+      </c>
+      <c r="X55" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="66">
         <v>3320</v>
       </c>
-      <c r="AA55" s="67">
+      <c r="AA55" s="66">
         <v>3320</v>
       </c>
-      <c r="AB55" s="70">
+      <c r="AB55" s="69">
         <v>1074</v>
       </c>
-      <c r="AC55" s="70">
+      <c r="AC55" s="69">
         <v>1106</v>
       </c>
     </row>
@@ -7823,46 +7846,46 @@
       <c r="O56" s="59">
         <v>6120</v>
       </c>
-      <c r="P56" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="63">
-        <v>0</v>
-      </c>
-      <c r="R56" s="63">
-        <v>0</v>
-      </c>
-      <c r="S56" s="63">
+      <c r="P56" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="62">
+        <v>0</v>
+      </c>
+      <c r="R56" s="62">
+        <v>0</v>
+      </c>
+      <c r="S56" s="62">
         <v>12</v>
       </c>
-      <c r="T56" s="66">
+      <c r="T56" s="65">
         <v>8</v>
       </c>
-      <c r="U56" s="64">
-        <v>0</v>
-      </c>
-      <c r="V56" s="63">
-        <v>0</v>
-      </c>
-      <c r="W56" s="63">
-        <v>0</v>
-      </c>
-      <c r="X56" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="67">
+      <c r="U56" s="63">
+        <v>0</v>
+      </c>
+      <c r="V56" s="62">
+        <v>0</v>
+      </c>
+      <c r="W56" s="62">
+        <v>0</v>
+      </c>
+      <c r="X56" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="66">
         <v>3082</v>
       </c>
-      <c r="AA56" s="67">
+      <c r="AA56" s="66">
         <v>3082</v>
       </c>
-      <c r="AB56" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="70">
+      <c r="AB56" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="69">
         <v>0</v>
       </c>
     </row>
@@ -7913,46 +7936,46 @@
       <c r="O57" s="59">
         <v>6120</v>
       </c>
-      <c r="P57" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="63">
-        <v>0</v>
-      </c>
-      <c r="R57" s="63">
-        <v>0</v>
-      </c>
-      <c r="S57" s="63">
+      <c r="P57" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="62">
+        <v>0</v>
+      </c>
+      <c r="R57" s="62">
+        <v>0</v>
+      </c>
+      <c r="S57" s="62">
         <v>12</v>
       </c>
-      <c r="T57" s="66">
+      <c r="T57" s="65">
         <v>8</v>
       </c>
-      <c r="U57" s="64">
-        <v>0</v>
-      </c>
-      <c r="V57" s="63">
-        <v>0</v>
-      </c>
-      <c r="W57" s="63">
-        <v>0</v>
-      </c>
-      <c r="X57" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="67">
+      <c r="U57" s="63">
+        <v>0</v>
+      </c>
+      <c r="V57" s="62">
+        <v>0</v>
+      </c>
+      <c r="W57" s="62">
+        <v>0</v>
+      </c>
+      <c r="X57" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="66">
         <v>2725</v>
       </c>
-      <c r="AA57" s="67">
+      <c r="AA57" s="66">
         <v>2725</v>
       </c>
-      <c r="AB57" s="70">
+      <c r="AB57" s="69">
         <v>1106</v>
       </c>
-      <c r="AC57" s="70">
+      <c r="AC57" s="69">
         <v>1106</v>
       </c>
     </row>
@@ -8003,46 +8026,46 @@
       <c r="O58" s="59">
         <v>6120</v>
       </c>
-      <c r="P58" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="63">
-        <v>0</v>
-      </c>
-      <c r="R58" s="63">
-        <v>0</v>
-      </c>
-      <c r="S58" s="63">
+      <c r="P58" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="62">
+        <v>0</v>
+      </c>
+      <c r="R58" s="62">
+        <v>0</v>
+      </c>
+      <c r="S58" s="62">
         <v>12</v>
       </c>
-      <c r="T58" s="66">
+      <c r="T58" s="65">
         <v>8</v>
       </c>
-      <c r="U58" s="64">
-        <v>0</v>
-      </c>
-      <c r="V58" s="63">
-        <v>0</v>
-      </c>
-      <c r="W58" s="63">
-        <v>0</v>
-      </c>
-      <c r="X58" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="67">
+      <c r="U58" s="63">
+        <v>0</v>
+      </c>
+      <c r="V58" s="62">
+        <v>0</v>
+      </c>
+      <c r="W58" s="62">
+        <v>0</v>
+      </c>
+      <c r="X58" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="66">
         <v>3082</v>
       </c>
-      <c r="AA58" s="67">
+      <c r="AA58" s="66">
         <v>3082</v>
       </c>
-      <c r="AB58" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="70">
+      <c r="AB58" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="69">
         <v>0</v>
       </c>
     </row>
@@ -8093,46 +8116,46 @@
       <c r="O59" s="59">
         <v>6120</v>
       </c>
-      <c r="P59" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="63">
-        <v>0</v>
-      </c>
-      <c r="R59" s="63">
-        <v>0</v>
-      </c>
-      <c r="S59" s="63">
+      <c r="P59" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="62">
+        <v>0</v>
+      </c>
+      <c r="R59" s="62">
+        <v>0</v>
+      </c>
+      <c r="S59" s="62">
         <v>12</v>
       </c>
-      <c r="T59" s="66">
+      <c r="T59" s="65">
         <v>8</v>
       </c>
-      <c r="U59" s="64">
-        <v>0</v>
-      </c>
-      <c r="V59" s="63">
-        <v>0</v>
-      </c>
-      <c r="W59" s="63">
-        <v>0</v>
-      </c>
-      <c r="X59" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="67">
+      <c r="U59" s="63">
+        <v>0</v>
+      </c>
+      <c r="V59" s="62">
+        <v>0</v>
+      </c>
+      <c r="W59" s="62">
+        <v>0</v>
+      </c>
+      <c r="X59" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="66">
         <v>2725</v>
       </c>
-      <c r="AA59" s="67">
+      <c r="AA59" s="66">
         <v>2725</v>
       </c>
-      <c r="AB59" s="70">
+      <c r="AB59" s="69">
         <v>1106</v>
       </c>
-      <c r="AC59" s="70">
+      <c r="AC59" s="69">
         <v>1106</v>
       </c>
     </row>
@@ -8183,46 +8206,46 @@
       <c r="O60" s="59">
         <v>6120</v>
       </c>
-      <c r="P60" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="63">
-        <v>0</v>
-      </c>
-      <c r="R60" s="63">
-        <v>0</v>
-      </c>
-      <c r="S60" s="63">
+      <c r="P60" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="62">
+        <v>0</v>
+      </c>
+      <c r="R60" s="62">
+        <v>0</v>
+      </c>
+      <c r="S60" s="62">
         <v>12</v>
       </c>
-      <c r="T60" s="66">
+      <c r="T60" s="65">
         <v>8</v>
       </c>
-      <c r="U60" s="64">
-        <v>0</v>
-      </c>
-      <c r="V60" s="63">
-        <v>0</v>
-      </c>
-      <c r="W60" s="63">
-        <v>0</v>
-      </c>
-      <c r="X60" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="67">
+      <c r="U60" s="63">
+        <v>0</v>
+      </c>
+      <c r="V60" s="62">
+        <v>0</v>
+      </c>
+      <c r="W60" s="62">
+        <v>0</v>
+      </c>
+      <c r="X60" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="66">
         <v>1036</v>
       </c>
-      <c r="AA60" s="67">
+      <c r="AA60" s="66">
         <v>1036</v>
       </c>
-      <c r="AB60" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="70">
+      <c r="AB60" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="69">
         <v>0</v>
       </c>
     </row>
@@ -8273,46 +8296,46 @@
       <c r="O61" s="59">
         <v>6120</v>
       </c>
-      <c r="P61" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="63">
-        <v>0</v>
-      </c>
-      <c r="R61" s="63">
-        <v>0</v>
-      </c>
-      <c r="S61" s="63">
+      <c r="P61" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="62">
+        <v>0</v>
+      </c>
+      <c r="R61" s="62">
+        <v>0</v>
+      </c>
+      <c r="S61" s="62">
         <v>12</v>
       </c>
-      <c r="T61" s="66">
+      <c r="T61" s="65">
         <v>8</v>
       </c>
-      <c r="U61" s="64">
-        <v>0</v>
-      </c>
-      <c r="V61" s="63">
-        <v>0</v>
-      </c>
-      <c r="W61" s="63">
-        <v>0</v>
-      </c>
-      <c r="X61" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="67">
+      <c r="U61" s="63">
+        <v>0</v>
+      </c>
+      <c r="V61" s="62">
+        <v>0</v>
+      </c>
+      <c r="W61" s="62">
+        <v>0</v>
+      </c>
+      <c r="X61" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="66">
         <v>2013</v>
       </c>
-      <c r="AA61" s="67">
+      <c r="AA61" s="66">
         <v>2013</v>
       </c>
-      <c r="AB61" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="70">
+      <c r="AB61" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="69">
         <v>0</v>
       </c>
     </row>
@@ -8363,46 +8386,46 @@
       <c r="O62" s="59">
         <v>6120</v>
       </c>
-      <c r="P62" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="63">
-        <v>0</v>
-      </c>
-      <c r="R62" s="63">
-        <v>0</v>
-      </c>
-      <c r="S62" s="63">
+      <c r="P62" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="62">
+        <v>0</v>
+      </c>
+      <c r="R62" s="62">
+        <v>0</v>
+      </c>
+      <c r="S62" s="62">
         <v>12</v>
       </c>
-      <c r="T62" s="66">
+      <c r="T62" s="65">
         <v>8</v>
       </c>
-      <c r="U62" s="64">
-        <v>0</v>
-      </c>
-      <c r="V62" s="63">
-        <v>0</v>
-      </c>
-      <c r="W62" s="63">
-        <v>0</v>
-      </c>
-      <c r="X62" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="68">
+      <c r="U62" s="63">
+        <v>0</v>
+      </c>
+      <c r="V62" s="62">
+        <v>0</v>
+      </c>
+      <c r="W62" s="62">
+        <v>0</v>
+      </c>
+      <c r="X62" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="67">
         <v>1036</v>
       </c>
-      <c r="AA62" s="68">
+      <c r="AA62" s="67">
         <v>1036</v>
       </c>
-      <c r="AB62" s="71">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="71">
+      <c r="AB62" s="70">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="70">
         <v>0</v>
       </c>
     </row>
@@ -8453,46 +8476,46 @@
       <c r="O63" s="53">
         <v>6120</v>
       </c>
-      <c r="P63" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="63">
-        <v>0</v>
-      </c>
-      <c r="R63" s="63">
-        <v>0</v>
-      </c>
-      <c r="S63" s="65">
+      <c r="P63" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="62">
+        <v>0</v>
+      </c>
+      <c r="R63" s="62">
+        <v>0</v>
+      </c>
+      <c r="S63" s="64">
         <v>12</v>
       </c>
-      <c r="T63" s="65">
+      <c r="T63" s="64">
         <v>8</v>
       </c>
-      <c r="U63" s="64">
-        <v>0</v>
-      </c>
-      <c r="V63" s="63">
-        <v>0</v>
-      </c>
-      <c r="W63" s="63">
-        <v>0</v>
-      </c>
-      <c r="X63" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="69">
+      <c r="U63" s="63">
+        <v>0</v>
+      </c>
+      <c r="V63" s="62">
+        <v>0</v>
+      </c>
+      <c r="W63" s="62">
+        <v>0</v>
+      </c>
+      <c r="X63" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="68">
         <v>2013</v>
       </c>
-      <c r="AA63" s="69">
+      <c r="AA63" s="68">
         <v>2013</v>
       </c>
-      <c r="AB63" s="72">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="72">
+      <c r="AB63" s="71">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="71">
         <v>0</v>
       </c>
     </row>
@@ -8543,46 +8566,46 @@
       <c r="O64" s="56">
         <v>12260</v>
       </c>
-      <c r="P64" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="63">
-        <v>0</v>
-      </c>
-      <c r="R64" s="63">
-        <v>0</v>
-      </c>
-      <c r="S64" s="66">
+      <c r="P64" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="62">
+        <v>0</v>
+      </c>
+      <c r="R64" s="62">
+        <v>0</v>
+      </c>
+      <c r="S64" s="65">
         <v>20</v>
       </c>
-      <c r="T64" s="66">
+      <c r="T64" s="65">
         <v>14</v>
       </c>
-      <c r="U64" s="64">
-        <v>0</v>
-      </c>
-      <c r="V64" s="63">
-        <v>0</v>
-      </c>
-      <c r="W64" s="63">
-        <v>0</v>
-      </c>
-      <c r="X64" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="67">
+      <c r="U64" s="63">
+        <v>0</v>
+      </c>
+      <c r="V64" s="62">
+        <v>0</v>
+      </c>
+      <c r="W64" s="62">
+        <v>0</v>
+      </c>
+      <c r="X64" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="66">
         <v>3082</v>
       </c>
-      <c r="AA64" s="67">
+      <c r="AA64" s="66">
         <v>3082</v>
       </c>
-      <c r="AB64" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="70">
+      <c r="AB64" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="69">
         <v>0</v>
       </c>
     </row>
@@ -8633,46 +8656,46 @@
       <c r="O65" s="59">
         <v>12260</v>
       </c>
-      <c r="P65" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="63">
-        <v>0</v>
-      </c>
-      <c r="R65" s="63">
-        <v>0</v>
-      </c>
-      <c r="S65" s="66">
+      <c r="P65" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="62">
+        <v>0</v>
+      </c>
+      <c r="R65" s="62">
+        <v>0</v>
+      </c>
+      <c r="S65" s="65">
         <v>20</v>
       </c>
-      <c r="T65" s="66">
+      <c r="T65" s="65">
         <v>12</v>
       </c>
-      <c r="U65" s="64">
-        <v>0</v>
-      </c>
-      <c r="V65" s="63">
-        <v>0</v>
-      </c>
-      <c r="W65" s="63">
-        <v>0</v>
-      </c>
-      <c r="X65" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="67">
+      <c r="U65" s="63">
+        <v>0</v>
+      </c>
+      <c r="V65" s="62">
+        <v>0</v>
+      </c>
+      <c r="W65" s="62">
+        <v>0</v>
+      </c>
+      <c r="X65" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="66">
         <v>3320</v>
       </c>
-      <c r="AA65" s="67">
+      <c r="AA65" s="66">
         <v>3320</v>
       </c>
-      <c r="AB65" s="70">
+      <c r="AB65" s="69">
         <v>1106</v>
       </c>
-      <c r="AC65" s="70">
+      <c r="AC65" s="69">
         <v>1106</v>
       </c>
     </row>
@@ -8723,46 +8746,46 @@
       <c r="O66" s="59">
         <v>12260</v>
       </c>
-      <c r="P66" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="63">
-        <v>0</v>
-      </c>
-      <c r="R66" s="63">
-        <v>0</v>
-      </c>
-      <c r="S66" s="66">
+      <c r="P66" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="62">
+        <v>0</v>
+      </c>
+      <c r="R66" s="62">
+        <v>0</v>
+      </c>
+      <c r="S66" s="65">
         <v>20</v>
       </c>
-      <c r="T66" s="66">
+      <c r="T66" s="65">
         <v>14</v>
       </c>
-      <c r="U66" s="64">
-        <v>0</v>
-      </c>
-      <c r="V66" s="63">
-        <v>0</v>
-      </c>
-      <c r="W66" s="63">
-        <v>0</v>
-      </c>
-      <c r="X66" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="67">
+      <c r="U66" s="63">
+        <v>0</v>
+      </c>
+      <c r="V66" s="62">
+        <v>0</v>
+      </c>
+      <c r="W66" s="62">
+        <v>0</v>
+      </c>
+      <c r="X66" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="66">
         <v>3082</v>
       </c>
-      <c r="AA66" s="67">
+      <c r="AA66" s="66">
         <v>3082</v>
       </c>
-      <c r="AB66" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="70">
+      <c r="AB66" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="69">
         <v>0</v>
       </c>
     </row>
@@ -8813,46 +8836,46 @@
       <c r="O67" s="59">
         <v>12260</v>
       </c>
-      <c r="P67" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="63">
-        <v>0</v>
-      </c>
-      <c r="R67" s="63">
-        <v>0</v>
-      </c>
-      <c r="S67" s="66">
+      <c r="P67" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="62">
+        <v>0</v>
+      </c>
+      <c r="R67" s="62">
+        <v>0</v>
+      </c>
+      <c r="S67" s="65">
         <v>20</v>
       </c>
-      <c r="T67" s="66">
+      <c r="T67" s="65">
         <v>12</v>
       </c>
-      <c r="U67" s="64">
-        <v>0</v>
-      </c>
-      <c r="V67" s="63">
-        <v>0</v>
-      </c>
-      <c r="W67" s="63">
-        <v>0</v>
-      </c>
-      <c r="X67" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="67">
+      <c r="U67" s="63">
+        <v>0</v>
+      </c>
+      <c r="V67" s="62">
+        <v>0</v>
+      </c>
+      <c r="W67" s="62">
+        <v>0</v>
+      </c>
+      <c r="X67" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="66">
         <v>2725</v>
       </c>
-      <c r="AA67" s="67">
+      <c r="AA67" s="66">
         <v>2725</v>
       </c>
-      <c r="AB67" s="70">
+      <c r="AB67" s="69">
         <v>1106</v>
       </c>
-      <c r="AC67" s="70">
+      <c r="AC67" s="69">
         <v>1106</v>
       </c>
     </row>
@@ -8903,46 +8926,46 @@
       <c r="O68" s="59">
         <v>12260</v>
       </c>
-      <c r="P68" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="63">
-        <v>0</v>
-      </c>
-      <c r="R68" s="63">
-        <v>0</v>
-      </c>
-      <c r="S68" s="66">
+      <c r="P68" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="62">
+        <v>0</v>
+      </c>
+      <c r="R68" s="62">
+        <v>0</v>
+      </c>
+      <c r="S68" s="65">
         <v>20</v>
       </c>
-      <c r="T68" s="66">
+      <c r="T68" s="65">
         <v>14</v>
       </c>
-      <c r="U68" s="64">
-        <v>0</v>
-      </c>
-      <c r="V68" s="63">
-        <v>0</v>
-      </c>
-      <c r="W68" s="63">
-        <v>0</v>
-      </c>
-      <c r="X68" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="67">
+      <c r="U68" s="63">
+        <v>0</v>
+      </c>
+      <c r="V68" s="62">
+        <v>0</v>
+      </c>
+      <c r="W68" s="62">
+        <v>0</v>
+      </c>
+      <c r="X68" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="66">
         <v>3082</v>
       </c>
-      <c r="AA68" s="67">
+      <c r="AA68" s="66">
         <v>3082</v>
       </c>
-      <c r="AB68" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="70">
+      <c r="AB68" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="69">
         <v>0</v>
       </c>
     </row>
@@ -8993,46 +9016,46 @@
       <c r="O69" s="59">
         <v>12260</v>
       </c>
-      <c r="P69" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="63">
-        <v>0</v>
-      </c>
-      <c r="R69" s="63">
-        <v>0</v>
-      </c>
-      <c r="S69" s="66">
+      <c r="P69" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="62">
+        <v>0</v>
+      </c>
+      <c r="R69" s="62">
+        <v>0</v>
+      </c>
+      <c r="S69" s="65">
         <v>20</v>
       </c>
-      <c r="T69" s="66">
+      <c r="T69" s="65">
         <v>12</v>
       </c>
-      <c r="U69" s="64">
-        <v>0</v>
-      </c>
-      <c r="V69" s="63">
-        <v>0</v>
-      </c>
-      <c r="W69" s="63">
-        <v>0</v>
-      </c>
-      <c r="X69" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="67">
+      <c r="U69" s="63">
+        <v>0</v>
+      </c>
+      <c r="V69" s="62">
+        <v>0</v>
+      </c>
+      <c r="W69" s="62">
+        <v>0</v>
+      </c>
+      <c r="X69" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="66">
         <v>2725</v>
       </c>
-      <c r="AA69" s="67">
+      <c r="AA69" s="66">
         <v>2725</v>
       </c>
-      <c r="AB69" s="70">
+      <c r="AB69" s="69">
         <v>1106</v>
       </c>
-      <c r="AC69" s="70">
+      <c r="AC69" s="69">
         <v>1106</v>
       </c>
     </row>
@@ -9083,46 +9106,46 @@
       <c r="O70" s="59">
         <v>12260</v>
       </c>
-      <c r="P70" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="63">
-        <v>0</v>
-      </c>
-      <c r="R70" s="63">
-        <v>0</v>
-      </c>
-      <c r="S70" s="66">
+      <c r="P70" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="62">
+        <v>0</v>
+      </c>
+      <c r="R70" s="62">
+        <v>0</v>
+      </c>
+      <c r="S70" s="65">
         <v>20</v>
       </c>
-      <c r="T70" s="66">
+      <c r="T70" s="65">
         <v>14</v>
       </c>
-      <c r="U70" s="64">
-        <v>0</v>
-      </c>
-      <c r="V70" s="63">
-        <v>0</v>
-      </c>
-      <c r="W70" s="63">
-        <v>0</v>
-      </c>
-      <c r="X70" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="67">
+      <c r="U70" s="63">
+        <v>0</v>
+      </c>
+      <c r="V70" s="62">
+        <v>0</v>
+      </c>
+      <c r="W70" s="62">
+        <v>0</v>
+      </c>
+      <c r="X70" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="66">
         <v>1036</v>
       </c>
-      <c r="AA70" s="67">
+      <c r="AA70" s="66">
         <v>1036</v>
       </c>
-      <c r="AB70" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="70">
+      <c r="AB70" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="69">
         <v>0</v>
       </c>
     </row>
@@ -9173,46 +9196,46 @@
       <c r="O71" s="59">
         <v>12260</v>
       </c>
-      <c r="P71" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="63">
-        <v>0</v>
-      </c>
-      <c r="R71" s="63">
-        <v>0</v>
-      </c>
-      <c r="S71" s="66">
+      <c r="P71" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="62">
+        <v>0</v>
+      </c>
+      <c r="R71" s="62">
+        <v>0</v>
+      </c>
+      <c r="S71" s="65">
         <v>20</v>
       </c>
-      <c r="T71" s="66">
+      <c r="T71" s="65">
         <v>12</v>
       </c>
-      <c r="U71" s="64">
-        <v>0</v>
-      </c>
-      <c r="V71" s="63">
-        <v>0</v>
-      </c>
-      <c r="W71" s="63">
-        <v>0</v>
-      </c>
-      <c r="X71" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="67">
+      <c r="U71" s="63">
+        <v>0</v>
+      </c>
+      <c r="V71" s="62">
+        <v>0</v>
+      </c>
+      <c r="W71" s="62">
+        <v>0</v>
+      </c>
+      <c r="X71" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="66">
         <v>2013</v>
       </c>
-      <c r="AA71" s="67">
+      <c r="AA71" s="66">
         <v>2013</v>
       </c>
-      <c r="AB71" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC71" s="70">
+      <c r="AB71" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="69">
         <v>0</v>
       </c>
     </row>
@@ -9263,46 +9286,46 @@
       <c r="O72" s="59">
         <v>12260</v>
       </c>
-      <c r="P72" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="63">
-        <v>0</v>
-      </c>
-      <c r="R72" s="63">
-        <v>0</v>
-      </c>
-      <c r="S72" s="66">
+      <c r="P72" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="62">
+        <v>0</v>
+      </c>
+      <c r="R72" s="62">
+        <v>0</v>
+      </c>
+      <c r="S72" s="65">
         <v>20</v>
       </c>
-      <c r="T72" s="66">
+      <c r="T72" s="65">
         <v>16</v>
       </c>
-      <c r="U72" s="64">
-        <v>0</v>
-      </c>
-      <c r="V72" s="63">
-        <v>0</v>
-      </c>
-      <c r="W72" s="63">
-        <v>0</v>
-      </c>
-      <c r="X72" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="68">
+      <c r="U72" s="63">
+        <v>0</v>
+      </c>
+      <c r="V72" s="62">
+        <v>0</v>
+      </c>
+      <c r="W72" s="62">
+        <v>0</v>
+      </c>
+      <c r="X72" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="67">
         <v>1036</v>
       </c>
-      <c r="AA72" s="68">
+      <c r="AA72" s="67">
         <v>1036</v>
       </c>
-      <c r="AB72" s="71">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="71">
+      <c r="AB72" s="70">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="70">
         <v>0</v>
       </c>
     </row>
@@ -9353,46 +9376,46 @@
       <c r="O73" s="53">
         <v>12260</v>
       </c>
-      <c r="P73" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="63">
-        <v>0</v>
-      </c>
-      <c r="R73" s="63">
-        <v>0</v>
-      </c>
-      <c r="S73" s="65">
+      <c r="P73" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="62">
+        <v>0</v>
+      </c>
+      <c r="R73" s="62">
+        <v>0</v>
+      </c>
+      <c r="S73" s="64">
         <v>20</v>
       </c>
-      <c r="T73" s="65">
+      <c r="T73" s="64">
         <v>16</v>
       </c>
-      <c r="U73" s="64">
-        <v>0</v>
-      </c>
-      <c r="V73" s="63">
-        <v>0</v>
-      </c>
-      <c r="W73" s="63">
-        <v>0</v>
-      </c>
-      <c r="X73" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="69">
+      <c r="U73" s="63">
+        <v>0</v>
+      </c>
+      <c r="V73" s="62">
+        <v>0</v>
+      </c>
+      <c r="W73" s="62">
+        <v>0</v>
+      </c>
+      <c r="X73" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="68">
         <v>2013</v>
       </c>
-      <c r="AA73" s="69">
+      <c r="AA73" s="68">
         <v>2013</v>
       </c>
-      <c r="AB73" s="72">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="72">
+      <c r="AB73" s="71">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="71">
         <v>0</v>
       </c>
     </row>
@@ -9400,4 +9423,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350633A3-3E17-4E1A-B76D-568FECB9C7F8}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="74"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C8" si="0">CONCATENATE(A2,B2)</f>
+        <v>ISO20'ARS_ISO</v>
+      </c>
+      <c r="D2" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>ISO20'_ETOARS_ISO</v>
+      </c>
+      <c r="D3" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>ISO40'ARS_ISO</v>
+      </c>
+      <c r="D4" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>ISO40'_ETOARS_ISO</v>
+      </c>
+      <c r="D5" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>NON ISO25'ARS_NONISO</v>
+      </c>
+      <c r="D6" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>NON ISO45'ARS_NONISO</v>
+      </c>
+      <c r="D7" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>NON ISOD45ARS_NONISO</v>
+      </c>
+      <c r="D8" s="73">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelReading/inputResources/ConstraintsToJSON.xlsx
+++ b/ExcelReading/inputResources/ConstraintsToJSON.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B31C5120-54E8-4DA7-BE52-DE6C50C10DB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1FD2A236-B5B2-4BAF-A847-938B786AEB00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="7" xr2:uid="{1F0430CC-FF32-404D-8E6F-02861FD37FCA}"/>
+    <workbookView xWindow="5784" yWindow="4092" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="2" xr2:uid="{1F0430CC-FF32-404D-8E6F-02861FD37FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="PDU" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="CONF_UPS_Redundancy">[1]CONFIGURATOR!$D$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:Q10"/>
+  <oleSize ref="A1:Q15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="235">
   <si>
     <t>TYPE</t>
   </si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t>NON ISOD45</t>
+  </si>
+  <si>
+    <t>NO UPS</t>
   </si>
 </sst>
 </file>
@@ -1373,6 +1376,38 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>ACRC301S</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>INROW3CW</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>E75</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>Opt_InR300CW</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>-</v>
+          </cell>
+        </row>
         <row r="19">
           <cell r="C19" t="str">
             <v>ISO40</v>
@@ -2460,116 +2495,158 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D72F67-9801-4512-98A1-5BC98152F107}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="74"/>
+    </row>
+    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="11">
+        <f>IF([2]CONFIGURATOR!$D$13&lt;=[2]CONSTRAINTS!B3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <f>IF([2]CONFIGURATOR!$D$13&lt;=[2]CONSTRAINTS!C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <f>IF([2]CONFIGURATOR!$D$13&lt;=[2]CONSTRAINTS!D3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
+        <f>IF([2]CONFIGURATOR!$D$13&lt;=[2]CONSTRAINTS!E3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="11">
+        <f>IF([2]CONFIGURATOR!$D$13&lt;=[2]CONSTRAINTS!F3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="11">
+        <f>IF([2]CONFIGURATOR!$D$13&lt;=[2]CONSTRAINTS!G3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <f>IF([2]CONFIGURATOR!$D$13&lt;=[2]CONSTRAINTS!H3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="11">
+        <f>IF([2]CONFIGURATOR!$D$13&lt;=[2]CONSTRAINTS!I3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="11">
+        <f>IF([2]CONFIGURATOR!$D$13&lt;=[2]CONSTRAINTS!J3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
+        <f>IF([2]CONFIGURATOR!$D$13&lt;=[2]CONSTRAINTS!K3,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="11">
+        <v>155</v>
+      </c>
+      <c r="C3" s="11">
+        <v>249</v>
+      </c>
+      <c r="D3" s="11">
+        <v>392</v>
+      </c>
+      <c r="E3" s="11">
+        <v>623</v>
+      </c>
+      <c r="F3" s="11">
+        <v>500</v>
+      </c>
+      <c r="G3" s="11">
+        <v>700</v>
+      </c>
+      <c r="H3" s="11">
+        <v>800</v>
+      </c>
+      <c r="I3" s="11">
+        <v>900</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>155</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12">
+      <c r="B5" s="12">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>249</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12">
+      <c r="C5" s="12">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>392</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12">
+      <c r="D5" s="12">
         <v>630</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>623</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12">
+      <c r="E5" s="12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>500</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>700</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>800</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>900</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>1000</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>2000</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>111</v>
       </c>
     </row>
+    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9429,7 +9506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350633A3-3E17-4E1A-B76D-568FECB9C7F8}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/ExcelReading/inputResources/ConstraintsToJSON.xlsx
+++ b/ExcelReading/inputResources/ConstraintsToJSON.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1FD2A236-B5B2-4BAF-A847-938B786AEB00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{57037F22-F509-45DF-82F8-9901E63E3C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5784" yWindow="4092" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="2" xr2:uid="{1F0430CC-FF32-404D-8E6F-02861FD37FCA}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17304" windowHeight="12384" firstSheet="3" activeTab="8" xr2:uid="{1F0430CC-FF32-404D-8E6F-02861FD37FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="PDU" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,11 @@
     <sheet name="UPS" sheetId="12" r:id="rId6"/>
     <sheet name="ContainerUPS" sheetId="13" r:id="rId7"/>
     <sheet name="ERVAndARS" sheetId="14" r:id="rId8"/>
+    <sheet name="CRACoolingType" sheetId="15" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="CONF_UPS_Redundancy">[1]CONFIGURATOR!$D$28</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="250">
   <si>
     <t>TYPE</t>
   </si>
@@ -749,6 +750,51 @@
   </si>
   <si>
     <t>NO UPS</t>
+  </si>
+  <si>
+    <t>CRAH DX</t>
+  </si>
+  <si>
+    <t>2422A</t>
+  </si>
+  <si>
+    <t>2522A</t>
+  </si>
+  <si>
+    <t>2722A</t>
+  </si>
+  <si>
+    <t>3822A</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>CRAH CW</t>
+  </si>
+  <si>
+    <t>0800A</t>
+  </si>
+  <si>
+    <t>1400A</t>
+  </si>
+  <si>
+    <t>1800A</t>
+  </si>
+  <si>
+    <t>2500A</t>
+  </si>
+  <si>
+    <t>3400A</t>
+  </si>
+  <si>
+    <t>4000A</t>
+  </si>
+  <si>
+    <t>4300A</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1288,6 +1334,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1366,6 +1419,11 @@
         <row r="13">
           <cell r="D13">
             <v>91</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17" t="str">
+            <v>N+1</v>
           </cell>
         </row>
         <row r="28">
@@ -2497,17 +2555,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D72F67-9801-4512-98A1-5BC98152F107}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -2797,10 +2855,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -9513,10 +9571,10 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
@@ -9629,4 +9687,243 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D89916-C820-40CE-B638-63A9944FC77A}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="75"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="76">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/B3+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>3</v>
+      </c>
+      <c r="C2" s="76">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/C3+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="76">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/D3+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="76">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/E3+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="12">
+        <v>87.4</v>
+      </c>
+      <c r="C3" s="12">
+        <v>93.6</v>
+      </c>
+      <c r="D3" s="12">
+        <v>99.6</v>
+      </c>
+      <c r="E3" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="17">
+        <v>2082</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2650</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2650</v>
+      </c>
+      <c r="E5" s="17">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="77"/>
+      <c r="C8" s="74" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="76">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/B10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="76">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/C10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="76">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/D10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="76">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/E10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="76">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/F10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>2</v>
+      </c>
+      <c r="G9" s="76">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/G10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="76">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/H10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="12">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="C10" s="12">
+        <v>54.2</v>
+      </c>
+      <c r="D10" s="12">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E10" s="12">
+        <v>89.6</v>
+      </c>
+      <c r="F10" s="12">
+        <v>121</v>
+      </c>
+      <c r="G10" s="12">
+        <v>129.9</v>
+      </c>
+      <c r="H10" s="12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1010</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1310</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1720</v>
+      </c>
+      <c r="E12" s="17">
+        <v>2170</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2582</v>
+      </c>
+      <c r="G12" s="17">
+        <v>2582</v>
+      </c>
+      <c r="H12" s="17">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelReading/inputResources/ConstraintsToJSON.xlsx
+++ b/ExcelReading/inputResources/ConstraintsToJSON.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4930669D-857E-4C7F-8701-52652C7C23BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\excel\ExcelToJSON\ExcelReading\inputResources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B703B3-E4B2-4271-A16F-785A7AA03A15}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6108" yWindow="3744" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="5" xr2:uid="{1F0430CC-FF32-404D-8E6F-02861FD37FCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{1F0430CC-FF32-404D-8E6F-02861FD37FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="PDU" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,6 @@
     <definedName name="CONF_UPS_Redundancy">[1]CONFIGURATOR!$D$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:Q15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2785,7 +2789,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D72F67-9801-4512-98A1-5BC98152F107}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -2793,13 +2797,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="18">
+    <row r="1" spans="1:11" ht="18">
       <c r="A1" s="81" t="s">
         <v>234</v>
       </c>
       <c r="B1" s="81"/>
     </row>
-    <row r="2" spans="1:11" customFormat="1">
+    <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="11">
         <f>IF([2]CONFIGURATOR!$D$13&lt;=[2]CONSTRAINTS!B3,1,0)</f>
@@ -2842,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" customFormat="1">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
@@ -2877,7 +2881,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" customFormat="1">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
@@ -2892,7 +2896,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" customFormat="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
@@ -2927,12 +2931,6 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:11" customFormat="1"/>
-    <row r="7" spans="1:11" customFormat="1"/>
-    <row r="8" spans="1:11" customFormat="1"/>
-    <row r="9" spans="1:11" customFormat="1"/>
-    <row r="10" spans="1:11" customFormat="1"/>
-    <row r="11" spans="1:11" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -3075,15 +3073,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DBB8E7-9517-475F-8EF9-B5A8E6E075B5}">
-  <dimension ref="A1:AL42"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M23" workbookViewId="0">
+    <sheetView topLeftCell="M23" workbookViewId="0">
       <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:38" customFormat="1" ht="18">
+    <row r="1" spans="1:28" ht="18">
       <c r="A1" s="81" t="s">
         <v>136</v>
       </c>
@@ -3115,7 +3113,7 @@
       <c r="AA1" s="70"/>
       <c r="AB1" s="70"/>
     </row>
-    <row r="2" spans="1:38" customFormat="1">
+    <row r="2" spans="1:28">
       <c r="A2" s="75"/>
       <c r="B2" s="74">
         <f>IF(ROUNDDOWN(+(B3)/([2]CONFIGURATOR!$D$13+IF([2]CONFIGURATOR!$D$28="N+1",16+0)),0)&gt;1,1,ROUNDDOWN(+(B3)/([2]CONFIGURATOR!$D$13+IF([2]CONFIGURATOR!$D$28="N+1",16+0)),0))</f>
@@ -3158,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" customFormat="1">
+    <row r="3" spans="1:28">
       <c r="A3" s="75" t="s">
         <v>108</v>
       </c>
@@ -3193,7 +3191,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:38" customFormat="1">
+    <row r="4" spans="1:28">
       <c r="A4" s="75" t="s">
         <v>109</v>
       </c>
@@ -3228,7 +3226,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:38" customFormat="1">
+    <row r="5" spans="1:28">
       <c r="A5" s="76" t="s">
         <v>137</v>
       </c>
@@ -3263,7 +3261,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:38" customFormat="1">
+    <row r="6" spans="1:28">
       <c r="A6" s="76" t="s">
         <v>3</v>
       </c>
@@ -3298,7 +3296,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:38" customFormat="1">
+    <row r="7" spans="1:28">
       <c r="A7" s="75" t="s">
         <v>149</v>
       </c>
@@ -3333,7 +3331,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:38" customFormat="1">
+    <row r="8" spans="1:28">
       <c r="A8" s="76" t="s">
         <v>160</v>
       </c>
@@ -3368,7 +3366,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:38" customFormat="1">
+    <row r="9" spans="1:28">
       <c r="A9" s="75" t="s">
         <v>110</v>
       </c>
@@ -3403,7 +3401,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="10" spans="1:38" customFormat="1">
+    <row r="10" spans="1:28">
       <c r="A10" s="75" t="s">
         <v>161</v>
       </c>
@@ -3438,7 +3436,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:38" customFormat="1">
+    <row r="11" spans="1:28">
       <c r="A11" s="75" t="s">
         <v>162</v>
       </c>
@@ -3473,7 +3471,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="12" spans="1:38" customFormat="1">
+    <row r="12" spans="1:28">
       <c r="A12" s="75" t="s">
         <v>163</v>
       </c>
@@ -3508,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:38" customFormat="1">
+    <row r="13" spans="1:28">
       <c r="A13" s="75" t="s">
         <v>164</v>
       </c>
@@ -3543,7 +3541,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:38" customFormat="1">
+    <row r="14" spans="1:28">
       <c r="A14" s="70"/>
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
@@ -3556,7 +3554,7 @@
       <c r="J14" s="70"/>
       <c r="K14" s="70"/>
     </row>
-    <row r="15" spans="1:38" customFormat="1" ht="18">
+    <row r="15" spans="1:28" ht="18">
       <c r="A15" s="79" t="s">
         <v>168</v>
       </c>
@@ -3645,7 +3643,7 @@
       <c r="AA15" s="70"/>
       <c r="AB15" s="70"/>
     </row>
-    <row r="16" spans="1:38" customFormat="1">
+    <row r="16" spans="1:28">
       <c r="A16" s="75"/>
       <c r="B16" s="74">
         <f>IF(B15&gt;0,1,0)</f>
@@ -3724,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:38" customFormat="1">
+    <row r="17" spans="1:28">
       <c r="A17" s="75" t="s">
         <v>108</v>
       </c>
@@ -3798,7 +3796,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:38" customFormat="1">
+    <row r="18" spans="1:28">
       <c r="A18" s="75" t="s">
         <v>109</v>
       </c>
@@ -3860,7 +3858,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:38" customFormat="1">
+    <row r="19" spans="1:28">
       <c r="A19" s="75" t="s">
         <v>137</v>
       </c>
@@ -3922,7 +3920,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:38" customFormat="1">
+    <row r="20" spans="1:28">
       <c r="A20" s="80" t="s">
         <v>3</v>
       </c>
@@ -4003,7 +4001,7 @@
         <v>GALAXY VM 200</v>
       </c>
     </row>
-    <row r="21" spans="1:38" customFormat="1">
+    <row r="21" spans="1:28">
       <c r="A21" s="75" t="s">
         <v>149</v>
       </c>
@@ -4084,7 +4082,7 @@
         <v>GXYVM_200</v>
       </c>
     </row>
-    <row r="22" spans="1:38" customFormat="1">
+    <row r="22" spans="1:28">
       <c r="A22" s="75" t="s">
         <v>160</v>
       </c>
@@ -4146,7 +4144,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:38" customFormat="1">
+    <row r="23" spans="1:28">
       <c r="A23" s="75" t="s">
         <v>110</v>
       </c>
@@ -4208,7 +4206,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="24" spans="1:38" customFormat="1">
+    <row r="24" spans="1:28">
       <c r="A24" s="75" t="s">
         <v>104</v>
       </c>
@@ -4271,7 +4269,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="25" spans="1:38" customFormat="1">
+    <row r="25" spans="1:28">
       <c r="A25" s="75" t="s">
         <v>105</v>
       </c>
@@ -4333,7 +4331,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="26" spans="1:38" customFormat="1">
+    <row r="26" spans="1:28">
       <c r="A26" s="75" t="s">
         <v>163</v>
       </c>
@@ -4395,7 +4393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:38" customFormat="1">
+    <row r="27" spans="1:28">
       <c r="A27" s="75" t="s">
         <v>191</v>
       </c>
@@ -4439,7 +4437,7 @@
       <c r="S27" s="77"/>
       <c r="T27" s="77"/>
     </row>
-    <row r="28" spans="1:38" customFormat="1">
+    <row r="28" spans="1:28">
       <c r="A28" s="70"/>
       <c r="B28" s="71" t="s">
         <v>250</v>
@@ -4477,7 +4475,7 @@
       <c r="S28" s="70"/>
       <c r="T28" s="70"/>
     </row>
-    <row r="29" spans="1:38" customFormat="1" ht="18">
+    <row r="29" spans="1:28" ht="18">
       <c r="A29" s="79" t="s">
         <v>252</v>
       </c>
@@ -4509,7 +4507,7 @@
       <c r="AA29" s="70"/>
       <c r="AB29" s="70"/>
     </row>
-    <row r="30" spans="1:38" customFormat="1">
+    <row r="30" spans="1:28">
       <c r="A30" s="75"/>
       <c r="B30" s="74">
         <f>ROUNDDOWN(+B31/[2]CONFIGURATOR!$D$13,0)</f>
@@ -4556,7 +4554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" customFormat="1">
+    <row r="31" spans="1:28">
       <c r="A31" s="75" t="s">
         <v>108</v>
       </c>
@@ -4605,7 +4603,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:38" customFormat="1">
+    <row r="32" spans="1:28">
       <c r="A32" s="75" t="s">
         <v>109</v>
       </c>
@@ -4643,7 +4641,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:38" customFormat="1">
+    <row r="33" spans="1:12">
       <c r="A33" s="75" t="s">
         <v>137</v>
       </c>
@@ -4681,7 +4679,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:38" customFormat="1">
+    <row r="34" spans="1:12">
       <c r="A34" s="80" t="s">
         <v>3</v>
       </c>
@@ -4730,7 +4728,7 @@
         <v>Easy UPS 3M 200</v>
       </c>
     </row>
-    <row r="35" spans="1:38" customFormat="1">
+    <row r="35" spans="1:12">
       <c r="A35" s="75" t="s">
         <v>149</v>
       </c>
@@ -4779,7 +4777,7 @@
         <v>E3M_200</v>
       </c>
     </row>
-    <row r="36" spans="1:38" customFormat="1">
+    <row r="36" spans="1:12">
       <c r="A36" s="75" t="s">
         <v>160</v>
       </c>
@@ -4817,7 +4815,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:38" customFormat="1">
+    <row r="37" spans="1:12">
       <c r="A37" s="75" t="s">
         <v>110</v>
       </c>
@@ -4855,7 +4853,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="38" spans="1:38" customFormat="1">
+    <row r="38" spans="1:12">
       <c r="A38" s="75" t="s">
         <v>104</v>
       </c>
@@ -4893,7 +4891,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="39" spans="1:38" customFormat="1">
+    <row r="39" spans="1:12">
       <c r="A39" s="75" t="s">
         <v>105</v>
       </c>
@@ -4931,7 +4929,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="40" spans="1:38" customFormat="1">
+    <row r="40" spans="1:12">
       <c r="A40" s="75" t="s">
         <v>163</v>
       </c>
@@ -4969,7 +4967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:38" customFormat="1">
+    <row r="41" spans="1:12">
       <c r="A41" s="75" t="s">
         <v>191</v>
       </c>
@@ -5007,7 +5005,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="42" spans="1:38" customFormat="1">
+    <row r="42" spans="1:12">
       <c r="A42" s="70"/>
       <c r="B42" s="71" t="s">
         <v>268</v>
@@ -5052,8 +5050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54C99C0-56AC-4268-A6D1-0A84E8101377}">
   <dimension ref="A1:AC73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5079,6 +5077,21 @@
       <c r="E1" s="19">
         <v>22.1</v>
       </c>
+      <c r="F1" s="70">
+        <v>11</v>
+      </c>
+      <c r="G1" s="70">
+        <v>11</v>
+      </c>
+      <c r="H1" s="70">
+        <v>22</v>
+      </c>
+      <c r="I1" s="70">
+        <v>22</v>
+      </c>
+      <c r="J1" s="70">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:25" ht="15" thickBot="1">
       <c r="A2" s="16" t="s">
@@ -5097,6 +5110,21 @@
       <c r="E2" s="19">
         <v>39.700000000000003</v>
       </c>
+      <c r="F2" s="70">
+        <v>11</v>
+      </c>
+      <c r="G2" s="70">
+        <v>11</v>
+      </c>
+      <c r="H2" s="70">
+        <v>22</v>
+      </c>
+      <c r="I2" s="70">
+        <v>22</v>
+      </c>
+      <c r="J2" s="70">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:25" ht="15" thickBot="1">
       <c r="A3" s="16" t="s">
@@ -5115,6 +5143,21 @@
       <c r="E3" s="19">
         <v>33.200000000000003</v>
       </c>
+      <c r="F3" s="70">
+        <v>11</v>
+      </c>
+      <c r="G3" s="70">
+        <v>11</v>
+      </c>
+      <c r="H3" s="70">
+        <v>22</v>
+      </c>
+      <c r="I3" s="70">
+        <v>22</v>
+      </c>
+      <c r="J3" s="70">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1">
       <c r="A4" s="16" t="s">
@@ -5133,6 +5176,21 @@
       <c r="E4" s="19">
         <v>15.7</v>
       </c>
+      <c r="F4" s="70">
+        <v>11</v>
+      </c>
+      <c r="G4" s="70">
+        <v>11</v>
+      </c>
+      <c r="H4" s="70">
+        <v>22</v>
+      </c>
+      <c r="I4" s="70">
+        <v>22</v>
+      </c>
+      <c r="J4" s="70">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:25" ht="15" thickBot="1">
       <c r="A5" s="16" t="s">
@@ -5151,6 +5209,21 @@
       <c r="E5" s="19">
         <v>16</v>
       </c>
+      <c r="F5" s="70">
+        <v>11</v>
+      </c>
+      <c r="G5" s="70">
+        <v>11</v>
+      </c>
+      <c r="H5" s="70">
+        <v>22</v>
+      </c>
+      <c r="I5" s="70">
+        <v>22</v>
+      </c>
+      <c r="J5" s="70">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1">
       <c r="A6" s="16" t="s">
@@ -5169,6 +5242,21 @@
       <c r="E6" s="19">
         <v>29</v>
       </c>
+      <c r="F6" s="70">
+        <v>11</v>
+      </c>
+      <c r="G6" s="70">
+        <v>11</v>
+      </c>
+      <c r="H6" s="70">
+        <v>22</v>
+      </c>
+      <c r="I6" s="70">
+        <v>22</v>
+      </c>
+      <c r="J6" s="70">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:25" ht="15" thickBot="1">
       <c r="A7" s="16" t="s">
@@ -5187,6 +5275,21 @@
       <c r="E7" s="19">
         <v>28</v>
       </c>
+      <c r="F7" s="70">
+        <v>11</v>
+      </c>
+      <c r="G7" s="70">
+        <v>11</v>
+      </c>
+      <c r="H7" s="70">
+        <v>22</v>
+      </c>
+      <c r="I7" s="70">
+        <v>22</v>
+      </c>
+      <c r="J7" s="70">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1">
       <c r="A8" s="16" t="s">
@@ -5205,6 +5308,21 @@
       <c r="E8" s="19">
         <v>24.4</v>
       </c>
+      <c r="F8" s="70">
+        <v>11</v>
+      </c>
+      <c r="G8" s="70">
+        <v>11</v>
+      </c>
+      <c r="H8" s="70">
+        <v>22</v>
+      </c>
+      <c r="I8" s="70">
+        <v>22</v>
+      </c>
+      <c r="J8" s="70">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="15" thickBot="1">
       <c r="A9" s="16" t="s">
@@ -5223,6 +5341,21 @@
       <c r="E9" s="19">
         <v>39.700000000000003</v>
       </c>
+      <c r="F9" s="70">
+        <v>11</v>
+      </c>
+      <c r="G9" s="70">
+        <v>11</v>
+      </c>
+      <c r="H9" s="70">
+        <v>22</v>
+      </c>
+      <c r="I9" s="70">
+        <v>22</v>
+      </c>
+      <c r="J9" s="70">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="21" t="s">
@@ -5241,6 +5374,21 @@
       <c r="E10" s="19">
         <v>24.4</v>
       </c>
+      <c r="F10" s="70">
+        <v>11</v>
+      </c>
+      <c r="G10" s="70">
+        <v>11</v>
+      </c>
+      <c r="H10" s="70">
+        <v>22</v>
+      </c>
+      <c r="I10" s="70">
+        <v>22</v>
+      </c>
+      <c r="J10" s="70">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="24" t="s">
@@ -5257,6 +5405,21 @@
         <v>213</v>
       </c>
       <c r="E11" s="27"/>
+      <c r="F11" s="70">
+        <v>7.3</v>
+      </c>
+      <c r="G11" s="70">
+        <v>7.3</v>
+      </c>
+      <c r="H11" s="70">
+        <v>7.3</v>
+      </c>
+      <c r="I11" s="70">
+        <v>7.3</v>
+      </c>
+      <c r="J11" s="70">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="24" t="s">
@@ -5272,6 +5435,21 @@
       <c r="D12" s="28"/>
       <c r="E12" s="29" t="s">
         <v>216</v>
+      </c>
+      <c r="F12" s="70">
+        <v>7.3</v>
+      </c>
+      <c r="G12" s="70">
+        <v>7.3</v>
+      </c>
+      <c r="H12" s="70">
+        <v>7.3</v>
+      </c>
+      <c r="I12" s="70">
+        <v>7.3</v>
+      </c>
+      <c r="J12" s="70">
+        <v>7.3</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15" thickBot="1"/>
@@ -10489,12 +10667,13 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D89916-C820-40CE-B638-63A9944FC77A}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
@@ -10502,7 +10681,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="81" t="s">
         <v>235</v>
       </c>
@@ -10512,7 +10691,7 @@
       </c>
       <c r="D1" s="68"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="69">
         <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/B3+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
@@ -10531,7 +10710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
@@ -10548,7 +10727,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -10565,7 +10744,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>240</v>
       </c>
@@ -10582,7 +10761,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>241</v>
       </c>
@@ -10591,8 +10770,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:15"/>
-    <row r="8" spans="1:15" ht="18">
+    <row r="8" spans="1:8" ht="18">
       <c r="A8" s="81" t="s">
         <v>242</v>
       </c>
@@ -10601,7 +10779,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="69">
         <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/B10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
@@ -10632,7 +10810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>108</v>
       </c>
@@ -10658,7 +10836,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -10684,7 +10862,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>240</v>
       </c>
@@ -10710,7 +10888,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>241</v>
       </c>
@@ -10728,5 +10906,6 @@
     <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelReading/inputResources/ConstraintsToJSON.xlsx
+++ b/ExcelReading/inputResources/ConstraintsToJSON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\excel\ExcelToJSON\ExcelReading\inputResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B703B3-E4B2-4271-A16F-785A7AA03A15}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CAEA9C-2E57-404E-9452-EDBBE84379CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{1F0430CC-FF32-404D-8E6F-02861FD37FCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F0430CC-FF32-404D-8E6F-02861FD37FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="PDU" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="270">
   <si>
     <t>TYPE</t>
   </si>
@@ -60,9 +58,6 @@
   </si>
   <si>
     <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>EPDUBAS1</t>
@@ -316,9 +311,6 @@
   </si>
   <si>
     <t>Rack PDU 2G, Switched, ZeroU, 32A, 230V, (21) C13 &amp; (3) C19</t>
-  </si>
-  <si>
-    <t>PDU</t>
   </si>
   <si>
     <t>type</t>
@@ -2037,230 +2029,193 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FE9C5B-61C3-420C-93AC-B28CCAD050E7}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="s">
@@ -2269,32 +2224,26 @@
       <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
       <c r="C15" t="s">
@@ -2303,15 +2252,12 @@
       <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
       <c r="C16" t="s">
@@ -2320,15 +2266,12 @@
       <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>65</v>
       </c>
       <c r="C17" t="s">
@@ -2337,15 +2280,12 @@
       <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>69</v>
       </c>
       <c r="C18" t="s">
@@ -2354,15 +2294,12 @@
       <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="s">
@@ -2371,15 +2308,12 @@
       <c r="D19" t="s">
         <v>75</v>
       </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>77</v>
       </c>
       <c r="C20" t="s">
@@ -2388,15 +2322,12 @@
       <c r="D20" t="s">
         <v>79</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>81</v>
       </c>
       <c r="C21" t="s">
@@ -2405,15 +2336,12 @@
       <c r="D21" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>85</v>
       </c>
       <c r="C22" t="s">
@@ -2421,9 +2349,6 @@
       </c>
       <c r="D22" t="s">
         <v>87</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2445,33 +2370,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="9">
         <v>42</v>
@@ -2497,7 +2422,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="9">
         <v>48</v>
@@ -2523,7 +2448,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="9">
         <v>42</v>
@@ -2549,7 +2474,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="9">
         <v>48</v>
@@ -2575,7 +2500,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" s="9">
         <v>42</v>
@@ -2601,7 +2526,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" s="9">
         <v>48</v>
@@ -2627,7 +2552,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" s="9">
         <v>42</v>
@@ -2653,7 +2578,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="9">
         <v>48</v>
@@ -2679,7 +2604,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="9">
         <v>42</v>
@@ -2705,7 +2630,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" s="9">
         <v>48</v>
@@ -2731,7 +2656,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" s="9">
         <v>42</v>
@@ -2757,7 +2682,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" s="9">
         <v>48</v>
@@ -2799,7 +2724,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18">
       <c r="A1" s="81" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" s="81"/>
     </row>
@@ -2848,7 +2773,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" s="11">
         <v>155</v>
@@ -2883,7 +2808,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2898,7 +2823,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" s="12">
         <v>250</v>
@@ -2913,22 +2838,22 @@
         <v>1000</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2971,98 +2896,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3083,7 +3008,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="18">
       <c r="A1" s="81" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="70"/>
@@ -3158,7 +3083,7 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="75" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" s="74">
         <v>16</v>
@@ -3193,7 +3118,7 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="75" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="74">
         <v>16</v>
@@ -3228,37 +3153,37 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="76" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F5" s="75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J5" s="75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K5" s="75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -3266,109 +3191,109 @@
         <v>3</v>
       </c>
       <c r="B6" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="E6" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="F6" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="G6" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="H6" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="I6" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="J6" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="K6" s="75" t="s">
         <v>146</v>
-      </c>
-      <c r="J6" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" s="75" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="D7" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="E7" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="F7" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="G7" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="H7" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="I7" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="J7" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="K7" s="75" t="s">
         <v>157</v>
-      </c>
-      <c r="J7" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="K7" s="75" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="E8" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="F8" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="G8" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="H8" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="I8" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="J8" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="I8" s="75" t="s">
+      <c r="K8" s="75" t="s">
         <v>157</v>
-      </c>
-      <c r="J8" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="K8" s="75" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" s="72">
         <v>250</v>
@@ -3403,7 +3328,7 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B10" s="72">
         <v>600</v>
@@ -3438,7 +3363,7 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B11" s="73">
         <v>1070</v>
@@ -3473,7 +3398,7 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="75" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B12" s="72">
         <v>1</v>
@@ -3508,37 +3433,37 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="F13" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="I13" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="J13" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="E13" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" s="73" t="s">
-        <v>167</v>
-      </c>
       <c r="K13" s="73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -3556,7 +3481,7 @@
     </row>
     <row r="15" spans="1:28" ht="18">
       <c r="A15" s="79" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B15" s="71">
         <f>ROUNDDOWN(+B17/[2]CONFIGURATOR!$D$13,0)*IF(OR(CONF_UPS_Redundancy="N",CONF_UPS_Redundancy="2N"),IF(RIGHT([2]CONSTRAINTS!B19,3)="N+1",0,1),IF(RIGHT([2]CONSTRAINTS!B19,3)="N+1",1,0))</f>
@@ -3724,7 +3649,7 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="75" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B17" s="74">
         <f>+B18*1</f>
@@ -3798,7 +3723,7 @@
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="75" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" s="74">
         <v>15</v>
@@ -3860,64 +3785,64 @@
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="75" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B19" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="N19" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="P19" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q19" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="R19" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="S19" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="T19" s="75" t="s">
         <v>169</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="I19" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="J19" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="M19" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="N19" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="O19" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="P19" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q19" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="R19" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="S19" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="T19" s="75" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -4003,7 +3928,7 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B21" s="75" t="str">
         <f t="shared" ref="B21:R21" si="3">CONCATENATE("G",RIGHT(B19,LEN(B19)-7),"_",B18)</f>
@@ -4084,69 +4009,69 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B22" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="E22" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="F22" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="E22" s="75" t="s">
+      <c r="G22" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="F22" s="75" t="s">
+      <c r="H22" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="75" t="s">
+      <c r="I22" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="75" t="s">
+      <c r="J22" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="I22" s="75" t="s">
+      <c r="K22" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="L22" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="K22" s="75" t="s">
+      <c r="M22" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="L22" s="75" t="s">
+      <c r="N22" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="M22" s="75" t="s">
+      <c r="O22" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="N22" s="75" t="s">
+      <c r="P22" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="O22" s="75" t="s">
+      <c r="Q22" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="P22" s="75" t="s">
+      <c r="R22" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="Q22" s="75" t="s">
+      <c r="S22" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="R22" s="75" t="s">
+      <c r="T22" s="75" t="s">
         <v>188</v>
-      </c>
-      <c r="S22" s="75" t="s">
-        <v>189</v>
-      </c>
-      <c r="T22" s="75" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="72">
         <v>250</v>
@@ -4208,7 +4133,7 @@
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24" s="72">
         <v>521</v>
@@ -4271,7 +4196,7 @@
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" s="73">
         <v>847</v>
@@ -4333,7 +4258,7 @@
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="75" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B26" s="72">
         <v>1</v>
@@ -4395,7 +4320,7 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="75" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B27" s="73">
         <v>12.5</v>
@@ -4440,34 +4365,34 @@
     <row r="28" spans="1:28">
       <c r="A28" s="70"/>
       <c r="B28" s="71" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C28" s="71" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F28" s="71"/>
       <c r="G28" s="71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H28" s="71"/>
       <c r="I28" s="71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J28" s="71"/>
       <c r="K28" s="71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L28" s="71"/>
       <c r="M28" s="71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N28" s="71"/>
       <c r="O28" s="71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P28" s="70"/>
       <c r="Q28" s="70"/>
@@ -4477,7 +4402,7 @@
     </row>
     <row r="29" spans="1:28" ht="18">
       <c r="A29" s="79" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B29" s="71"/>
       <c r="C29" s="71"/>
@@ -4556,7 +4481,7 @@
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="75" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" s="74">
         <f>+B32</f>
@@ -4605,7 +4530,7 @@
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="75" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B32" s="74">
         <v>10</v>
@@ -4643,40 +4568,40 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="75" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E33" s="75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F33" s="75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G33" s="75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H33" s="75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I33" s="75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J33" s="75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K33" s="75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L33" s="75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4730,7 +4655,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B35" s="75" t="str">
         <f>CONCATENATE("E",RIGHT(B33,LEN(B33)-9),"_",B32)</f>
@@ -4779,45 +4704,45 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B36" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="C36" s="75" t="s">
+      <c r="E36" s="75" t="s">
         <v>256</v>
       </c>
-      <c r="D36" s="75" t="s">
+      <c r="F36" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="E36" s="75" t="s">
+      <c r="G36" s="75" t="s">
         <v>258</v>
       </c>
-      <c r="F36" s="75" t="s">
+      <c r="H36" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="G36" s="75" t="s">
+      <c r="I36" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="H36" s="75" t="s">
+      <c r="J36" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="I36" s="75" t="s">
+      <c r="K36" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="J36" s="75" t="s">
+      <c r="L36" s="75" t="s">
         <v>263</v>
-      </c>
-      <c r="K36" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="L36" s="75" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B37" s="72">
         <v>250</v>
@@ -4855,7 +4780,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" s="72">
         <v>380</v>
@@ -4893,7 +4818,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39" s="73">
         <v>928</v>
@@ -4931,7 +4856,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="75" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B40" s="72">
         <v>1</v>
@@ -4969,7 +4894,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="75" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B41" s="73">
         <v>10.5</v>
@@ -4990,7 +4915,7 @@
         <v>6</v>
       </c>
       <c r="H41" s="73" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I41" s="73">
         <v>7.5</v>
@@ -4999,7 +4924,7 @@
         <v>5.4</v>
       </c>
       <c r="K41" s="73" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L41" s="73">
         <v>7.4</v>
@@ -5008,33 +4933,33 @@
     <row r="42" spans="1:12">
       <c r="A42" s="70"/>
       <c r="B42" s="71" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D42" s="71" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F42" s="71" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G42" s="70"/>
       <c r="H42" s="70"/>
       <c r="I42" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="J42" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="K42" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="L42" s="71" t="s">
         <v>269</v>
-      </c>
-      <c r="J42" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="K42" s="71" t="s">
-        <v>270</v>
-      </c>
-      <c r="L42" s="71" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5050,7 +4975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54C99C0-56AC-4268-A6D1-0A84E8101377}">
   <dimension ref="A1:AC73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -5063,10 +4988,10 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15" thickBot="1">
       <c r="A1" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C1" s="17">
         <v>1</v>
@@ -5095,10 +5020,10 @@
     </row>
     <row r="2" spans="1:25" ht="15" thickBot="1">
       <c r="A2" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C2" s="17">
         <f t="shared" ref="C2:C12" si="0">+C1+1</f>
@@ -5128,10 +5053,10 @@
     </row>
     <row r="3" spans="1:25" ht="15" thickBot="1">
       <c r="A3" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C3" s="17">
         <f t="shared" si="0"/>
@@ -5161,10 +5086,10 @@
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1">
       <c r="A4" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C4" s="17">
         <f t="shared" si="0"/>
@@ -5194,10 +5119,10 @@
     </row>
     <row r="5" spans="1:25" ht="15" thickBot="1">
       <c r="A5" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" s="17">
         <f t="shared" si="0"/>
@@ -5227,10 +5152,10 @@
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1">
       <c r="A6" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6" s="17">
         <f t="shared" si="0"/>
@@ -5260,10 +5185,10 @@
     </row>
     <row r="7" spans="1:25" ht="15" thickBot="1">
       <c r="A7" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C7" s="17">
         <f t="shared" si="0"/>
@@ -5293,10 +5218,10 @@
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1">
       <c r="A8" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="17">
         <f t="shared" si="0"/>
@@ -5326,10 +5251,10 @@
     </row>
     <row r="9" spans="1:25" ht="15" thickBot="1">
       <c r="A9" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" si="0"/>
@@ -5359,10 +5284,10 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C10" s="17">
         <f t="shared" si="0"/>
@@ -5392,17 +5317,17 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C11" s="25">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="70">
@@ -5423,10 +5348,10 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C12" s="25">
         <f t="shared" si="0"/>
@@ -5434,7 +5359,7 @@
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F12" s="70">
         <v>7.3</v>
@@ -5455,13 +5380,13 @@
     <row r="13" spans="1:25" ht="15" thickBot="1"/>
     <row r="14" spans="1:25">
       <c r="A14" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>217</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>219</v>
       </c>
       <c r="D14" s="32" t="str">
         <f>CONCATENATE(,A14," ",B14," ",C14)</f>
@@ -5533,13 +5458,13 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>218</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>220</v>
       </c>
       <c r="D15" s="36" t="str">
         <f t="shared" ref="D15:D53" si="1">CONCATENATE(,A15," ",B15," ",C15)</f>
@@ -5611,13 +5536,13 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>217</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>219</v>
       </c>
       <c r="D16" s="36" t="str">
         <f t="shared" si="1"/>
@@ -5698,13 +5623,13 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D17" s="36" t="str">
         <f t="shared" si="1"/>
@@ -5785,13 +5710,13 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>217</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>219</v>
       </c>
       <c r="D18" s="36" t="str">
         <f t="shared" si="1"/>
@@ -5872,13 +5797,13 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D19" s="36" t="str">
         <f t="shared" si="1"/>
@@ -5959,13 +5884,13 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="31" t="s">
         <v>217</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>219</v>
       </c>
       <c r="D20" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6046,13 +5971,13 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D21" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6133,13 +6058,13 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>217</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>219</v>
       </c>
       <c r="D22" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6220,13 +6145,13 @@
     </row>
     <row r="23" spans="1:25" ht="15" thickBot="1">
       <c r="A23" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D23" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6307,13 +6232,13 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D24" s="32" t="str">
         <f t="shared" si="1"/>
@@ -6385,13 +6310,13 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B25" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>218</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>220</v>
       </c>
       <c r="D25" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6463,13 +6388,13 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D26" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6541,13 +6466,13 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D27" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6619,13 +6544,13 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D28" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6697,13 +6622,13 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D29" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6775,13 +6700,13 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D30" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6853,13 +6778,13 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D31" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6931,13 +6856,13 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D32" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7009,13 +6934,13 @@
     </row>
     <row r="33" spans="1:25" ht="15" thickBot="1">
       <c r="A33" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D33" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7087,13 +7012,13 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D34" s="32" t="str">
         <f t="shared" si="1"/>
@@ -7174,13 +7099,13 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B35" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="31" t="s">
         <v>218</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>220</v>
       </c>
       <c r="D35" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7261,13 +7186,13 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D36" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7348,13 +7273,13 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D37" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7435,13 +7360,13 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D38" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7522,13 +7447,13 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D39" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7609,13 +7534,13 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D40" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7696,13 +7621,13 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D41" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7783,13 +7708,13 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D42" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7870,13 +7795,13 @@
     </row>
     <row r="43" spans="1:25" ht="15" thickBot="1">
       <c r="A43" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D43" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7957,13 +7882,13 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D44" s="32" t="str">
         <f t="shared" si="1"/>
@@ -8035,13 +7960,13 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B45" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="31" t="s">
         <v>218</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>220</v>
       </c>
       <c r="D45" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8113,13 +8038,13 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D46" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8191,13 +8116,13 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D47" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8269,13 +8194,13 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D48" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8347,13 +8272,13 @@
     </row>
     <row r="49" spans="1:29">
       <c r="A49" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D49" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8425,13 +8350,13 @@
     </row>
     <row r="50" spans="1:29">
       <c r="A50" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D50" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8503,13 +8428,13 @@
     </row>
     <row r="51" spans="1:29">
       <c r="A51" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D51" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8581,13 +8506,13 @@
     </row>
     <row r="52" spans="1:29">
       <c r="A52" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D52" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8659,13 +8584,13 @@
     </row>
     <row r="53" spans="1:29" ht="15" thickBot="1">
       <c r="A53" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D53" s="40" t="str">
         <f t="shared" si="1"/>
@@ -8737,13 +8662,13 @@
     </row>
     <row r="54" spans="1:29">
       <c r="A54" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D54" s="32" t="str">
         <f t="shared" ref="D54:D73" si="8">CONCATENATE(,A54," ",B54," ",C54)</f>
@@ -8827,13 +8752,13 @@
     </row>
     <row r="55" spans="1:29">
       <c r="A55" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B55" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="31" t="s">
         <v>218</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>220</v>
       </c>
       <c r="D55" s="36" t="str">
         <f t="shared" si="8"/>
@@ -8917,13 +8842,13 @@
     </row>
     <row r="56" spans="1:29">
       <c r="A56" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D56" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9007,13 +8932,13 @@
     </row>
     <row r="57" spans="1:29">
       <c r="A57" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D57" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9097,13 +9022,13 @@
     </row>
     <row r="58" spans="1:29">
       <c r="A58" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D58" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9187,13 +9112,13 @@
     </row>
     <row r="59" spans="1:29">
       <c r="A59" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D59" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9277,13 +9202,13 @@
     </row>
     <row r="60" spans="1:29">
       <c r="A60" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D60" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9367,13 +9292,13 @@
     </row>
     <row r="61" spans="1:29">
       <c r="A61" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D61" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9457,13 +9382,13 @@
     </row>
     <row r="62" spans="1:29">
       <c r="A62" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D62" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9547,13 +9472,13 @@
     </row>
     <row r="63" spans="1:29" ht="15" thickBot="1">
       <c r="A63" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D63" s="40" t="str">
         <f t="shared" si="8"/>
@@ -9637,13 +9562,13 @@
     </row>
     <row r="64" spans="1:29">
       <c r="A64" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D64" s="32" t="str">
         <f t="shared" si="8"/>
@@ -9727,13 +9652,13 @@
     </row>
     <row r="65" spans="1:29">
       <c r="A65" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B65" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" s="31" t="s">
         <v>218</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>220</v>
       </c>
       <c r="D65" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9817,13 +9742,13 @@
     </row>
     <row r="66" spans="1:29">
       <c r="A66" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D66" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9907,13 +9832,13 @@
     </row>
     <row r="67" spans="1:29">
       <c r="A67" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D67" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9997,13 +9922,13 @@
     </row>
     <row r="68" spans="1:29">
       <c r="A68" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D68" s="36" t="str">
         <f t="shared" si="8"/>
@@ -10087,13 +10012,13 @@
     </row>
     <row r="69" spans="1:29">
       <c r="A69" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D69" s="36" t="str">
         <f t="shared" si="8"/>
@@ -10177,13 +10102,13 @@
     </row>
     <row r="70" spans="1:29">
       <c r="A70" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D70" s="36" t="str">
         <f t="shared" si="8"/>
@@ -10267,13 +10192,13 @@
     </row>
     <row r="71" spans="1:29">
       <c r="A71" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D71" s="36" t="str">
         <f t="shared" si="8"/>
@@ -10357,13 +10282,13 @@
     </row>
     <row r="72" spans="1:29">
       <c r="A72" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D72" s="36" t="str">
         <f t="shared" si="8"/>
@@ -10447,13 +10372,13 @@
     </row>
     <row r="73" spans="1:29" ht="15" thickBot="1">
       <c r="A73" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D73" s="40" t="str">
         <f t="shared" si="8"/>
@@ -10553,16 +10478,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="A1" s="81" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" s="81"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="65" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C8" si="0">CONCATENATE(A2,B2)</f>
@@ -10574,10 +10499,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -10589,10 +10514,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="65" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -10604,10 +10529,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="65" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -10619,10 +10544,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="65" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -10634,10 +10559,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -10649,10 +10574,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="65" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -10683,11 +10608,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18">
       <c r="A1" s="81" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="67" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D1" s="68"/>
     </row>
@@ -10712,7 +10637,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" s="12">
         <v>87.4</v>
@@ -10732,21 +10657,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>237</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B5" s="15">
         <v>2082</v>
@@ -10763,7 +10688,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -10772,11 +10697,11 @@
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="81" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B8" s="81"/>
       <c r="C8" s="67" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -10812,7 +10737,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="12">
         <v>37.700000000000003</v>
@@ -10841,30 +10766,30 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B12" s="15">
         <v>1010</v>
@@ -10890,7 +10815,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>

--- a/ExcelReading/inputResources/ConstraintsToJSON.xlsx
+++ b/ExcelReading/inputResources/ConstraintsToJSON.xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\excel\ExcelToJSON\ExcelReading\inputResources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project2019\Utility\ExcelToJSON\ExcelReading\inputResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CAEA9C-2E57-404E-9452-EDBBE84379CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB68F11-BD6C-4F0E-B47A-FEA91028AD82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F0430CC-FF32-404D-8E6F-02861FD37FCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{1F0430CC-FF32-404D-8E6F-02861FD37FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="PDU" sheetId="1" r:id="rId1"/>
     <sheet name="RackDetails" sheetId="2" r:id="rId2"/>
     <sheet name="NoUPS" sheetId="6" r:id="rId3"/>
     <sheet name="SingleModule" sheetId="8" r:id="rId4"/>
-    <sheet name="Rack" sheetId="11" r:id="rId5"/>
-    <sheet name="UPS" sheetId="12" r:id="rId6"/>
-    <sheet name="ContainerUPS" sheetId="13" r:id="rId7"/>
-    <sheet name="ERVAndARS" sheetId="14" r:id="rId8"/>
-    <sheet name="CRACoolingType" sheetId="15" r:id="rId9"/>
+    <sheet name="DualModule" sheetId="16" r:id="rId5"/>
+    <sheet name="Rack" sheetId="11" r:id="rId6"/>
+    <sheet name="UPS" sheetId="12" r:id="rId7"/>
+    <sheet name="ContainerUPS" sheetId="13" r:id="rId8"/>
+    <sheet name="ERVAndARS" sheetId="14" r:id="rId9"/>
+    <sheet name="CRACoolingType" sheetId="15" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="CONF_UPS_Redundancy">[1]CONFIGURATOR!$D$28</definedName>
+    <definedName name="CONSTRAINTS_ESY">SingleModule!#REF!</definedName>
+    <definedName name="CONSTRAINTS_GAL">SingleModule!#REF!</definedName>
+    <definedName name="CONSTRAINTS_SYM">SingleModule!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="272">
   <si>
     <t>TYPE</t>
   </si>
@@ -58,6 +64,9 @@
   </si>
   <si>
     <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>EPDUBAS1</t>
@@ -311,6 +320,9 @@
   </si>
   <si>
     <t>Rack PDU 2G, Switched, ZeroU, 32A, 230V, (21) C13 &amp; (3) C19</t>
+  </si>
+  <si>
+    <t>PDU</t>
   </si>
   <si>
     <t>type</t>
@@ -1348,7 +1360,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1534,6 +1546,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2029,193 +2056,230 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FE9C5B-61C3-420C-93AC-B28CCAD050E7}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="E12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="s">
@@ -2224,26 +2288,32 @@
       <c r="D13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="E14" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C15" t="s">
@@ -2252,12 +2322,15 @@
       <c r="D15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C16" t="s">
@@ -2266,12 +2339,15 @@
       <c r="D16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="E16" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C17" t="s">
@@ -2280,12 +2356,15 @@
       <c r="D17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+      <c r="E17" t="s">
         <v>68</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C18" t="s">
@@ -2294,12 +2373,15 @@
       <c r="D18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+      <c r="E18" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="s">
@@ -2308,12 +2390,15 @@
       <c r="D19" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
+      <c r="E19" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C20" t="s">
@@ -2322,12 +2407,15 @@
       <c r="D20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+      <c r="E20" t="s">
         <v>80</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C21" t="s">
@@ -2336,12 +2424,15 @@
       <c r="D21" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
+      <c r="E21" t="s">
         <v>84</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C22" t="s">
@@ -2350,8 +2441,250 @@
       <c r="D22" t="s">
         <v>87</v>
       </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D89916-C820-40CE-B638-63A9944FC77A}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="68"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="69">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/B3+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>3</v>
+      </c>
+      <c r="C2" s="69">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/C3+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="69">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/D3+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="69">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/E3+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="12">
+        <v>87.4</v>
+      </c>
+      <c r="C3" s="12">
+        <v>93.6</v>
+      </c>
+      <c r="D3" s="12">
+        <v>99.6</v>
+      </c>
+      <c r="E3" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="15">
+        <v>2082</v>
+      </c>
+      <c r="C5" s="15">
+        <v>2650</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2650</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="18">
+      <c r="A8" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="86"/>
+      <c r="C8" s="67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="69">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/B10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="69">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/C10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="69">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/D10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="69">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/E10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="69">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/F10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>2</v>
+      </c>
+      <c r="G9" s="69">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/G10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="69">
+        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/H10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="12">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="C10" s="12">
+        <v>54.2</v>
+      </c>
+      <c r="D10" s="12">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E10" s="12">
+        <v>89.6</v>
+      </c>
+      <c r="F10" s="12">
+        <v>121</v>
+      </c>
+      <c r="G10" s="12">
+        <v>129.9</v>
+      </c>
+      <c r="H10" s="12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1010</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1310</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1720</v>
+      </c>
+      <c r="E12" s="15">
+        <v>2170</v>
+      </c>
+      <c r="F12" s="15">
+        <v>2582</v>
+      </c>
+      <c r="G12" s="15">
+        <v>2582</v>
+      </c>
+      <c r="H12" s="15">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2370,33 +2703,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9">
         <v>42</v>
@@ -2422,7 +2755,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" s="9">
         <v>48</v>
@@ -2448,7 +2781,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B4" s="9">
         <v>42</v>
@@ -2474,7 +2807,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B5" s="9">
         <v>48</v>
@@ -2500,7 +2833,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B6" s="9">
         <v>42</v>
@@ -2526,7 +2859,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B7" s="9">
         <v>48</v>
@@ -2552,7 +2885,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B8" s="9">
         <v>42</v>
@@ -2578,7 +2911,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B9" s="9">
         <v>48</v>
@@ -2604,7 +2937,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B10" s="9">
         <v>42</v>
@@ -2630,7 +2963,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B11" s="9">
         <v>48</v>
@@ -2656,7 +2989,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B12" s="9">
         <v>42</v>
@@ -2682,7 +3015,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B13" s="9">
         <v>48</v>
@@ -2717,16 +3050,16 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
-      <c r="A1" s="81" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="81"/>
+      <c r="A1" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
@@ -2773,7 +3106,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" s="11">
         <v>155</v>
@@ -2808,7 +3141,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2823,7 +3156,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" s="12">
         <v>250</v>
@@ -2838,22 +3171,22 @@
         <v>1000</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2867,20 +3200,446 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F629E80C-F458-41E5-A38B-37D4FE98219B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection sqref="A1:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17">
+        <f>+A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="17">
+        <f t="shared" ref="C3:L3" si="0">+B3+1</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E3" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K3" s="25">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L3" s="25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="82">
+        <v>300</v>
+      </c>
+      <c r="B4" s="82">
+        <v>600</v>
+      </c>
+      <c r="C4" s="82">
+        <v>600</v>
+      </c>
+      <c r="D4" s="83">
+        <v>0</v>
+      </c>
+      <c r="E4" s="83">
+        <v>0</v>
+      </c>
+      <c r="F4" s="83">
+        <v>0</v>
+      </c>
+      <c r="G4" s="82">
+        <v>600</v>
+      </c>
+      <c r="H4" s="82">
+        <v>300</v>
+      </c>
+      <c r="I4" s="82">
+        <v>600</v>
+      </c>
+      <c r="J4" s="84">
+        <v>300</v>
+      </c>
+      <c r="K4" s="84">
+        <v>0</v>
+      </c>
+      <c r="L4" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="85">
+        <v>22.1</v>
+      </c>
+      <c r="B5" s="85">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="C5" s="85">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D5" s="85">
+        <v>15.7</v>
+      </c>
+      <c r="E5" s="85">
+        <v>16</v>
+      </c>
+      <c r="F5" s="85">
+        <v>29</v>
+      </c>
+      <c r="G5" s="85">
+        <v>28</v>
+      </c>
+      <c r="H5" s="85">
+        <v>24.4</v>
+      </c>
+      <c r="I5" s="85">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="J5" s="85">
+        <v>24.4</v>
+      </c>
+      <c r="K5" s="84">
+        <v>0</v>
+      </c>
+      <c r="L5" s="84">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E06BE0C-D039-492E-B172-95605D7F95AB}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17">
+        <f>+A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="17">
+        <f t="shared" ref="C3:L3" si="0">+B3+1</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E3" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K3" s="25">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L3" s="25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="82">
+        <v>300</v>
+      </c>
+      <c r="B4" s="82">
+        <v>600</v>
+      </c>
+      <c r="C4" s="82">
+        <v>600</v>
+      </c>
+      <c r="D4" s="83">
+        <v>0</v>
+      </c>
+      <c r="E4" s="83">
+        <v>0</v>
+      </c>
+      <c r="F4" s="83">
+        <v>0</v>
+      </c>
+      <c r="G4" s="82">
+        <v>600</v>
+      </c>
+      <c r="H4" s="82">
+        <v>300</v>
+      </c>
+      <c r="I4" s="82">
+        <v>600</v>
+      </c>
+      <c r="J4" s="84">
+        <v>300</v>
+      </c>
+      <c r="K4" s="84">
+        <v>0</v>
+      </c>
+      <c r="L4" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="85">
+        <v>22.1</v>
+      </c>
+      <c r="B5" s="85">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="C5" s="85">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D5" s="85">
+        <v>15.7</v>
+      </c>
+      <c r="E5" s="85">
+        <v>16</v>
+      </c>
+      <c r="F5" s="85">
+        <v>29</v>
+      </c>
+      <c r="G5" s="85">
+        <v>28</v>
+      </c>
+      <c r="H5" s="85">
+        <v>24.4</v>
+      </c>
+      <c r="I5" s="85">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="J5" s="85">
+        <v>24.4</v>
+      </c>
+      <c r="K5" s="84">
+        <v>0</v>
+      </c>
+      <c r="L5" s="84">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481982F8-BDCC-4961-9719-46BC7829E92E}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2896,98 +3655,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2996,7 +3755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DBB8E7-9517-475F-8EF9-B5A8E6E075B5}">
   <dimension ref="A1:AB42"/>
   <sheetViews>
@@ -3007,10 +3766,10 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:28" ht="18">
-      <c r="A1" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="81"/>
+      <c r="A1" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="86"/>
       <c r="C1" s="70"/>
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
@@ -3083,7 +3842,7 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="75" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" s="74">
         <v>16</v>
@@ -3118,7 +3877,7 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="75" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" s="74">
         <v>16</v>
@@ -3153,37 +3912,37 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="76" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F5" s="75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J5" s="75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K5" s="75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -3191,109 +3950,109 @@
         <v>3</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F6" s="75" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G6" s="75" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K6" s="75" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="75" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E7" s="75" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G7" s="75" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K7" s="75" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="H8" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="I8" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" s="75" t="s">
-        <v>156</v>
-      </c>
       <c r="K8" s="75" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="75" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B9" s="72">
         <v>250</v>
@@ -3328,7 +4087,7 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="75" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" s="72">
         <v>600</v>
@@ -3363,7 +4122,7 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="75" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B11" s="73">
         <v>1070</v>
@@ -3398,7 +4157,7 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="75" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B12" s="72">
         <v>1</v>
@@ -3433,37 +4192,37 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="75" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G13" s="73" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H13" s="73" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K13" s="73" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -3481,7 +4240,7 @@
     </row>
     <row r="15" spans="1:28" ht="18">
       <c r="A15" s="79" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B15" s="71">
         <f>ROUNDDOWN(+B17/[2]CONFIGURATOR!$D$13,0)*IF(OR(CONF_UPS_Redundancy="N",CONF_UPS_Redundancy="2N"),IF(RIGHT([2]CONSTRAINTS!B19,3)="N+1",0,1),IF(RIGHT([2]CONSTRAINTS!B19,3)="N+1",1,0))</f>
@@ -3649,7 +4408,7 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="75" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B17" s="74">
         <f>+B18*1</f>
@@ -3723,7 +4482,7 @@
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="75" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B18" s="74">
         <v>15</v>
@@ -3785,64 +4544,64 @@
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="75" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D19" s="75" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E19" s="75" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F19" s="75" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G19" s="75" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H19" s="75" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I19" s="75" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J19" s="75" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K19" s="75" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L19" s="75" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M19" s="75" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N19" s="75" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O19" s="75" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P19" s="75" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="75" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R19" s="75" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S19" s="75" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="T19" s="75" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -3928,7 +4687,7 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="75" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B21" s="75" t="str">
         <f t="shared" ref="B21:R21" si="3">CONCATENATE("G",RIGHT(B19,LEN(B19)-7),"_",B18)</f>
@@ -4009,69 +4768,69 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="75" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E22" s="75" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F22" s="75" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G22" s="75" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H22" s="75" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I22" s="75" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J22" s="75" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K22" s="75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L22" s="75" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M22" s="75" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N22" s="75" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O22" s="75" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P22" s="75" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="75" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="R22" s="75" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S22" s="75" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="T22" s="75" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="75" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B23" s="72">
         <v>250</v>
@@ -4133,7 +4892,7 @@
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="75" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B24" s="72">
         <v>521</v>
@@ -4196,7 +4955,7 @@
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="75" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B25" s="73">
         <v>847</v>
@@ -4258,7 +5017,7 @@
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="75" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B26" s="72">
         <v>1</v>
@@ -4320,7 +5079,7 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="75" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B27" s="73">
         <v>12.5</v>
@@ -4365,34 +5124,34 @@
     <row r="28" spans="1:28">
       <c r="A28" s="70"/>
       <c r="B28" s="71" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C28" s="71" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F28" s="71"/>
       <c r="G28" s="71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H28" s="71"/>
       <c r="I28" s="71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J28" s="71"/>
       <c r="K28" s="71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L28" s="71"/>
       <c r="M28" s="71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N28" s="71"/>
       <c r="O28" s="71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P28" s="70"/>
       <c r="Q28" s="70"/>
@@ -4402,7 +5161,7 @@
     </row>
     <row r="29" spans="1:28" ht="18">
       <c r="A29" s="79" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B29" s="71"/>
       <c r="C29" s="71"/>
@@ -4481,7 +5240,7 @@
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="75" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B31" s="74">
         <f>+B32</f>
@@ -4530,7 +5289,7 @@
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="75" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B32" s="74">
         <v>10</v>
@@ -4568,40 +5327,40 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="75" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E33" s="75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F33" s="75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G33" s="75" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H33" s="75" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I33" s="75" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J33" s="75" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K33" s="75" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L33" s="75" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4655,7 +5414,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="75" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B35" s="75" t="str">
         <f>CONCATENATE("E",RIGHT(B33,LEN(B33)-9),"_",B32)</f>
@@ -4704,45 +5463,45 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="75" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C36" s="75" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D36" s="75" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E36" s="75" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F36" s="75" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G36" s="75" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H36" s="75" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I36" s="75" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J36" s="75" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K36" s="75" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L36" s="75" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="75" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B37" s="72">
         <v>250</v>
@@ -4780,7 +5539,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="75" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B38" s="72">
         <v>380</v>
@@ -4818,7 +5577,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="75" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B39" s="73">
         <v>928</v>
@@ -4856,7 +5615,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="75" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B40" s="72">
         <v>1</v>
@@ -4894,7 +5653,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="75" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B41" s="73">
         <v>10.5</v>
@@ -4915,7 +5674,7 @@
         <v>6</v>
       </c>
       <c r="H41" s="73" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I41" s="73">
         <v>7.5</v>
@@ -4924,7 +5683,7 @@
         <v>5.4</v>
       </c>
       <c r="K41" s="73" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L41" s="73">
         <v>7.4</v>
@@ -4933,33 +5692,33 @@
     <row r="42" spans="1:12">
       <c r="A42" s="70"/>
       <c r="B42" s="71" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D42" s="71" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F42" s="71" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G42" s="70"/>
       <c r="H42" s="70"/>
       <c r="I42" s="71" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J42" s="71" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K42" s="71" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L42" s="71" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4971,7 +5730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54C99C0-56AC-4268-A6D1-0A84E8101377}">
   <dimension ref="A1:AC73"/>
   <sheetViews>
@@ -4988,10 +5747,10 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15" thickBot="1">
       <c r="A1" s="16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C1" s="17">
         <v>1</v>
@@ -5020,10 +5779,10 @@
     </row>
     <row r="2" spans="1:25" ht="15" thickBot="1">
       <c r="A2" s="16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C2" s="17">
         <f t="shared" ref="C2:C12" si="0">+C1+1</f>
@@ -5053,10 +5812,10 @@
     </row>
     <row r="3" spans="1:25" ht="15" thickBot="1">
       <c r="A3" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C3" s="17">
         <f t="shared" si="0"/>
@@ -5086,10 +5845,10 @@
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1">
       <c r="A4" s="16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C4" s="17">
         <f t="shared" si="0"/>
@@ -5119,10 +5878,10 @@
     </row>
     <row r="5" spans="1:25" ht="15" thickBot="1">
       <c r="A5" s="16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C5" s="17">
         <f t="shared" si="0"/>
@@ -5152,10 +5911,10 @@
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1">
       <c r="A6" s="16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C6" s="17">
         <f t="shared" si="0"/>
@@ -5185,10 +5944,10 @@
     </row>
     <row r="7" spans="1:25" ht="15" thickBot="1">
       <c r="A7" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C7" s="17">
         <f t="shared" si="0"/>
@@ -5218,10 +5977,10 @@
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1">
       <c r="A8" s="16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C8" s="17">
         <f t="shared" si="0"/>
@@ -5251,10 +6010,10 @@
     </row>
     <row r="9" spans="1:25" ht="15" thickBot="1">
       <c r="A9" s="16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" si="0"/>
@@ -5284,10 +6043,10 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C10" s="17">
         <f t="shared" si="0"/>
@@ -5317,17 +6076,17 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C11" s="25">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="70">
@@ -5348,10 +6107,10 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C12" s="25">
         <f t="shared" si="0"/>
@@ -5359,7 +6118,7 @@
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="29" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F12" s="70">
         <v>7.3</v>
@@ -5380,13 +6139,13 @@
     <row r="13" spans="1:25" ht="15" thickBot="1"/>
     <row r="14" spans="1:25">
       <c r="A14" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D14" s="32" t="str">
         <f>CONCATENATE(,A14," ",B14," ",C14)</f>
@@ -5458,13 +6217,13 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D15" s="36" t="str">
         <f t="shared" ref="D15:D53" si="1">CONCATENATE(,A15," ",B15," ",C15)</f>
@@ -5536,13 +6295,13 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B16" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>219</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>217</v>
       </c>
       <c r="D16" s="36" t="str">
         <f t="shared" si="1"/>
@@ -5623,13 +6382,13 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D17" s="36" t="str">
         <f t="shared" si="1"/>
@@ -5710,13 +6469,13 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D18" s="36" t="str">
         <f t="shared" si="1"/>
@@ -5797,13 +6556,13 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B19" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>220</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>218</v>
       </c>
       <c r="D19" s="36" t="str">
         <f t="shared" si="1"/>
@@ -5884,13 +6643,13 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D20" s="36" t="str">
         <f t="shared" si="1"/>
@@ -5971,13 +6730,13 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D21" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6058,13 +6817,13 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D22" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6145,13 +6904,13 @@
     </row>
     <row r="23" spans="1:25" ht="15" thickBot="1">
       <c r="A23" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D23" s="40" t="str">
         <f t="shared" si="1"/>
@@ -6232,13 +6991,13 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D24" s="32" t="str">
         <f t="shared" si="1"/>
@@ -6310,13 +7069,13 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D25" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6388,13 +7147,13 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B26" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>219</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>217</v>
       </c>
       <c r="D26" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6466,13 +7225,13 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D27" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6544,13 +7303,13 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D28" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6622,13 +7381,13 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B29" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="31" t="s">
         <v>220</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>218</v>
       </c>
       <c r="D29" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6700,13 +7459,13 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>221</v>
-      </c>
       <c r="C30" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D30" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6778,13 +7537,13 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>221</v>
-      </c>
       <c r="C31" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D31" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6856,13 +7615,13 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D32" s="36" t="str">
         <f t="shared" si="1"/>
@@ -6934,13 +7693,13 @@
     </row>
     <row r="33" spans="1:25" ht="15" thickBot="1">
       <c r="A33" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D33" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7012,13 +7771,13 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D34" s="32" t="str">
         <f t="shared" si="1"/>
@@ -7099,13 +7858,13 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D35" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7186,13 +7945,13 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B36" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="31" t="s">
         <v>219</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>217</v>
       </c>
       <c r="D36" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7273,13 +8032,13 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D37" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7360,13 +8119,13 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D38" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7447,13 +8206,13 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B39" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>220</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>218</v>
       </c>
       <c r="D39" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7534,13 +8293,13 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D40" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7621,13 +8380,13 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D41" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7708,13 +8467,13 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>222</v>
-      </c>
       <c r="C42" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D42" s="36" t="str">
         <f t="shared" si="1"/>
@@ -7795,13 +8554,13 @@
     </row>
     <row r="43" spans="1:25" ht="15" thickBot="1">
       <c r="A43" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="B43" s="31" t="s">
-        <v>222</v>
-      </c>
       <c r="C43" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D43" s="40" t="str">
         <f t="shared" si="1"/>
@@ -7882,13 +8641,13 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D44" s="32" t="str">
         <f t="shared" si="1"/>
@@ -7960,13 +8719,13 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D45" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8038,13 +8797,13 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B46" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="31" t="s">
         <v>219</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>217</v>
       </c>
       <c r="D46" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8116,13 +8875,13 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D47" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8194,13 +8953,13 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D48" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8272,13 +9031,13 @@
     </row>
     <row r="49" spans="1:29">
       <c r="A49" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B49" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="31" t="s">
         <v>220</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>218</v>
       </c>
       <c r="D49" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8350,13 +9109,13 @@
     </row>
     <row r="50" spans="1:29">
       <c r="A50" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D50" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8428,13 +9187,13 @@
     </row>
     <row r="51" spans="1:29">
       <c r="A51" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D51" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8506,13 +9265,13 @@
     </row>
     <row r="52" spans="1:29">
       <c r="A52" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D52" s="36" t="str">
         <f t="shared" si="1"/>
@@ -8584,13 +9343,13 @@
     </row>
     <row r="53" spans="1:29" ht="15" thickBot="1">
       <c r="A53" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D53" s="40" t="str">
         <f t="shared" si="1"/>
@@ -8662,13 +9421,13 @@
     </row>
     <row r="54" spans="1:29">
       <c r="A54" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D54" s="32" t="str">
         <f t="shared" ref="D54:D73" si="8">CONCATENATE(,A54," ",B54," ",C54)</f>
@@ -8752,13 +9511,13 @@
     </row>
     <row r="55" spans="1:29">
       <c r="A55" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D55" s="36" t="str">
         <f t="shared" si="8"/>
@@ -8842,13 +9601,13 @@
     </row>
     <row r="56" spans="1:29">
       <c r="A56" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B56" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" s="31" t="s">
         <v>219</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>217</v>
       </c>
       <c r="D56" s="36" t="str">
         <f t="shared" si="8"/>
@@ -8932,13 +9691,13 @@
     </row>
     <row r="57" spans="1:29">
       <c r="A57" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D57" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9022,13 +9781,13 @@
     </row>
     <row r="58" spans="1:29">
       <c r="A58" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D58" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9112,13 +9871,13 @@
     </row>
     <row r="59" spans="1:29">
       <c r="A59" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B59" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="31" t="s">
         <v>220</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>218</v>
       </c>
       <c r="D59" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9202,13 +9961,13 @@
     </row>
     <row r="60" spans="1:29">
       <c r="A60" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D60" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9292,13 +10051,13 @@
     </row>
     <row r="61" spans="1:29">
       <c r="A61" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D61" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9382,13 +10141,13 @@
     </row>
     <row r="62" spans="1:29">
       <c r="A62" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="B62" s="31" t="s">
-        <v>222</v>
-      </c>
       <c r="C62" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D62" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9472,13 +10231,13 @@
     </row>
     <row r="63" spans="1:29" ht="15" thickBot="1">
       <c r="A63" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="B63" s="31" t="s">
-        <v>222</v>
-      </c>
       <c r="C63" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D63" s="40" t="str">
         <f t="shared" si="8"/>
@@ -9562,13 +10321,13 @@
     </row>
     <row r="64" spans="1:29">
       <c r="A64" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D64" s="32" t="str">
         <f t="shared" si="8"/>
@@ -9652,13 +10411,13 @@
     </row>
     <row r="65" spans="1:29">
       <c r="A65" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D65" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9742,13 +10501,13 @@
     </row>
     <row r="66" spans="1:29">
       <c r="A66" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B66" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" s="31" t="s">
         <v>219</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>217</v>
       </c>
       <c r="D66" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9832,13 +10591,13 @@
     </row>
     <row r="67" spans="1:29">
       <c r="A67" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D67" s="36" t="str">
         <f t="shared" si="8"/>
@@ -9922,13 +10681,13 @@
     </row>
     <row r="68" spans="1:29">
       <c r="A68" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D68" s="36" t="str">
         <f t="shared" si="8"/>
@@ -10012,13 +10771,13 @@
     </row>
     <row r="69" spans="1:29">
       <c r="A69" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B69" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="31" t="s">
         <v>220</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>218</v>
       </c>
       <c r="D69" s="36" t="str">
         <f t="shared" si="8"/>
@@ -10102,13 +10861,13 @@
     </row>
     <row r="70" spans="1:29">
       <c r="A70" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D70" s="36" t="str">
         <f t="shared" si="8"/>
@@ -10192,13 +10951,13 @@
     </row>
     <row r="71" spans="1:29">
       <c r="A71" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D71" s="36" t="str">
         <f t="shared" si="8"/>
@@ -10282,13 +11041,13 @@
     </row>
     <row r="72" spans="1:29">
       <c r="A72" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D72" s="36" t="str">
         <f t="shared" si="8"/>
@@ -10372,13 +11131,13 @@
     </row>
     <row r="73" spans="1:29" ht="15" thickBot="1">
       <c r="A73" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D73" s="40" t="str">
         <f t="shared" si="8"/>
@@ -10466,7 +11225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350633A3-3E17-4E1A-B76D-568FECB9C7F8}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -10477,17 +11236,17 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="81"/>
+      <c r="A1" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="65" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C8" si="0">CONCATENATE(A2,B2)</f>
@@ -10499,10 +11258,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="65" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -10514,10 +11273,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="65" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -10529,10 +11288,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -10544,10 +11303,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="65" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -10559,10 +11318,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="65" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -10574,10 +11333,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="65" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -10594,243 +11353,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D89916-C820-40CE-B638-63A9944FC77A}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="81" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="67" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" s="68"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="69">
-        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/B3+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
-        <v>3</v>
-      </c>
-      <c r="C2" s="69">
-        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/C3+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
-        <v>3</v>
-      </c>
-      <c r="D2" s="69">
-        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/D3+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
-        <v>2</v>
-      </c>
-      <c r="E2" s="69">
-        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/E3+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="12">
-        <v>87.4</v>
-      </c>
-      <c r="C3" s="12">
-        <v>93.6</v>
-      </c>
-      <c r="D3" s="12">
-        <v>99.6</v>
-      </c>
-      <c r="E3" s="12">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="15">
-        <v>2082</v>
-      </c>
-      <c r="C5" s="15">
-        <v>2650</v>
-      </c>
-      <c r="D5" s="15">
-        <v>2650</v>
-      </c>
-      <c r="E5" s="15">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="8" spans="1:8" ht="18">
-      <c r="A8" s="81" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="67" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="69">
-        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/B10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
-        <v>4</v>
-      </c>
-      <c r="C9" s="69">
-        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/C10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
-        <v>3</v>
-      </c>
-      <c r="D9" s="69">
-        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/D10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
-        <v>3</v>
-      </c>
-      <c r="E9" s="69">
-        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/E10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
-        <v>3</v>
-      </c>
-      <c r="F9" s="69">
-        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/F10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
-        <v>2</v>
-      </c>
-      <c r="G9" s="69">
-        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/G10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="69">
-        <f>ROUNDUP(($D$87*0.1+[2]CONFIGURATOR!$D$13*1.05)/H10+IF([2]CONFIGURATOR!$D$17="N",0,1),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="12">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="C10" s="12">
-        <v>54.2</v>
-      </c>
-      <c r="D10" s="12">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="E10" s="12">
-        <v>89.6</v>
-      </c>
-      <c r="F10" s="12">
-        <v>121</v>
-      </c>
-      <c r="G10" s="12">
-        <v>129.9</v>
-      </c>
-      <c r="H10" s="12">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" s="15">
-        <v>1010</v>
-      </c>
-      <c r="C12" s="15">
-        <v>1310</v>
-      </c>
-      <c r="D12" s="15">
-        <v>1720</v>
-      </c>
-      <c r="E12" s="15">
-        <v>2170</v>
-      </c>
-      <c r="F12" s="15">
-        <v>2582</v>
-      </c>
-      <c r="G12" s="15">
-        <v>2582</v>
-      </c>
-      <c r="H12" s="15">
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:B8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>